--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8027046190828457</v>
+        <v>0.8027046190830731</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02550172130906248</v>
+        <v>0.02550172130905537</v>
       </c>
       <c r="E2">
-        <v>0.1356996386868765</v>
+        <v>0.1356996386868516</v>
       </c>
       <c r="F2">
         <v>1.916976181982918</v>
@@ -430,19 +430,19 @@
         <v>1.548511508218979</v>
       </c>
       <c r="H2">
-        <v>0.1895537373951948</v>
+        <v>0.1895537373952099</v>
       </c>
       <c r="I2">
-        <v>0.07310969775105214</v>
+        <v>0.07310969775106813</v>
       </c>
       <c r="J2">
-        <v>2.458765026214422</v>
+        <v>2.458765026214451</v>
       </c>
       <c r="K2">
-        <v>0.9356484287885394</v>
+        <v>0.9356484287885252</v>
       </c>
       <c r="L2">
-        <v>1.116917681373671</v>
+        <v>1.116917681373664</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02135081832664554</v>
+        <v>0.02135081832641816</v>
       </c>
       <c r="E3">
-        <v>0.1222917751749861</v>
+        <v>0.1222917751749719</v>
       </c>
       <c r="F3">
         <v>1.68343080507168</v>
       </c>
       <c r="G3">
-        <v>1.357355085900565</v>
+        <v>1.357355085900579</v>
       </c>
       <c r="H3">
-        <v>0.2160341118372893</v>
+        <v>0.2160341118373044</v>
       </c>
       <c r="I3">
-        <v>0.06775423763730615</v>
+        <v>0.06775423763732036</v>
       </c>
       <c r="J3">
-        <v>2.124697238770096</v>
+        <v>2.124697238770082</v>
       </c>
       <c r="K3">
-        <v>0.8060515522393246</v>
+        <v>0.8060515522393388</v>
       </c>
       <c r="L3">
-        <v>0.9644240316413359</v>
+        <v>0.9644240316413146</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314729610134293</v>
+        <v>0.6314729610134009</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01897617823611242</v>
+        <v>0.01897617823610886</v>
       </c>
       <c r="E4">
-        <v>0.1141516323435781</v>
+        <v>0.1141516323435745</v>
       </c>
       <c r="F4">
-        <v>1.546558064690842</v>
+        <v>1.546558064690856</v>
       </c>
       <c r="G4">
-        <v>1.245449879029763</v>
+        <v>1.245449879029778</v>
       </c>
       <c r="H4">
-        <v>0.2334953952685108</v>
+        <v>0.233495395268509</v>
       </c>
       <c r="I4">
-        <v>0.06449574218494547</v>
+        <v>0.06449574218495613</v>
       </c>
       <c r="J4">
         <v>1.921978885760069</v>
@@ -518,7 +518,7 @@
         <v>0.7278183422022266</v>
       </c>
       <c r="L4">
-        <v>0.8720153645228734</v>
+        <v>0.8720153645228805</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6050873275721642</v>
+        <v>0.6050873275721358</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01804602419129608</v>
+        <v>0.01804602419137069</v>
       </c>
       <c r="E5">
-        <v>0.1108524965985644</v>
+        <v>0.1108524965985822</v>
       </c>
       <c r="F5">
-        <v>1.492227846595299</v>
+        <v>1.492227846595313</v>
       </c>
       <c r="G5">
         <v>1.201057559694874</v>
       </c>
       <c r="H5">
-        <v>0.2408971316482411</v>
+        <v>0.240897131648242</v>
       </c>
       <c r="I5">
-        <v>0.06317397945490555</v>
+        <v>0.0631739794549091</v>
       </c>
       <c r="J5">
-        <v>1.839860198640707</v>
+        <v>1.839860198640679</v>
       </c>
       <c r="K5">
-        <v>0.6962199975027445</v>
+        <v>0.6962199975027161</v>
       </c>
       <c r="L5">
-        <v>0.8346139177682801</v>
+        <v>0.8346139177682872</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6007097107111292</v>
+        <v>0.6007097107110724</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01789367086916371</v>
+        <v>0.01789367086938753</v>
       </c>
       <c r="E6">
-        <v>0.1103056277205461</v>
+        <v>0.1103056277205603</v>
       </c>
       <c r="F6">
         <v>1.483288411538283</v>
@@ -582,19 +582,19 @@
         <v>1.193754834677378</v>
       </c>
       <c r="H6">
-        <v>0.2421430188155123</v>
+        <v>0.2421430188155291</v>
       </c>
       <c r="I6">
-        <v>0.06295483306591088</v>
+        <v>0.06295483306589134</v>
       </c>
       <c r="J6">
         <v>1.826251008908869</v>
       </c>
       <c r="K6">
-        <v>0.6909886785486989</v>
+        <v>0.690988678548706</v>
       </c>
       <c r="L6">
-        <v>0.8284174741502071</v>
+        <v>0.8284174741502142</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311168559394673</v>
+        <v>0.6311168559393536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01896348960864103</v>
+        <v>0.01896348960872984</v>
       </c>
       <c r="E7">
         <v>0.1141070723904392</v>
       </c>
       <c r="F7">
-        <v>1.545819733947809</v>
+        <v>1.545819733947823</v>
       </c>
       <c r="G7">
         <v>1.244846494801806</v>
       </c>
       <c r="H7">
-        <v>0.2335940795363998</v>
+        <v>0.2335940795363909</v>
       </c>
       <c r="I7">
-        <v>0.06447789343223675</v>
+        <v>0.06447789343221899</v>
       </c>
       <c r="J7">
         <v>1.920869558427398</v>
       </c>
       <c r="K7">
-        <v>0.727391120812996</v>
+        <v>0.7273911208130244</v>
       </c>
       <c r="L7">
-        <v>0.8715099842408733</v>
+        <v>0.8715099842408947</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,31 +646,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02403038398001911</v>
+        <v>0.0240303839798095</v>
       </c>
       <c r="E8">
-        <v>0.1310541089163095</v>
+        <v>0.1310541089162882</v>
       </c>
       <c r="F8">
-        <v>1.834972087227811</v>
+        <v>1.834972087227797</v>
       </c>
       <c r="G8">
         <v>1.48136192399906</v>
       </c>
       <c r="H8">
-        <v>0.1984244484084421</v>
+        <v>0.1984244484084261</v>
       </c>
       <c r="I8">
-        <v>0.07125605847336303</v>
+        <v>0.07125605847339678</v>
       </c>
       <c r="J8">
-        <v>2.343008276276805</v>
+        <v>2.343008276276834</v>
       </c>
       <c r="K8">
-        <v>0.8906506273474832</v>
+        <v>0.8906506273474974</v>
       </c>
       <c r="L8">
-        <v>1.064051166923619</v>
+        <v>1.064051166923605</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034198519391424</v>
+        <v>1.034198519391566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03567288180122574</v>
+        <v>0.03567288180112627</v>
       </c>
       <c r="E9">
-        <v>0.1652948525021927</v>
+        <v>0.1652948525022211</v>
       </c>
       <c r="F9">
         <v>2.463740102713132</v>
@@ -696,19 +696,19 @@
         <v>1.99697980433919</v>
       </c>
       <c r="H9">
-        <v>0.1398080428996513</v>
+        <v>0.1398080428996522</v>
       </c>
       <c r="I9">
-        <v>0.08485869768063381</v>
+        <v>0.08485869768062315</v>
       </c>
       <c r="J9">
         <v>3.19570916355093</v>
       </c>
       <c r="K9">
-        <v>1.224247295210034</v>
+        <v>1.22424729521002</v>
       </c>
       <c r="L9">
-        <v>1.45398811352392</v>
+        <v>1.453988113523906</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.235168325618446</v>
+        <v>1.235168325618503</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.045805639361717</v>
+        <v>0.04580563936163173</v>
       </c>
       <c r="E10">
-        <v>0.1915279043263105</v>
+        <v>0.1915279043263531</v>
       </c>
       <c r="F10">
         <v>2.979475385030639</v>
       </c>
       <c r="G10">
-        <v>2.421081036677407</v>
+        <v>2.421081036677393</v>
       </c>
       <c r="H10">
-        <v>0.1043356018049204</v>
+        <v>0.1043356018049115</v>
       </c>
       <c r="I10">
-        <v>0.09516798184679942</v>
+        <v>0.09516798184678166</v>
       </c>
       <c r="J10">
         <v>3.84687037800353</v>
       </c>
       <c r="K10">
-        <v>1.482110396889297</v>
+        <v>1.482110396889283</v>
       </c>
       <c r="L10">
         <v>1.752316868227652</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.327856565705616</v>
+        <v>1.327856565705446</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05090950726231824</v>
+        <v>0.05090950726219035</v>
       </c>
       <c r="E11">
-        <v>0.2038272599915807</v>
+        <v>0.2038272599915558</v>
       </c>
       <c r="F11">
-        <v>3.230170148355796</v>
+        <v>3.230170148355825</v>
       </c>
       <c r="G11">
-        <v>2.627582398840573</v>
+        <v>2.627582398840588</v>
       </c>
       <c r="H11">
-        <v>0.09018713795930644</v>
+        <v>0.09018713795928601</v>
       </c>
       <c r="I11">
-        <v>0.09996248501063221</v>
+        <v>0.0999624850106251</v>
       </c>
       <c r="J11">
-        <v>4.151053572052263</v>
+        <v>4.151053572052234</v>
       </c>
       <c r="K11">
-        <v>1.603437573309719</v>
+        <v>1.603437573309733</v>
       </c>
       <c r="L11">
-        <v>1.891769884642088</v>
+        <v>1.891769884642073</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.363177768602696</v>
+        <v>1.363177768602583</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05292911948379242</v>
+        <v>0.05292911948345846</v>
       </c>
       <c r="E12">
-        <v>0.2085511422749207</v>
+        <v>0.208551142274878</v>
       </c>
       <c r="F12">
-        <v>3.327861498650066</v>
+        <v>3.327861498650037</v>
       </c>
       <c r="G12">
         <v>2.708111609183433</v>
       </c>
       <c r="H12">
-        <v>0.08514935869122375</v>
+        <v>0.08514935869122464</v>
       </c>
       <c r="I12">
-        <v>0.1017968953355002</v>
+        <v>0.1017968953354931</v>
       </c>
       <c r="J12">
-        <v>4.267648245488687</v>
+        <v>4.267648245488715</v>
       </c>
       <c r="K12">
-        <v>1.650085909797639</v>
+        <v>1.650085909797653</v>
       </c>
       <c r="L12">
-        <v>1.94523225172982</v>
+        <v>1.945232251729777</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.355560129044704</v>
+        <v>1.355560129044761</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0524900091824918</v>
+        <v>0.05249000918225022</v>
       </c>
       <c r="E13">
         <v>0.2075305660866107</v>
       </c>
       <c r="F13">
-        <v>3.306691251269029</v>
+        <v>3.306691251269086</v>
       </c>
       <c r="G13">
         <v>2.690657709977472</v>
       </c>
       <c r="H13">
-        <v>0.08621950378017118</v>
+        <v>0.08621950378017029</v>
       </c>
       <c r="I13">
         <v>0.1014009156568783</v>
       </c>
       <c r="J13">
-        <v>4.242470237392013</v>
+        <v>4.242470237391984</v>
       </c>
       <c r="K13">
-        <v>1.640005781358823</v>
+        <v>1.640005781358809</v>
       </c>
       <c r="L13">
         <v>1.933686988422096</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.330757757825296</v>
+        <v>1.330757757825381</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05107381865265381</v>
+        <v>0.05107381865240512</v>
       </c>
       <c r="E14">
-        <v>0.2042144767926821</v>
+        <v>0.2042144767926715</v>
       </c>
       <c r="F14">
-        <v>3.238149143741225</v>
+        <v>3.238149143741197</v>
       </c>
       <c r="G14">
-        <v>2.634158434608167</v>
+        <v>2.634158434608182</v>
       </c>
       <c r="H14">
         <v>0.08976605016182582</v>
@@ -898,7 +898,7 @@
         <v>1.607260442156573</v>
       </c>
       <c r="L14">
-        <v>1.896154407809462</v>
+        <v>1.896154407809476</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,31 +912,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05021819967916485</v>
+        <v>0.05021819967939933</v>
       </c>
       <c r="E15">
-        <v>0.2021923801021721</v>
+        <v>0.2021923801021899</v>
       </c>
       <c r="F15">
         <v>3.196538988891518</v>
       </c>
       <c r="G15">
-        <v>2.599867082689116</v>
+        <v>2.599867082689144</v>
       </c>
       <c r="H15">
-        <v>0.091981181166922</v>
+        <v>0.09198118116690424</v>
       </c>
       <c r="I15">
-        <v>0.09932669486484258</v>
+        <v>0.09932669486483903</v>
       </c>
       <c r="J15">
-        <v>4.110669757815032</v>
+        <v>4.110669757814975</v>
       </c>
       <c r="K15">
         <v>1.58729882240921</v>
       </c>
       <c r="L15">
-        <v>1.873253661346936</v>
+        <v>1.873253661346965</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04548331816727824</v>
+        <v>0.04548331816738482</v>
       </c>
       <c r="E16">
-        <v>0.1907325874598662</v>
+        <v>0.190732587459852</v>
       </c>
       <c r="F16">
-        <v>2.963451882779935</v>
+        <v>2.963451882779907</v>
       </c>
       <c r="G16">
-        <v>2.407889780860089</v>
+        <v>2.40788978086006</v>
       </c>
       <c r="H16">
-        <v>0.1053030331064884</v>
+        <v>0.1053030331064893</v>
       </c>
       <c r="I16">
-        <v>0.09485706250394799</v>
+        <v>0.09485706250394088</v>
       </c>
       <c r="J16">
         <v>3.827172913384118</v>
@@ -974,7 +974,7 @@
         <v>1.474272602717164</v>
       </c>
       <c r="L16">
-        <v>1.743288088516479</v>
+        <v>1.743288088516465</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176452658496174</v>
+        <v>1.176452658496288</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04271554315712223</v>
+        <v>0.04271554315711512</v>
       </c>
       <c r="E17">
-        <v>0.1838050105709641</v>
+        <v>0.1838050105709463</v>
       </c>
       <c r="F17">
         <v>2.82487329446792</v>
@@ -1003,16 +1003,16 @@
         <v>0.1140073575984699</v>
       </c>
       <c r="I17">
-        <v>0.09214436393969194</v>
+        <v>0.09214436393966352</v>
       </c>
       <c r="J17">
-        <v>3.655469238917135</v>
+        <v>3.655469238917107</v>
       </c>
       <c r="K17">
-        <v>1.406048044261382</v>
+        <v>1.406048044261368</v>
       </c>
       <c r="L17">
-        <v>1.664593599971539</v>
+        <v>1.664593599971553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,31 +1026,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04116902137830891</v>
+        <v>0.04116902137853629</v>
       </c>
       <c r="E18">
-        <v>0.1798539100886103</v>
+        <v>0.1798539100885854</v>
       </c>
       <c r="F18">
-        <v>2.74664963416518</v>
+        <v>2.746649634165209</v>
       </c>
       <c r="G18">
-        <v>2.22950009336266</v>
+        <v>2.229500093362617</v>
       </c>
       <c r="H18">
-        <v>0.1191986635383886</v>
+        <v>0.1191986635383913</v>
       </c>
       <c r="I18">
-        <v>0.09059368496997777</v>
+        <v>0.09059368497000619</v>
       </c>
       <c r="J18">
-        <v>3.55744159053927</v>
+        <v>3.557441590539185</v>
       </c>
       <c r="K18">
-        <v>1.367177140916581</v>
+        <v>1.367177140916596</v>
       </c>
       <c r="L18">
-        <v>1.619674777624283</v>
+        <v>1.61967477762424</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.136062726542093</v>
+        <v>1.136062726541951</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0406527664272005</v>
+        <v>0.04065276642709392</v>
       </c>
       <c r="E19">
-        <v>0.1785215069349562</v>
+        <v>0.1785215069349491</v>
       </c>
       <c r="F19">
         <v>2.720406829888958</v>
@@ -1076,19 +1076,19 @@
         <v>2.207918659968342</v>
       </c>
       <c r="H19">
-        <v>0.1209871391379727</v>
+        <v>0.1209871391379567</v>
       </c>
       <c r="I19">
-        <v>0.09007019691189555</v>
+        <v>0.09007019691194529</v>
       </c>
       <c r="J19">
-        <v>3.524369558596675</v>
+        <v>3.524369558596646</v>
       </c>
       <c r="K19">
         <v>1.354076197862142</v>
       </c>
       <c r="L19">
-        <v>1.604521912962014</v>
+        <v>1.604521912962028</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182048961075395</v>
+        <v>1.182048961075509</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04300537125080695</v>
+        <v>0.04300537125079984</v>
       </c>
       <c r="E20">
-        <v>0.1845389092744227</v>
+        <v>0.1845389092744476</v>
       </c>
       <c r="F20">
-        <v>2.839468747807047</v>
+        <v>2.839468747807075</v>
       </c>
       <c r="G20">
-        <v>2.305852695142192</v>
+        <v>2.305852695142178</v>
       </c>
       <c r="H20">
-        <v>0.1130614106723042</v>
+        <v>0.1130614106723016</v>
       </c>
       <c r="I20">
-        <v>0.09243211760110981</v>
+        <v>0.09243211760108494</v>
       </c>
       <c r="J20">
         <v>3.673669904989424</v>
@@ -1126,7 +1126,7 @@
         <v>1.413271524310574</v>
       </c>
       <c r="L20">
-        <v>1.672934361702389</v>
+        <v>1.672934361702431</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.338036435319651</v>
+        <v>1.338036435319509</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0.05148728812989845</v>
       </c>
       <c r="E21">
-        <v>0.2051865665342874</v>
+        <v>0.205186566534298</v>
       </c>
       <c r="F21">
         <v>3.258202796263987</v>
@@ -1152,7 +1152,7 @@
         <v>2.650686991644008</v>
       </c>
       <c r="H21">
-        <v>0.08871536180476713</v>
+        <v>0.08871536180476802</v>
       </c>
       <c r="I21">
         <v>0.1004907474728327</v>
@@ -1161,10 +1161,10 @@
         <v>4.184618077346471</v>
       </c>
       <c r="K21">
-        <v>1.616858310566343</v>
+        <v>1.616858310566357</v>
       </c>
       <c r="L21">
-        <v>1.90715984268904</v>
+        <v>1.907159842689026</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.441301586455694</v>
+        <v>1.44130158645541</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05754698303315564</v>
+        <v>0.05754698303316985</v>
       </c>
       <c r="E22">
-        <v>0.2190766067244354</v>
+        <v>0.2190766067244709</v>
       </c>
       <c r="F22">
-        <v>3.548218625674281</v>
+        <v>3.548218625674309</v>
       </c>
       <c r="G22">
-        <v>2.889876202635193</v>
+        <v>2.889876202635207</v>
       </c>
       <c r="H22">
-        <v>0.07468866195388379</v>
+        <v>0.07468866195387047</v>
       </c>
       <c r="I22">
-        <v>0.1058696988316754</v>
+        <v>0.1058696988316896</v>
       </c>
       <c r="J22">
         <v>4.526911818240706</v>
       </c>
       <c r="K22">
-        <v>1.754095451767768</v>
+        <v>1.754095451767782</v>
       </c>
       <c r="L22">
         <v>2.064124600120365</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.386051481660303</v>
+        <v>1.386051481660189</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05425946916574986</v>
+        <v>0.05425946916577828</v>
       </c>
       <c r="E23">
-        <v>0.2116216732495921</v>
+        <v>0.2116216732496241</v>
       </c>
       <c r="F23">
         <v>3.391766349266533</v>
@@ -1228,10 +1228,10 @@
         <v>2.760807503972629</v>
       </c>
       <c r="H23">
-        <v>0.0819897628609807</v>
+        <v>0.08198976286099668</v>
       </c>
       <c r="I23">
-        <v>0.102987118063897</v>
+        <v>0.1029871180639006</v>
       </c>
       <c r="J23">
         <v>4.343358905212654</v>
@@ -1240,7 +1240,7 @@
         <v>1.68041905672591</v>
       </c>
       <c r="L23">
-        <v>1.979950030137502</v>
+        <v>1.979950030137545</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,25 +1254,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04287420185806923</v>
+        <v>0.04287420185819713</v>
       </c>
       <c r="E24">
-        <v>0.1842070160652653</v>
+        <v>0.1842070160652014</v>
       </c>
       <c r="F24">
-        <v>2.832865668789452</v>
+        <v>2.832865668789424</v>
       </c>
       <c r="G24">
         <v>2.300419983711166</v>
       </c>
       <c r="H24">
-        <v>0.1134884930899576</v>
+        <v>0.1134884930899611</v>
       </c>
       <c r="I24">
-        <v>0.09230199675968365</v>
+        <v>0.09230199675967654</v>
       </c>
       <c r="J24">
-        <v>3.665439262829125</v>
+        <v>3.665439262829096</v>
       </c>
       <c r="K24">
         <v>1.410004700810859</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9610754469944141</v>
+        <v>0.9610754469944993</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03229039360346064</v>
+        <v>0.03229039360335406</v>
       </c>
       <c r="E25">
-        <v>0.1558811228011585</v>
+        <v>0.1558811228011336</v>
       </c>
       <c r="F25">
         <v>2.28550834264837</v>
       </c>
       <c r="G25">
-        <v>1.850653307437881</v>
+        <v>1.850653307437923</v>
       </c>
       <c r="H25">
-        <v>0.1544348305425496</v>
+        <v>0.1544348305425505</v>
       </c>
       <c r="I25">
         <v>0.08113390898397554</v>
       </c>
       <c r="J25">
-        <v>2.96146945853711</v>
+        <v>2.961469458537152</v>
       </c>
       <c r="K25">
-        <v>1.132129573595705</v>
+        <v>1.132129573595734</v>
       </c>
       <c r="L25">
         <v>1.346768706815539</v>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8027046190830731</v>
+        <v>0.8027046190828457</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02550172130905537</v>
+        <v>0.02550172130906248</v>
       </c>
       <c r="E2">
-        <v>0.1356996386868516</v>
+        <v>0.1356996386868765</v>
       </c>
       <c r="F2">
         <v>1.916976181982918</v>
@@ -430,19 +430,19 @@
         <v>1.548511508218979</v>
       </c>
       <c r="H2">
-        <v>0.1895537373952099</v>
+        <v>0.1895537373951948</v>
       </c>
       <c r="I2">
-        <v>0.07310969775106813</v>
+        <v>0.07310969775105214</v>
       </c>
       <c r="J2">
-        <v>2.458765026214451</v>
+        <v>2.458765026214422</v>
       </c>
       <c r="K2">
-        <v>0.9356484287885252</v>
+        <v>0.9356484287885394</v>
       </c>
       <c r="L2">
-        <v>1.116917681373664</v>
+        <v>1.116917681373671</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02135081832641816</v>
+        <v>0.02135081832664554</v>
       </c>
       <c r="E3">
-        <v>0.1222917751749719</v>
+        <v>0.1222917751749861</v>
       </c>
       <c r="F3">
         <v>1.68343080507168</v>
       </c>
       <c r="G3">
-        <v>1.357355085900579</v>
+        <v>1.357355085900565</v>
       </c>
       <c r="H3">
-        <v>0.2160341118373044</v>
+        <v>0.2160341118372893</v>
       </c>
       <c r="I3">
-        <v>0.06775423763732036</v>
+        <v>0.06775423763730615</v>
       </c>
       <c r="J3">
-        <v>2.124697238770082</v>
+        <v>2.124697238770096</v>
       </c>
       <c r="K3">
-        <v>0.8060515522393388</v>
+        <v>0.8060515522393246</v>
       </c>
       <c r="L3">
-        <v>0.9644240316413146</v>
+        <v>0.9644240316413359</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314729610134009</v>
+        <v>0.6314729610134293</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01897617823610886</v>
+        <v>0.01897617823611242</v>
       </c>
       <c r="E4">
-        <v>0.1141516323435745</v>
+        <v>0.1141516323435781</v>
       </c>
       <c r="F4">
-        <v>1.546558064690856</v>
+        <v>1.546558064690842</v>
       </c>
       <c r="G4">
-        <v>1.245449879029778</v>
+        <v>1.245449879029763</v>
       </c>
       <c r="H4">
-        <v>0.233495395268509</v>
+        <v>0.2334953952685108</v>
       </c>
       <c r="I4">
-        <v>0.06449574218495613</v>
+        <v>0.06449574218494547</v>
       </c>
       <c r="J4">
         <v>1.921978885760069</v>
@@ -518,7 +518,7 @@
         <v>0.7278183422022266</v>
       </c>
       <c r="L4">
-        <v>0.8720153645228805</v>
+        <v>0.8720153645228734</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6050873275721358</v>
+        <v>0.6050873275721642</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01804602419137069</v>
+        <v>0.01804602419129608</v>
       </c>
       <c r="E5">
-        <v>0.1108524965985822</v>
+        <v>0.1108524965985644</v>
       </c>
       <c r="F5">
-        <v>1.492227846595313</v>
+        <v>1.492227846595299</v>
       </c>
       <c r="G5">
         <v>1.201057559694874</v>
       </c>
       <c r="H5">
-        <v>0.240897131648242</v>
+        <v>0.2408971316482411</v>
       </c>
       <c r="I5">
-        <v>0.0631739794549091</v>
+        <v>0.06317397945490555</v>
       </c>
       <c r="J5">
-        <v>1.839860198640679</v>
+        <v>1.839860198640707</v>
       </c>
       <c r="K5">
-        <v>0.6962199975027161</v>
+        <v>0.6962199975027445</v>
       </c>
       <c r="L5">
-        <v>0.8346139177682872</v>
+        <v>0.8346139177682801</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6007097107110724</v>
+        <v>0.6007097107111292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01789367086938753</v>
+        <v>0.01789367086916371</v>
       </c>
       <c r="E6">
-        <v>0.1103056277205603</v>
+        <v>0.1103056277205461</v>
       </c>
       <c r="F6">
         <v>1.483288411538283</v>
@@ -582,19 +582,19 @@
         <v>1.193754834677378</v>
       </c>
       <c r="H6">
-        <v>0.2421430188155291</v>
+        <v>0.2421430188155123</v>
       </c>
       <c r="I6">
-        <v>0.06295483306589134</v>
+        <v>0.06295483306591088</v>
       </c>
       <c r="J6">
         <v>1.826251008908869</v>
       </c>
       <c r="K6">
-        <v>0.690988678548706</v>
+        <v>0.6909886785486989</v>
       </c>
       <c r="L6">
-        <v>0.8284174741502142</v>
+        <v>0.8284174741502071</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311168559393536</v>
+        <v>0.6311168559394673</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01896348960872984</v>
+        <v>0.01896348960864103</v>
       </c>
       <c r="E7">
         <v>0.1141070723904392</v>
       </c>
       <c r="F7">
-        <v>1.545819733947823</v>
+        <v>1.545819733947809</v>
       </c>
       <c r="G7">
         <v>1.244846494801806</v>
       </c>
       <c r="H7">
-        <v>0.2335940795363909</v>
+        <v>0.2335940795363998</v>
       </c>
       <c r="I7">
-        <v>0.06447789343221899</v>
+        <v>0.06447789343223675</v>
       </c>
       <c r="J7">
         <v>1.920869558427398</v>
       </c>
       <c r="K7">
-        <v>0.7273911208130244</v>
+        <v>0.727391120812996</v>
       </c>
       <c r="L7">
-        <v>0.8715099842408947</v>
+        <v>0.8715099842408733</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,31 +646,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0240303839798095</v>
+        <v>0.02403038398001911</v>
       </c>
       <c r="E8">
-        <v>0.1310541089162882</v>
+        <v>0.1310541089163095</v>
       </c>
       <c r="F8">
-        <v>1.834972087227797</v>
+        <v>1.834972087227811</v>
       </c>
       <c r="G8">
         <v>1.48136192399906</v>
       </c>
       <c r="H8">
-        <v>0.1984244484084261</v>
+        <v>0.1984244484084421</v>
       </c>
       <c r="I8">
-        <v>0.07125605847339678</v>
+        <v>0.07125605847336303</v>
       </c>
       <c r="J8">
-        <v>2.343008276276834</v>
+        <v>2.343008276276805</v>
       </c>
       <c r="K8">
-        <v>0.8906506273474974</v>
+        <v>0.8906506273474832</v>
       </c>
       <c r="L8">
-        <v>1.064051166923605</v>
+        <v>1.064051166923619</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034198519391566</v>
+        <v>1.034198519391424</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03567288180112627</v>
+        <v>0.03567288180122574</v>
       </c>
       <c r="E9">
-        <v>0.1652948525022211</v>
+        <v>0.1652948525021927</v>
       </c>
       <c r="F9">
         <v>2.463740102713132</v>
@@ -696,19 +696,19 @@
         <v>1.99697980433919</v>
       </c>
       <c r="H9">
-        <v>0.1398080428996522</v>
+        <v>0.1398080428996513</v>
       </c>
       <c r="I9">
-        <v>0.08485869768062315</v>
+        <v>0.08485869768063381</v>
       </c>
       <c r="J9">
         <v>3.19570916355093</v>
       </c>
       <c r="K9">
-        <v>1.22424729521002</v>
+        <v>1.224247295210034</v>
       </c>
       <c r="L9">
-        <v>1.453988113523906</v>
+        <v>1.45398811352392</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.235168325618503</v>
+        <v>1.235168325618446</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04580563936163173</v>
+        <v>0.045805639361717</v>
       </c>
       <c r="E10">
-        <v>0.1915279043263531</v>
+        <v>0.1915279043263105</v>
       </c>
       <c r="F10">
         <v>2.979475385030639</v>
       </c>
       <c r="G10">
-        <v>2.421081036677393</v>
+        <v>2.421081036677407</v>
       </c>
       <c r="H10">
-        <v>0.1043356018049115</v>
+        <v>0.1043356018049204</v>
       </c>
       <c r="I10">
-        <v>0.09516798184678166</v>
+        <v>0.09516798184679942</v>
       </c>
       <c r="J10">
         <v>3.84687037800353</v>
       </c>
       <c r="K10">
-        <v>1.482110396889283</v>
+        <v>1.482110396889297</v>
       </c>
       <c r="L10">
         <v>1.752316868227652</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.327856565705446</v>
+        <v>1.327856565705616</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05090950726219035</v>
+        <v>0.05090950726231824</v>
       </c>
       <c r="E11">
-        <v>0.2038272599915558</v>
+        <v>0.2038272599915807</v>
       </c>
       <c r="F11">
-        <v>3.230170148355825</v>
+        <v>3.230170148355796</v>
       </c>
       <c r="G11">
-        <v>2.627582398840588</v>
+        <v>2.627582398840573</v>
       </c>
       <c r="H11">
-        <v>0.09018713795928601</v>
+        <v>0.09018713795930644</v>
       </c>
       <c r="I11">
-        <v>0.0999624850106251</v>
+        <v>0.09996248501063221</v>
       </c>
       <c r="J11">
-        <v>4.151053572052234</v>
+        <v>4.151053572052263</v>
       </c>
       <c r="K11">
-        <v>1.603437573309733</v>
+        <v>1.603437573309719</v>
       </c>
       <c r="L11">
-        <v>1.891769884642073</v>
+        <v>1.891769884642088</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.363177768602583</v>
+        <v>1.363177768602696</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05292911948345846</v>
+        <v>0.05292911948379242</v>
       </c>
       <c r="E12">
-        <v>0.208551142274878</v>
+        <v>0.2085511422749207</v>
       </c>
       <c r="F12">
-        <v>3.327861498650037</v>
+        <v>3.327861498650066</v>
       </c>
       <c r="G12">
         <v>2.708111609183433</v>
       </c>
       <c r="H12">
-        <v>0.08514935869122464</v>
+        <v>0.08514935869122375</v>
       </c>
       <c r="I12">
-        <v>0.1017968953354931</v>
+        <v>0.1017968953355002</v>
       </c>
       <c r="J12">
-        <v>4.267648245488715</v>
+        <v>4.267648245488687</v>
       </c>
       <c r="K12">
-        <v>1.650085909797653</v>
+        <v>1.650085909797639</v>
       </c>
       <c r="L12">
-        <v>1.945232251729777</v>
+        <v>1.94523225172982</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.355560129044761</v>
+        <v>1.355560129044704</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05249000918225022</v>
+        <v>0.0524900091824918</v>
       </c>
       <c r="E13">
         <v>0.2075305660866107</v>
       </c>
       <c r="F13">
-        <v>3.306691251269086</v>
+        <v>3.306691251269029</v>
       </c>
       <c r="G13">
         <v>2.690657709977472</v>
       </c>
       <c r="H13">
-        <v>0.08621950378017029</v>
+        <v>0.08621950378017118</v>
       </c>
       <c r="I13">
         <v>0.1014009156568783</v>
       </c>
       <c r="J13">
-        <v>4.242470237391984</v>
+        <v>4.242470237392013</v>
       </c>
       <c r="K13">
-        <v>1.640005781358809</v>
+        <v>1.640005781358823</v>
       </c>
       <c r="L13">
         <v>1.933686988422096</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.330757757825381</v>
+        <v>1.330757757825296</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05107381865240512</v>
+        <v>0.05107381865265381</v>
       </c>
       <c r="E14">
-        <v>0.2042144767926715</v>
+        <v>0.2042144767926821</v>
       </c>
       <c r="F14">
-        <v>3.238149143741197</v>
+        <v>3.238149143741225</v>
       </c>
       <c r="G14">
-        <v>2.634158434608182</v>
+        <v>2.634158434608167</v>
       </c>
       <c r="H14">
         <v>0.08976605016182582</v>
@@ -898,7 +898,7 @@
         <v>1.607260442156573</v>
       </c>
       <c r="L14">
-        <v>1.896154407809476</v>
+        <v>1.896154407809462</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,31 +912,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05021819967939933</v>
+        <v>0.05021819967916485</v>
       </c>
       <c r="E15">
-        <v>0.2021923801021899</v>
+        <v>0.2021923801021721</v>
       </c>
       <c r="F15">
         <v>3.196538988891518</v>
       </c>
       <c r="G15">
-        <v>2.599867082689144</v>
+        <v>2.599867082689116</v>
       </c>
       <c r="H15">
-        <v>0.09198118116690424</v>
+        <v>0.091981181166922</v>
       </c>
       <c r="I15">
-        <v>0.09932669486483903</v>
+        <v>0.09932669486484258</v>
       </c>
       <c r="J15">
-        <v>4.110669757814975</v>
+        <v>4.110669757815032</v>
       </c>
       <c r="K15">
         <v>1.58729882240921</v>
       </c>
       <c r="L15">
-        <v>1.873253661346965</v>
+        <v>1.873253661346936</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04548331816738482</v>
+        <v>0.04548331816727824</v>
       </c>
       <c r="E16">
-        <v>0.190732587459852</v>
+        <v>0.1907325874598662</v>
       </c>
       <c r="F16">
-        <v>2.963451882779907</v>
+        <v>2.963451882779935</v>
       </c>
       <c r="G16">
-        <v>2.40788978086006</v>
+        <v>2.407889780860089</v>
       </c>
       <c r="H16">
-        <v>0.1053030331064893</v>
+        <v>0.1053030331064884</v>
       </c>
       <c r="I16">
-        <v>0.09485706250394088</v>
+        <v>0.09485706250394799</v>
       </c>
       <c r="J16">
         <v>3.827172913384118</v>
@@ -974,7 +974,7 @@
         <v>1.474272602717164</v>
       </c>
       <c r="L16">
-        <v>1.743288088516465</v>
+        <v>1.743288088516479</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176452658496288</v>
+        <v>1.176452658496174</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04271554315711512</v>
+        <v>0.04271554315712223</v>
       </c>
       <c r="E17">
-        <v>0.1838050105709463</v>
+        <v>0.1838050105709641</v>
       </c>
       <c r="F17">
         <v>2.82487329446792</v>
@@ -1003,16 +1003,16 @@
         <v>0.1140073575984699</v>
       </c>
       <c r="I17">
-        <v>0.09214436393966352</v>
+        <v>0.09214436393969194</v>
       </c>
       <c r="J17">
-        <v>3.655469238917107</v>
+        <v>3.655469238917135</v>
       </c>
       <c r="K17">
-        <v>1.406048044261368</v>
+        <v>1.406048044261382</v>
       </c>
       <c r="L17">
-        <v>1.664593599971553</v>
+        <v>1.664593599971539</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,31 +1026,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04116902137853629</v>
+        <v>0.04116902137830891</v>
       </c>
       <c r="E18">
-        <v>0.1798539100885854</v>
+        <v>0.1798539100886103</v>
       </c>
       <c r="F18">
-        <v>2.746649634165209</v>
+        <v>2.74664963416518</v>
       </c>
       <c r="G18">
-        <v>2.229500093362617</v>
+        <v>2.22950009336266</v>
       </c>
       <c r="H18">
-        <v>0.1191986635383913</v>
+        <v>0.1191986635383886</v>
       </c>
       <c r="I18">
-        <v>0.09059368497000619</v>
+        <v>0.09059368496997777</v>
       </c>
       <c r="J18">
-        <v>3.557441590539185</v>
+        <v>3.55744159053927</v>
       </c>
       <c r="K18">
-        <v>1.367177140916596</v>
+        <v>1.367177140916581</v>
       </c>
       <c r="L18">
-        <v>1.61967477762424</v>
+        <v>1.619674777624283</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.136062726541951</v>
+        <v>1.136062726542093</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04065276642709392</v>
+        <v>0.0406527664272005</v>
       </c>
       <c r="E19">
-        <v>0.1785215069349491</v>
+        <v>0.1785215069349562</v>
       </c>
       <c r="F19">
         <v>2.720406829888958</v>
@@ -1076,19 +1076,19 @@
         <v>2.207918659968342</v>
       </c>
       <c r="H19">
-        <v>0.1209871391379567</v>
+        <v>0.1209871391379727</v>
       </c>
       <c r="I19">
-        <v>0.09007019691194529</v>
+        <v>0.09007019691189555</v>
       </c>
       <c r="J19">
-        <v>3.524369558596646</v>
+        <v>3.524369558596675</v>
       </c>
       <c r="K19">
         <v>1.354076197862142</v>
       </c>
       <c r="L19">
-        <v>1.604521912962028</v>
+        <v>1.604521912962014</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182048961075509</v>
+        <v>1.182048961075395</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04300537125079984</v>
+        <v>0.04300537125080695</v>
       </c>
       <c r="E20">
-        <v>0.1845389092744476</v>
+        <v>0.1845389092744227</v>
       </c>
       <c r="F20">
-        <v>2.839468747807075</v>
+        <v>2.839468747807047</v>
       </c>
       <c r="G20">
-        <v>2.305852695142178</v>
+        <v>2.305852695142192</v>
       </c>
       <c r="H20">
-        <v>0.1130614106723016</v>
+        <v>0.1130614106723042</v>
       </c>
       <c r="I20">
-        <v>0.09243211760108494</v>
+        <v>0.09243211760110981</v>
       </c>
       <c r="J20">
         <v>3.673669904989424</v>
@@ -1126,7 +1126,7 @@
         <v>1.413271524310574</v>
       </c>
       <c r="L20">
-        <v>1.672934361702431</v>
+        <v>1.672934361702389</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.338036435319509</v>
+        <v>1.338036435319651</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0.05148728812989845</v>
       </c>
       <c r="E21">
-        <v>0.205186566534298</v>
+        <v>0.2051865665342874</v>
       </c>
       <c r="F21">
         <v>3.258202796263987</v>
@@ -1152,7 +1152,7 @@
         <v>2.650686991644008</v>
       </c>
       <c r="H21">
-        <v>0.08871536180476802</v>
+        <v>0.08871536180476713</v>
       </c>
       <c r="I21">
         <v>0.1004907474728327</v>
@@ -1161,10 +1161,10 @@
         <v>4.184618077346471</v>
       </c>
       <c r="K21">
-        <v>1.616858310566357</v>
+        <v>1.616858310566343</v>
       </c>
       <c r="L21">
-        <v>1.907159842689026</v>
+        <v>1.90715984268904</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.44130158645541</v>
+        <v>1.441301586455694</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05754698303316985</v>
+        <v>0.05754698303315564</v>
       </c>
       <c r="E22">
-        <v>0.2190766067244709</v>
+        <v>0.2190766067244354</v>
       </c>
       <c r="F22">
-        <v>3.548218625674309</v>
+        <v>3.548218625674281</v>
       </c>
       <c r="G22">
-        <v>2.889876202635207</v>
+        <v>2.889876202635193</v>
       </c>
       <c r="H22">
-        <v>0.07468866195387047</v>
+        <v>0.07468866195388379</v>
       </c>
       <c r="I22">
-        <v>0.1058696988316896</v>
+        <v>0.1058696988316754</v>
       </c>
       <c r="J22">
         <v>4.526911818240706</v>
       </c>
       <c r="K22">
-        <v>1.754095451767782</v>
+        <v>1.754095451767768</v>
       </c>
       <c r="L22">
         <v>2.064124600120365</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.386051481660189</v>
+        <v>1.386051481660303</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05425946916577828</v>
+        <v>0.05425946916574986</v>
       </c>
       <c r="E23">
-        <v>0.2116216732496241</v>
+        <v>0.2116216732495921</v>
       </c>
       <c r="F23">
         <v>3.391766349266533</v>
@@ -1228,10 +1228,10 @@
         <v>2.760807503972629</v>
       </c>
       <c r="H23">
-        <v>0.08198976286099668</v>
+        <v>0.0819897628609807</v>
       </c>
       <c r="I23">
-        <v>0.1029871180639006</v>
+        <v>0.102987118063897</v>
       </c>
       <c r="J23">
         <v>4.343358905212654</v>
@@ -1240,7 +1240,7 @@
         <v>1.68041905672591</v>
       </c>
       <c r="L23">
-        <v>1.979950030137545</v>
+        <v>1.979950030137502</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,25 +1254,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04287420185819713</v>
+        <v>0.04287420185806923</v>
       </c>
       <c r="E24">
-        <v>0.1842070160652014</v>
+        <v>0.1842070160652653</v>
       </c>
       <c r="F24">
-        <v>2.832865668789424</v>
+        <v>2.832865668789452</v>
       </c>
       <c r="G24">
         <v>2.300419983711166</v>
       </c>
       <c r="H24">
-        <v>0.1134884930899611</v>
+        <v>0.1134884930899576</v>
       </c>
       <c r="I24">
-        <v>0.09230199675967654</v>
+        <v>0.09230199675968365</v>
       </c>
       <c r="J24">
-        <v>3.665439262829096</v>
+        <v>3.665439262829125</v>
       </c>
       <c r="K24">
         <v>1.410004700810859</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9610754469944993</v>
+        <v>0.9610754469944141</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03229039360335406</v>
+        <v>0.03229039360346064</v>
       </c>
       <c r="E25">
-        <v>0.1558811228011336</v>
+        <v>0.1558811228011585</v>
       </c>
       <c r="F25">
         <v>2.28550834264837</v>
       </c>
       <c r="G25">
-        <v>1.850653307437923</v>
+        <v>1.850653307437881</v>
       </c>
       <c r="H25">
-        <v>0.1544348305425505</v>
+        <v>0.1544348305425496</v>
       </c>
       <c r="I25">
         <v>0.08113390898397554</v>
       </c>
       <c r="J25">
-        <v>2.961469458537152</v>
+        <v>2.96146945853711</v>
       </c>
       <c r="K25">
-        <v>1.132129573595734</v>
+        <v>1.132129573595705</v>
       </c>
       <c r="L25">
         <v>1.346768706815539</v>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8027046190828457</v>
+        <v>0.8029993542481293</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02550172130906248</v>
+        <v>0.02535526181250702</v>
       </c>
       <c r="E2">
-        <v>0.1356996386868765</v>
+        <v>0.1355195387879178</v>
       </c>
       <c r="F2">
-        <v>1.916976181982918</v>
+        <v>1.913877901737095</v>
       </c>
       <c r="G2">
-        <v>1.548511508218979</v>
+        <v>0.508733433880181</v>
       </c>
       <c r="H2">
-        <v>0.1895537373951948</v>
+        <v>1.040294622101428</v>
       </c>
       <c r="I2">
-        <v>0.07310969775105214</v>
+        <v>0.1894320066549113</v>
       </c>
       <c r="J2">
-        <v>2.458765026214422</v>
+        <v>0.0730659750058944</v>
       </c>
       <c r="K2">
-        <v>0.9356484287885394</v>
+        <v>2.457479843523984</v>
       </c>
       <c r="L2">
-        <v>1.116917681373671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.9351606180365337</v>
+      </c>
+      <c r="M2">
+        <v>1.116605569046811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6963934348344765</v>
+        <v>0.6966557878402</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02135081832664554</v>
+        <v>0.02122587155176348</v>
       </c>
       <c r="E3">
-        <v>0.1222917751749861</v>
+        <v>0.122142906179409</v>
       </c>
       <c r="F3">
-        <v>1.68343080507168</v>
+        <v>1.680744903370126</v>
       </c>
       <c r="G3">
-        <v>1.357355085900565</v>
+        <v>0.4414705343400271</v>
       </c>
       <c r="H3">
-        <v>0.2160341118372893</v>
+        <v>0.9169713179149994</v>
       </c>
       <c r="I3">
-        <v>0.06775423763730615</v>
+        <v>0.2159127574374704</v>
       </c>
       <c r="J3">
-        <v>2.124697238770096</v>
+        <v>0.06771901954287429</v>
       </c>
       <c r="K3">
-        <v>0.8060515522393246</v>
+        <v>2.123623548610794</v>
       </c>
       <c r="L3">
-        <v>0.9644240316413359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.8056421261456848</v>
+      </c>
+      <c r="M3">
+        <v>0.9641667948247701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314729610134293</v>
+        <v>0.6317148114599433</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01897617823611242</v>
+        <v>0.0188636831416531</v>
       </c>
       <c r="E4">
-        <v>0.1141516323435781</v>
+        <v>0.1140215563074669</v>
       </c>
       <c r="F4">
-        <v>1.546558064690842</v>
+        <v>1.544112504316402</v>
       </c>
       <c r="G4">
-        <v>1.245449879029763</v>
+        <v>0.4019479717819507</v>
       </c>
       <c r="H4">
-        <v>0.2334953952685108</v>
+        <v>0.8449235001971687</v>
       </c>
       <c r="I4">
-        <v>0.06449574218494547</v>
+        <v>0.2333735565979316</v>
       </c>
       <c r="J4">
-        <v>1.921978885760069</v>
+        <v>0.06446569918447054</v>
       </c>
       <c r="K4">
-        <v>0.7278183422022266</v>
+        <v>1.92102827531923</v>
       </c>
       <c r="L4">
-        <v>0.8720153645228734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.7274540450658122</v>
+      </c>
+      <c r="M4">
+        <v>0.8717891912174167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6050873275721642</v>
+        <v>0.6053206853671895</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01804602419129608</v>
+        <v>0.01793844120987487</v>
       </c>
       <c r="E5">
-        <v>0.1108524965985644</v>
+        <v>0.1107300087690142</v>
       </c>
       <c r="F5">
-        <v>1.492227846595299</v>
+        <v>1.489877481915428</v>
       </c>
       <c r="G5">
-        <v>1.201057559694874</v>
+        <v>0.3862334070040419</v>
       </c>
       <c r="H5">
-        <v>0.2408971316482411</v>
+        <v>0.8163789245531063</v>
       </c>
       <c r="I5">
-        <v>0.06317397945490555</v>
+        <v>0.2407749367838115</v>
       </c>
       <c r="J5">
-        <v>1.839860198640707</v>
+        <v>0.06314604050210448</v>
       </c>
       <c r="K5">
-        <v>0.6962199975027445</v>
+        <v>1.838958328128811</v>
       </c>
       <c r="L5">
-        <v>0.8346139177682801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6958734591625415</v>
+      </c>
+      <c r="M5">
+        <v>0.8343998467223912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6007097107111292</v>
+        <v>0.6009416504722083</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01789367086916371</v>
+        <v>0.01778689451412419</v>
       </c>
       <c r="E6">
-        <v>0.1103056277205461</v>
+        <v>0.1101843963746703</v>
       </c>
       <c r="F6">
-        <v>1.483288411538283</v>
+        <v>1.480953701274032</v>
       </c>
       <c r="G6">
-        <v>1.193754834677378</v>
+        <v>0.3836461214978044</v>
       </c>
       <c r="H6">
-        <v>0.2421430188155123</v>
+        <v>0.8116854176326598</v>
       </c>
       <c r="I6">
-        <v>0.06295483306591088</v>
+        <v>0.2420207557676024</v>
       </c>
       <c r="J6">
-        <v>1.826251008908869</v>
+        <v>0.06292724338030631</v>
       </c>
       <c r="K6">
-        <v>0.6909886785486989</v>
+        <v>1.825357153801534</v>
       </c>
       <c r="L6">
-        <v>0.8284174741502071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6906450541653655</v>
+      </c>
+      <c r="M6">
+        <v>0.8282053818734951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311168559394673</v>
+        <v>0.6313585923865617</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01896348960864103</v>
+        <v>0.01885106138205117</v>
       </c>
       <c r="E7">
-        <v>0.1141070723904392</v>
+        <v>0.1139770989431774</v>
       </c>
       <c r="F7">
-        <v>1.545819733947809</v>
+        <v>1.543375467933316</v>
       </c>
       <c r="G7">
-        <v>1.244846494801806</v>
+        <v>0.4017345252025706</v>
       </c>
       <c r="H7">
-        <v>0.2335940795363998</v>
+        <v>0.8445353711555867</v>
       </c>
       <c r="I7">
-        <v>0.06447789343223675</v>
+        <v>0.2334722366796953</v>
       </c>
       <c r="J7">
-        <v>1.920869558427398</v>
+        <v>0.06444787881883585</v>
       </c>
       <c r="K7">
-        <v>0.727391120812996</v>
+        <v>1.91991961069084</v>
       </c>
       <c r="L7">
-        <v>0.8715099842408733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.7270270655853892</v>
+      </c>
+      <c r="M7">
+        <v>0.8712839762750093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7659626152758392</v>
+        <v>0.7662463255248895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02403038398001911</v>
+        <v>0.02389151751816598</v>
       </c>
       <c r="E8">
-        <v>0.1310541089163095</v>
+        <v>0.1308848738735158</v>
       </c>
       <c r="F8">
-        <v>1.834972087227811</v>
+        <v>1.832018980319205</v>
       </c>
       <c r="G8">
-        <v>1.48136192399906</v>
+        <v>0.4851369715972282</v>
       </c>
       <c r="H8">
-        <v>0.1984244484084421</v>
+        <v>0.9969416576862358</v>
       </c>
       <c r="I8">
-        <v>0.07125605847336303</v>
+        <v>0.1983030096027489</v>
       </c>
       <c r="J8">
-        <v>2.343008276276805</v>
+        <v>0.07121528233289887</v>
       </c>
       <c r="K8">
-        <v>0.8906506273474832</v>
+        <v>2.341797609234504</v>
       </c>
       <c r="L8">
-        <v>1.064051166923619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.890190545598756</v>
+      </c>
+      <c r="M8">
+        <v>1.063758589585696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034198519391424</v>
+        <v>1.034558631591381</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03567288180122574</v>
+        <v>0.03547464756443475</v>
       </c>
       <c r="E9">
-        <v>0.1652948525021927</v>
+        <v>0.1650441754204515</v>
       </c>
       <c r="F9">
-        <v>2.463740102713132</v>
+        <v>2.459660836966407</v>
       </c>
       <c r="G9">
-        <v>1.99697980433919</v>
+        <v>0.6656487946599299</v>
       </c>
       <c r="H9">
-        <v>0.1398080428996513</v>
+        <v>1.330509799281828</v>
       </c>
       <c r="I9">
-        <v>0.08485869768063381</v>
+        <v>0.1396805672752155</v>
       </c>
       <c r="J9">
-        <v>3.19570916355093</v>
+        <v>0.08479607200203176</v>
       </c>
       <c r="K9">
-        <v>1.224247295210034</v>
+        <v>3.19391795879973</v>
       </c>
       <c r="L9">
-        <v>1.45398811352392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.223568487298976</v>
+      </c>
+      <c r="M9">
+        <v>1.453538459534471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.235168325618446</v>
+        <v>1.235579229586023</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.045805639361717</v>
+        <v>0.04555662036938202</v>
       </c>
       <c r="E10">
-        <v>0.1915279043263105</v>
+        <v>0.1912122507405023</v>
       </c>
       <c r="F10">
-        <v>2.979475385030639</v>
+        <v>2.974445352160274</v>
       </c>
       <c r="G10">
-        <v>2.421081036677407</v>
+        <v>0.8132444723208465</v>
       </c>
       <c r="H10">
-        <v>0.1043356018049204</v>
+        <v>1.605740649003636</v>
       </c>
       <c r="I10">
-        <v>0.09516798184679942</v>
+        <v>0.1041974982578324</v>
       </c>
       <c r="J10">
-        <v>3.84687037800353</v>
+        <v>0.0950881990814878</v>
       </c>
       <c r="K10">
-        <v>1.482110396889297</v>
+        <v>3.844583821811398</v>
       </c>
       <c r="L10">
-        <v>1.752316868227652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.481240927353184</v>
+      </c>
+      <c r="M10">
+        <v>1.75172586644166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.327856565705616</v>
+        <v>1.32828888543861</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05090950726231824</v>
+        <v>0.05063507238012477</v>
       </c>
       <c r="E11">
-        <v>0.2038272599915807</v>
+        <v>0.2034802119964745</v>
       </c>
       <c r="F11">
-        <v>3.230170148355796</v>
+        <v>3.22466744959226</v>
       </c>
       <c r="G11">
-        <v>2.627582398840573</v>
+        <v>0.8849049504965905</v>
       </c>
       <c r="H11">
-        <v>0.09018713795930644</v>
+        <v>1.739955094814363</v>
       </c>
       <c r="I11">
-        <v>0.09996248501063221</v>
+        <v>0.09004223589516069</v>
       </c>
       <c r="J11">
-        <v>4.151053572052263</v>
+        <v>0.09987446339210493</v>
       </c>
       <c r="K11">
-        <v>1.603437573309719</v>
+        <v>4.148518857531769</v>
       </c>
       <c r="L11">
-        <v>1.891769884642088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.60247146458866</v>
+      </c>
+      <c r="M11">
+        <v>1.891106043160818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.363177768602696</v>
+        <v>1.363617895183722</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05292911948379242</v>
+        <v>0.05264464541468072</v>
       </c>
       <c r="E12">
-        <v>0.2085511422749207</v>
+        <v>0.2081918633644371</v>
       </c>
       <c r="F12">
-        <v>3.327861498650066</v>
+        <v>3.322172579941622</v>
       </c>
       <c r="G12">
-        <v>2.708111609183433</v>
+        <v>0.9128193265047884</v>
       </c>
       <c r="H12">
-        <v>0.08514935869122375</v>
+        <v>1.792324392501953</v>
       </c>
       <c r="I12">
-        <v>0.1017968953355002</v>
+        <v>0.08500153044495473</v>
       </c>
       <c r="J12">
-        <v>4.267648245488687</v>
+        <v>0.1017056701048595</v>
       </c>
       <c r="K12">
-        <v>1.650085909797639</v>
+        <v>4.26501541824922</v>
       </c>
       <c r="L12">
-        <v>1.94523225172982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.649081408677574</v>
+      </c>
+      <c r="M12">
+        <v>1.944539280729387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.355560129044704</v>
+        <v>1.355998588876901</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0524900091824918</v>
+        <v>0.05220771719884709</v>
       </c>
       <c r="E13">
-        <v>0.2075305660866107</v>
+        <v>0.2071739380175899</v>
       </c>
       <c r="F13">
-        <v>3.306691251269029</v>
+        <v>3.301042787087908</v>
       </c>
       <c r="G13">
-        <v>2.690657709977472</v>
+        <v>0.9067705621246773</v>
       </c>
       <c r="H13">
-        <v>0.08621950378017118</v>
+        <v>1.780972538249742</v>
       </c>
       <c r="I13">
-        <v>0.1014009156568783</v>
+        <v>0.08607232268731213</v>
       </c>
       <c r="J13">
-        <v>4.242470237392013</v>
+        <v>0.1013103845040533</v>
       </c>
       <c r="K13">
-        <v>1.640005781358823</v>
+        <v>4.239858740612135</v>
       </c>
       <c r="L13">
-        <v>1.933686988422096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.639009635610194</v>
+      </c>
+      <c r="M13">
+        <v>1.933000365715188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.330757757825296</v>
+        <v>1.331190726301742</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05107381865265381</v>
+        <v>0.05079856669321714</v>
       </c>
       <c r="E14">
-        <v>0.2042144767926821</v>
+        <v>0.2038664299367916</v>
       </c>
       <c r="F14">
-        <v>3.238149143741225</v>
+        <v>3.232631279114457</v>
       </c>
       <c r="G14">
-        <v>2.634158434608167</v>
+        <v>0.8871850695724675</v>
       </c>
       <c r="H14">
-        <v>0.08976605016182582</v>
+        <v>1.744230988402933</v>
       </c>
       <c r="I14">
-        <v>0.1001130010427644</v>
+        <v>0.08962091487129697</v>
       </c>
       <c r="J14">
-        <v>4.160616018007744</v>
+        <v>0.1000247176808742</v>
       </c>
       <c r="K14">
-        <v>1.607260442156573</v>
+        <v>4.158073320355584</v>
       </c>
       <c r="L14">
-        <v>1.896154407809462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.606291213357991</v>
+      </c>
+      <c r="M14">
+        <v>1.895488202934018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.31559581830868</v>
+        <v>1.316025381685904</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05021819967916485</v>
+        <v>0.04994720315665546</v>
       </c>
       <c r="E15">
-        <v>0.2021923801021721</v>
+        <v>0.2018495422207742</v>
       </c>
       <c r="F15">
-        <v>3.196538988891518</v>
+        <v>3.191100129164482</v>
       </c>
       <c r="G15">
-        <v>2.599867082689116</v>
+        <v>0.8752939295410442</v>
       </c>
       <c r="H15">
-        <v>0.091981181166922</v>
+        <v>1.721935136405364</v>
       </c>
       <c r="I15">
-        <v>0.09932669486484258</v>
+        <v>0.09183725081354677</v>
       </c>
       <c r="J15">
-        <v>4.110669757815032</v>
+        <v>0.09923977671022399</v>
       </c>
       <c r="K15">
-        <v>1.58729882240921</v>
+        <v>4.108168633313312</v>
       </c>
       <c r="L15">
-        <v>1.873253661346936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.586345834323851</v>
+      </c>
+      <c r="M15">
+        <v>1.872599750748194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.229139701952732</v>
+        <v>1.229549167577773</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04548331816727824</v>
+        <v>0.04523590702314095</v>
       </c>
       <c r="E16">
-        <v>0.1907325874598662</v>
+        <v>0.1904189423350857</v>
       </c>
       <c r="F16">
-        <v>2.963451882779935</v>
+        <v>2.958451814914213</v>
       </c>
       <c r="G16">
-        <v>2.407889780860089</v>
+        <v>0.808662673547019</v>
       </c>
       <c r="H16">
-        <v>0.1053030331064884</v>
+        <v>1.597171063668966</v>
       </c>
       <c r="I16">
-        <v>0.09485706250394799</v>
+        <v>0.1051653288140759</v>
       </c>
       <c r="J16">
-        <v>3.827172913384118</v>
+        <v>0.09477780772792244</v>
       </c>
       <c r="K16">
-        <v>1.474272602717164</v>
+        <v>3.824902046884858</v>
       </c>
       <c r="L16">
-        <v>1.743288088516479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.47340921960317</v>
+      </c>
+      <c r="M16">
+        <v>1.742701649619221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176452658496174</v>
+        <v>1.176849324076585</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04271554315712223</v>
+        <v>0.04248195568722224</v>
       </c>
       <c r="E17">
-        <v>0.1838050105709641</v>
+        <v>0.1835087537594404</v>
       </c>
       <c r="F17">
-        <v>2.82487329446792</v>
+        <v>2.820131193821055</v>
       </c>
       <c r="G17">
-        <v>2.29384443728776</v>
+        <v>0.7690282399054951</v>
       </c>
       <c r="H17">
-        <v>0.1140073575984699</v>
+        <v>1.52310420434695</v>
       </c>
       <c r="I17">
-        <v>0.09214436393969194</v>
+        <v>0.1138729258333617</v>
       </c>
       <c r="J17">
-        <v>3.655469238917135</v>
+        <v>0.09206968563623619</v>
       </c>
       <c r="K17">
-        <v>1.406048044261382</v>
+        <v>3.653333233852834</v>
       </c>
       <c r="L17">
-        <v>1.664593599971539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.405236855619194</v>
+      </c>
+      <c r="M17">
+        <v>1.664046161953934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.146264908024023</v>
+        <v>1.146654056678301</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04116902137830891</v>
+        <v>0.04094317303180617</v>
       </c>
       <c r="E18">
-        <v>0.1798539100886103</v>
+        <v>0.1795674873868904</v>
       </c>
       <c r="F18">
-        <v>2.74664963416518</v>
+        <v>2.742052234502353</v>
       </c>
       <c r="G18">
-        <v>2.22950009336266</v>
+        <v>0.7466479743193162</v>
       </c>
       <c r="H18">
-        <v>0.1191986635383886</v>
+        <v>1.4813337472863</v>
       </c>
       <c r="I18">
-        <v>0.09059368496997777</v>
+        <v>0.1190659342492149</v>
       </c>
       <c r="J18">
-        <v>3.55744159053927</v>
+        <v>0.09052159962261186</v>
       </c>
       <c r="K18">
-        <v>1.367177140916581</v>
+        <v>3.555381068044653</v>
       </c>
       <c r="L18">
-        <v>1.619674777624283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.366395067613652</v>
+      </c>
+      <c r="M18">
+        <v>1.61914899104876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.136062726542093</v>
+        <v>1.136449305110602</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0406527664272005</v>
+        <v>0.04042950422203972</v>
       </c>
       <c r="E19">
-        <v>0.1785215069349562</v>
+        <v>0.1782383872755595</v>
       </c>
       <c r="F19">
-        <v>2.720406829888958</v>
+        <v>2.715857831264998</v>
       </c>
       <c r="G19">
-        <v>2.207918659968342</v>
+        <v>0.7391383700113749</v>
       </c>
       <c r="H19">
-        <v>0.1209871391379727</v>
+        <v>1.467326785758729</v>
       </c>
       <c r="I19">
-        <v>0.09007019691189555</v>
+        <v>0.1208549572312911</v>
       </c>
       <c r="J19">
-        <v>3.524369558596675</v>
+        <v>0.08999898331130751</v>
       </c>
       <c r="K19">
-        <v>1.354076197862142</v>
+        <v>3.522334257862013</v>
       </c>
       <c r="L19">
-        <v>1.604521912962014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.353303836926713</v>
+      </c>
+      <c r="M19">
+        <v>1.604003331585361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182048961075395</v>
+        <v>1.18244700563622</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04300537125080695</v>
+        <v>0.04277033469083591</v>
       </c>
       <c r="E20">
-        <v>0.1845389092744227</v>
+        <v>0.1842408192600331</v>
       </c>
       <c r="F20">
-        <v>2.839468747807047</v>
+        <v>2.834699575914414</v>
       </c>
       <c r="G20">
-        <v>2.305852695142192</v>
+        <v>0.7732034380373705</v>
       </c>
       <c r="H20">
-        <v>0.1130614106723042</v>
+        <v>1.530901091566747</v>
       </c>
       <c r="I20">
-        <v>0.09243211760110981</v>
+        <v>0.1129266495954839</v>
       </c>
       <c r="J20">
-        <v>3.673669904989424</v>
+        <v>0.0923569563308142</v>
       </c>
       <c r="K20">
-        <v>1.413271524310574</v>
+        <v>3.671519765183433</v>
       </c>
       <c r="L20">
-        <v>1.672934361702389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.412454875614117</v>
+      </c>
+      <c r="M20">
+        <v>1.672382854854092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.338036435319651</v>
+        <v>1.338471025516014</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05148728812989845</v>
+        <v>0.05120998035316404</v>
       </c>
       <c r="E21">
-        <v>0.2051865665342874</v>
+        <v>0.2048360091868169</v>
       </c>
       <c r="F21">
-        <v>3.258202796263987</v>
+        <v>3.252646781051027</v>
       </c>
       <c r="G21">
-        <v>2.650686991644008</v>
+        <v>0.8929155460938034</v>
       </c>
       <c r="H21">
-        <v>0.08871536180476713</v>
+        <v>1.754978720474512</v>
       </c>
       <c r="I21">
-        <v>0.1004907474728327</v>
+        <v>0.08856963580300725</v>
       </c>
       <c r="J21">
-        <v>4.184618077346471</v>
+        <v>0.1004018063497902</v>
       </c>
       <c r="K21">
-        <v>1.616858310566343</v>
+        <v>4.18205529199858</v>
       </c>
       <c r="L21">
-        <v>1.90715984268904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.615881227819756</v>
+      </c>
+      <c r="M21">
+        <v>1.906487685516154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.441301586455694</v>
+        <v>1.441758255803421</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05754698303315564</v>
+        <v>0.05723957753364317</v>
       </c>
       <c r="E22">
-        <v>0.2190766067244354</v>
+        <v>0.2186897106944485</v>
       </c>
       <c r="F22">
-        <v>3.548218625674281</v>
+        <v>3.542105252977905</v>
       </c>
       <c r="G22">
-        <v>2.889876202635193</v>
+        <v>0.975767363077864</v>
       </c>
       <c r="H22">
-        <v>0.07468866195388379</v>
+        <v>1.910583902289716</v>
       </c>
       <c r="I22">
-        <v>0.1058696988316754</v>
+        <v>0.07453367287302903</v>
       </c>
       <c r="J22">
-        <v>4.526911818240706</v>
+        <v>0.1057712495398739</v>
       </c>
       <c r="K22">
-        <v>1.754095451767768</v>
+        <v>4.524054645820854</v>
       </c>
       <c r="L22">
-        <v>2.064124600120365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.753002794056997</v>
+      </c>
+      <c r="M22">
+        <v>2.063364365032612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.386051481660303</v>
+        <v>1.386496556376557</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05425946916574986</v>
+        <v>0.05396838608442067</v>
       </c>
       <c r="E23">
-        <v>0.2116216732495921</v>
+        <v>0.2112543905993434</v>
       </c>
       <c r="F23">
-        <v>3.391766349266533</v>
+        <v>3.385954974431939</v>
       </c>
       <c r="G23">
-        <v>2.760807503972629</v>
+        <v>0.9310768687095532</v>
       </c>
       <c r="H23">
-        <v>0.0819897628609807</v>
+        <v>1.826601665835497</v>
       </c>
       <c r="I23">
-        <v>0.102987118063897</v>
+        <v>0.08183993756083296</v>
       </c>
       <c r="J23">
-        <v>4.343358905212654</v>
+        <v>0.1028937979652049</v>
       </c>
       <c r="K23">
-        <v>1.68041905672591</v>
+        <v>4.34066145532023</v>
       </c>
       <c r="L23">
-        <v>1.979950030137502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.679389213687998</v>
+      </c>
+      <c r="M23">
+        <v>1.979237775493743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.179518555637543</v>
+        <v>1.179915977249266</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04287420185806923</v>
+        <v>0.04263982107474362</v>
       </c>
       <c r="E24">
-        <v>0.1842070160652653</v>
+        <v>0.1839097553428068</v>
       </c>
       <c r="F24">
-        <v>2.832865668789452</v>
+        <v>2.828108746938199</v>
       </c>
       <c r="G24">
-        <v>2.300419983711166</v>
+        <v>0.7713145754239576</v>
       </c>
       <c r="H24">
-        <v>0.1134884930899576</v>
+        <v>1.527373609232924</v>
       </c>
       <c r="I24">
-        <v>0.09230199675968365</v>
+        <v>0.1133538814472894</v>
       </c>
       <c r="J24">
-        <v>3.665439262829125</v>
+        <v>0.09222705395588449</v>
       </c>
       <c r="K24">
-        <v>1.410004700810859</v>
+        <v>3.663295519666093</v>
       </c>
       <c r="L24">
-        <v>1.669162503623213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.409190523356102</v>
+      </c>
+      <c r="M24">
+        <v>1.668612838670711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9610754469944141</v>
+        <v>0.9614156793900293</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03229039360346064</v>
+        <v>0.03210926186356744</v>
       </c>
       <c r="E25">
-        <v>0.1558811228011585</v>
+        <v>0.1556531759388271</v>
       </c>
       <c r="F25">
-        <v>2.28550834264837</v>
+        <v>2.281751592369773</v>
       </c>
       <c r="G25">
-        <v>1.850653307437881</v>
+        <v>0.6145626908233339</v>
       </c>
       <c r="H25">
-        <v>0.1544348305425496</v>
+        <v>1.235706529353948</v>
       </c>
       <c r="I25">
-        <v>0.08113390898397554</v>
+        <v>0.1543099018557088</v>
       </c>
       <c r="J25">
-        <v>2.96146945853711</v>
+        <v>0.08107733309259402</v>
       </c>
       <c r="K25">
-        <v>1.132129573595705</v>
+        <v>2.959845148863138</v>
       </c>
       <c r="L25">
-        <v>1.346768706815539</v>
+        <v>1.131514233190941</v>
+      </c>
+      <c r="M25">
+        <v>1.34636527640545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8029993542481293</v>
+        <v>1.581480692953221</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02535526181250702</v>
+        <v>0.1108769888306682</v>
       </c>
       <c r="E2">
-        <v>0.1355195387879178</v>
+        <v>0.1567360731474992</v>
       </c>
       <c r="F2">
-        <v>1.913877901737095</v>
+        <v>2.043260769056502</v>
       </c>
       <c r="G2">
-        <v>0.508733433880181</v>
+        <v>0.0008095423587606249</v>
       </c>
       <c r="H2">
-        <v>1.040294622101428</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1894320066549113</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0730659750058944</v>
+        <v>0.2359756304793876</v>
       </c>
       <c r="K2">
-        <v>2.457479843523984</v>
+        <v>1.26077598642037</v>
       </c>
       <c r="L2">
-        <v>0.9351606180365337</v>
+        <v>0.7006897248538166</v>
       </c>
       <c r="M2">
-        <v>1.116605569046811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5196474778745994</v>
+      </c>
+      <c r="N2">
+        <v>1.215126189258143</v>
+      </c>
+      <c r="O2">
+        <v>1.656957409548468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6966557878402</v>
+        <v>1.407010759416522</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02122587155176348</v>
+        <v>0.09647320003963955</v>
       </c>
       <c r="E3">
-        <v>0.122142906179409</v>
+        <v>0.1410194944787087</v>
       </c>
       <c r="F3">
-        <v>1.680744903370126</v>
+        <v>1.910092403004569</v>
       </c>
       <c r="G3">
-        <v>0.4414705343400271</v>
+        <v>0.0008181079202048717</v>
       </c>
       <c r="H3">
-        <v>0.9169713179149994</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2159127574374704</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06771901954287429</v>
+        <v>0.2163253209146987</v>
       </c>
       <c r="K3">
-        <v>2.123623548610794</v>
+        <v>1.090623457939088</v>
       </c>
       <c r="L3">
-        <v>0.8056421261456848</v>
+        <v>0.610628984311063</v>
       </c>
       <c r="M3">
-        <v>0.9641667948247701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4576386421921086</v>
+      </c>
+      <c r="N3">
+        <v>1.285032178525061</v>
+      </c>
+      <c r="O3">
+        <v>1.529489556257758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6317148114599433</v>
+        <v>1.301730280386522</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0188636831416531</v>
+        <v>0.08779340585945761</v>
       </c>
       <c r="E4">
-        <v>0.1140215563074669</v>
+        <v>0.1314620034271066</v>
       </c>
       <c r="F4">
-        <v>1.544112504316402</v>
+        <v>1.832706848155411</v>
       </c>
       <c r="G4">
-        <v>0.4019479717819507</v>
+        <v>0.0008235156082986581</v>
       </c>
       <c r="H4">
-        <v>0.8449235001971687</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2333735565979316</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06446569918447054</v>
+        <v>0.2043350773298016</v>
       </c>
       <c r="K4">
-        <v>1.92102827531923</v>
+        <v>0.9875054847102263</v>
       </c>
       <c r="L4">
-        <v>0.7274540450658122</v>
+        <v>0.5561586704296531</v>
       </c>
       <c r="M4">
-        <v>0.8717891912174167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4201754817781733</v>
+      </c>
+      <c r="N4">
+        <v>1.329628960236921</v>
+      </c>
+      <c r="O4">
+        <v>1.454922493839959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6053206853671895</v>
+        <v>1.259245828181434</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01793844120987487</v>
+        <v>0.08429014156632775</v>
       </c>
       <c r="E5">
-        <v>0.1107300087690142</v>
+        <v>0.1275849791774633</v>
       </c>
       <c r="F5">
-        <v>1.489877481915428</v>
+        <v>1.8021851387672</v>
       </c>
       <c r="G5">
-        <v>0.3862334070040419</v>
+        <v>0.0008257581424190426</v>
       </c>
       <c r="H5">
-        <v>0.8163789245531063</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2407749367838115</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06314604050210448</v>
+        <v>0.1994623226722112</v>
       </c>
       <c r="K5">
-        <v>1.838958328128811</v>
+        <v>0.9457762713626892</v>
       </c>
       <c r="L5">
-        <v>0.6958734591625415</v>
+        <v>0.5341430245755845</v>
       </c>
       <c r="M5">
-        <v>0.8343998467223912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4050453548666084</v>
+      </c>
+      <c r="N5">
+        <v>1.348212373913777</v>
+      </c>
+      <c r="O5">
+        <v>1.425385628741864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6009416504722083</v>
+        <v>1.252215305803929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01778689451412419</v>
+        <v>0.08371026459064268</v>
       </c>
       <c r="E6">
-        <v>0.1101843963746703</v>
+        <v>0.1269421206348866</v>
       </c>
       <c r="F6">
-        <v>1.480953701274032</v>
+        <v>1.79717580699662</v>
       </c>
       <c r="G6">
-        <v>0.3836461214978044</v>
+        <v>0.0008261329033538376</v>
       </c>
       <c r="H6">
-        <v>0.8116854176326598</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2420207557676024</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06292724338030631</v>
+        <v>0.1986538607798494</v>
       </c>
       <c r="K6">
-        <v>1.825357153801534</v>
+        <v>0.9388634622832939</v>
       </c>
       <c r="L6">
-        <v>0.6906450541653655</v>
+        <v>0.5304975664791272</v>
       </c>
       <c r="M6">
-        <v>0.8282053818734951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4025407735247768</v>
+      </c>
+      <c r="N6">
+        <v>1.351322580915678</v>
+      </c>
+      <c r="O6">
+        <v>1.420530156688812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6313585923865617</v>
+        <v>1.30115568478621</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01885106138205117</v>
+        <v>0.08774603203931264</v>
       </c>
       <c r="E7">
-        <v>0.1139770989431774</v>
+        <v>0.1314096516907384</v>
       </c>
       <c r="F7">
-        <v>1.543375467933316</v>
+        <v>1.832291229136786</v>
       </c>
       <c r="G7">
-        <v>0.4017345252025706</v>
+        <v>0.0008235456925860965</v>
       </c>
       <c r="H7">
-        <v>0.8445353711555867</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2334722366796953</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06444787881883585</v>
+        <v>0.2042693144721639</v>
       </c>
       <c r="K7">
-        <v>1.91991961069084</v>
+        <v>0.9869415885350037</v>
       </c>
       <c r="L7">
-        <v>0.7270270655853892</v>
+        <v>0.5558610586047337</v>
       </c>
       <c r="M7">
-        <v>0.8712839762750093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4199709008791572</v>
+      </c>
+      <c r="N7">
+        <v>1.329877937213485</v>
+      </c>
+      <c r="O7">
+        <v>1.454520809865457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7662463255248895</v>
+        <v>1.520911914290082</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02389151751816598</v>
+        <v>0.105871767792074</v>
       </c>
       <c r="E8">
-        <v>0.1308848738735158</v>
+        <v>0.1512942852427628</v>
       </c>
       <c r="F8">
-        <v>1.832018980319205</v>
+        <v>1.996379964987824</v>
       </c>
       <c r="G8">
-        <v>0.4851369715972282</v>
+        <v>0.000812465929623188</v>
       </c>
       <c r="H8">
-        <v>0.9969416576862358</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1983030096027489</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07121528233289887</v>
+        <v>0.2291811191398452</v>
       </c>
       <c r="K8">
-        <v>2.341797609234504</v>
+        <v>1.201795129096169</v>
       </c>
       <c r="L8">
-        <v>0.890190545598756</v>
+        <v>0.6694483282589658</v>
       </c>
       <c r="M8">
-        <v>1.063758589585696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4981293718433903</v>
+      </c>
+      <c r="N8">
+        <v>1.238875328867405</v>
+      </c>
+      <c r="O8">
+        <v>1.612188416283288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034558631591381</v>
+        <v>1.968767617406058</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03547464756443475</v>
+        <v>0.1430968705621609</v>
       </c>
       <c r="E9">
-        <v>0.1650441754204515</v>
+        <v>0.1913032046764904</v>
       </c>
       <c r="F9">
-        <v>2.459660836966407</v>
+        <v>2.357292043742731</v>
       </c>
       <c r="G9">
-        <v>0.6656487946599299</v>
+        <v>0.0007918395965374798</v>
       </c>
       <c r="H9">
-        <v>1.330509799281828</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1396805672752155</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08479607200203176</v>
+        <v>0.278909548590633</v>
       </c>
       <c r="K9">
-        <v>3.19391795879973</v>
+        <v>1.636336225474679</v>
       </c>
       <c r="L9">
-        <v>1.223568487298976</v>
+        <v>0.900092153324465</v>
       </c>
       <c r="M9">
-        <v>1.453538459534471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.657097312218454</v>
+      </c>
+      <c r="N9">
+        <v>1.074248070848423</v>
+      </c>
+      <c r="O9">
+        <v>1.954723174283131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.235579229586023</v>
+        <v>2.311655821209058</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04555662036938202</v>
+        <v>0.1720700340013366</v>
       </c>
       <c r="E10">
-        <v>0.1912122507405023</v>
+        <v>0.2217624555821374</v>
       </c>
       <c r="F10">
-        <v>2.974445352160274</v>
+        <v>2.653122585482407</v>
       </c>
       <c r="G10">
-        <v>0.8132444723208465</v>
+        <v>0.0007772382768710376</v>
       </c>
       <c r="H10">
-        <v>1.605740649003636</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1041974982578324</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0950881990814878</v>
+        <v>0.3164247318005877</v>
       </c>
       <c r="K10">
-        <v>3.844583821811398</v>
+        <v>1.967490432418501</v>
       </c>
       <c r="L10">
-        <v>1.481240927353184</v>
+        <v>1.076454567370632</v>
       </c>
       <c r="M10">
-        <v>1.75172586644166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7786996448110841</v>
+      </c>
+      <c r="N10">
+        <v>0.9625591425551079</v>
+      </c>
+      <c r="O10">
+        <v>2.232949589718473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.32828888543861</v>
+        <v>2.471550112442401</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05063507238012477</v>
+        <v>0.1857610816673372</v>
       </c>
       <c r="E11">
-        <v>0.2034802119964745</v>
+        <v>0.235967515781752</v>
       </c>
       <c r="F11">
-        <v>3.22466744959226</v>
+        <v>2.796108820723248</v>
       </c>
       <c r="G11">
-        <v>0.8849049504965905</v>
+        <v>0.00077068569818338</v>
       </c>
       <c r="H11">
-        <v>1.739955094814363</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09004223589516069</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09987446339210493</v>
+        <v>0.3338210389552927</v>
       </c>
       <c r="K11">
-        <v>4.148518857531769</v>
+        <v>2.121713592938406</v>
       </c>
       <c r="L11">
-        <v>1.60247146458866</v>
+        <v>1.158725757374214</v>
       </c>
       <c r="M11">
-        <v>1.891106043160818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8354049577609786</v>
+      </c>
+      <c r="N11">
+        <v>0.9139723174918117</v>
+      </c>
+      <c r="O11">
+        <v>2.366892890129904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.363617895183722</v>
+        <v>2.532745488043986</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05264464541468072</v>
+        <v>0.1910344927975132</v>
       </c>
       <c r="E12">
-        <v>0.2081918633644371</v>
+        <v>0.2414082445762844</v>
       </c>
       <c r="F12">
-        <v>3.322172579941622</v>
+        <v>2.851630967428179</v>
       </c>
       <c r="G12">
-        <v>0.9128193265047884</v>
+        <v>0.0007682144371613723</v>
       </c>
       <c r="H12">
-        <v>1.792324392501953</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.08500153044495473</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1017056701048595</v>
+        <v>0.3404674921807498</v>
       </c>
       <c r="K12">
-        <v>4.26501541824922</v>
+        <v>2.180723427113094</v>
       </c>
       <c r="L12">
-        <v>1.649081408677574</v>
+        <v>1.190225215820277</v>
       </c>
       <c r="M12">
-        <v>1.944539280729387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8571098083537763</v>
+      </c>
+      <c r="N12">
+        <v>0.8959136858726815</v>
+      </c>
+      <c r="O12">
+        <v>2.418828472949912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.355998588876901</v>
+        <v>2.519535746607573</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05220771719884709</v>
+        <v>0.189894544730322</v>
       </c>
       <c r="E13">
-        <v>0.2071739380175899</v>
+        <v>0.240233547844575</v>
       </c>
       <c r="F13">
-        <v>3.301042787087908</v>
+        <v>2.839609176670564</v>
       </c>
       <c r="G13">
-        <v>0.9067705621246773</v>
+        <v>0.0007687462690124509</v>
       </c>
       <c r="H13">
-        <v>1.780972538249742</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.08607232268731213</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1013103845040533</v>
+        <v>0.3390332438715689</v>
       </c>
       <c r="K13">
-        <v>4.239858740612135</v>
+        <v>2.167985889822745</v>
       </c>
       <c r="L13">
-        <v>1.639009635610194</v>
+        <v>1.183425002039542</v>
       </c>
       <c r="M13">
-        <v>1.933000365715188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8524244148051494</v>
+      </c>
+      <c r="N13">
+        <v>0.8997874493547684</v>
+      </c>
+      <c r="O13">
+        <v>2.407586556006308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.331190726301742</v>
+        <v>2.476571209149199</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05079856669321714</v>
+        <v>0.1861930499585611</v>
       </c>
       <c r="E14">
-        <v>0.2038664299367916</v>
+        <v>0.2364138223579388</v>
       </c>
       <c r="F14">
-        <v>3.232631279114457</v>
+        <v>2.8006480441951</v>
       </c>
       <c r="G14">
-        <v>0.8871850695724675</v>
+        <v>0.0007704822019614995</v>
       </c>
       <c r="H14">
-        <v>1.744230988402933</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.08962091487129697</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1000247176808742</v>
+        <v>0.3343665963994482</v>
       </c>
       <c r="K14">
-        <v>4.158073320355584</v>
+        <v>2.126555580896721</v>
       </c>
       <c r="L14">
-        <v>1.606291213357991</v>
+        <v>1.161310001006825</v>
       </c>
       <c r="M14">
-        <v>1.895488202934018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.837185784507426</v>
+      </c>
+      <c r="N14">
+        <v>0.9124796780111524</v>
+      </c>
+      <c r="O14">
+        <v>2.371140377580289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.316025381685904</v>
+        <v>2.450341107113275</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04994720315665546</v>
+        <v>0.1839378528633944</v>
       </c>
       <c r="E15">
-        <v>0.2018495422207742</v>
+        <v>0.2340825166486056</v>
       </c>
       <c r="F15">
-        <v>3.191100129164482</v>
+        <v>2.776967786413849</v>
       </c>
       <c r="G15">
-        <v>0.8752939295410442</v>
+        <v>0.0007715467307421492</v>
       </c>
       <c r="H15">
-        <v>1.721935136405364</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09183725081354677</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09923977671022399</v>
+        <v>0.3315161684950425</v>
       </c>
       <c r="K15">
-        <v>4.108168633313312</v>
+        <v>2.101260620114928</v>
       </c>
       <c r="L15">
-        <v>1.586345834323851</v>
+        <v>1.147810512624289</v>
       </c>
       <c r="M15">
-        <v>1.872599750748194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8278828937801279</v>
+      </c>
+      <c r="N15">
+        <v>0.9202989907533698</v>
+      </c>
+      <c r="O15">
+        <v>2.348979055722808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.229549167577773</v>
+        <v>2.301292059081334</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04523590702314095</v>
+        <v>0.1711868426016565</v>
       </c>
       <c r="E16">
-        <v>0.1904189423350857</v>
+        <v>0.2208420811044185</v>
       </c>
       <c r="F16">
-        <v>2.958451814914213</v>
+        <v>2.643961139154101</v>
       </c>
       <c r="G16">
-        <v>0.808662673547019</v>
+        <v>0.0007776680729269834</v>
       </c>
       <c r="H16">
-        <v>1.597171063668966</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1051653288140759</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09477780772792244</v>
+        <v>0.3152954236307437</v>
       </c>
       <c r="K16">
-        <v>3.824902046884858</v>
+        <v>1.957491385105001</v>
       </c>
       <c r="L16">
-        <v>1.47340921960317</v>
+        <v>1.071123301733792</v>
       </c>
       <c r="M16">
-        <v>1.742701649619221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7750244082805793</v>
+      </c>
+      <c r="N16">
+        <v>0.9657808172730995</v>
+      </c>
+      <c r="O16">
+        <v>2.224357185312513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176849324076585</v>
+        <v>2.210914259528465</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04248195568722224</v>
+        <v>0.1635056800871837</v>
       </c>
       <c r="E17">
-        <v>0.1835087537594404</v>
+        <v>0.2128164919268869</v>
       </c>
       <c r="F17">
-        <v>2.820131193821055</v>
+        <v>2.564632420604568</v>
       </c>
       <c r="G17">
-        <v>0.7690282399054951</v>
+        <v>0.0007814443695014288</v>
       </c>
       <c r="H17">
-        <v>1.52310420434695</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1138729258333617</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09206968563623619</v>
+        <v>0.3054367228020496</v>
       </c>
       <c r="K17">
-        <v>3.653333233852834</v>
+        <v>1.870273622800838</v>
       </c>
       <c r="L17">
-        <v>1.405236855619194</v>
+        <v>1.024635938412786</v>
       </c>
       <c r="M17">
-        <v>1.664046161953934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7429745734043962</v>
+      </c>
+      <c r="N17">
+        <v>0.9942653111728426</v>
+      </c>
+      <c r="O17">
+        <v>2.149898138643977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.146654056678301</v>
+        <v>2.159294022200129</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04094317303180617</v>
+        <v>0.1591347314111857</v>
       </c>
       <c r="E18">
-        <v>0.1795674873868904</v>
+        <v>0.2082324622469756</v>
       </c>
       <c r="F18">
-        <v>2.742052234502353</v>
+        <v>2.519785213612877</v>
       </c>
       <c r="G18">
-        <v>0.7466479743193162</v>
+        <v>0.0007836250213109199</v>
       </c>
       <c r="H18">
-        <v>1.4813337472863</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1190659342492149</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09052159962261186</v>
+        <v>0.299796596372957</v>
       </c>
       <c r="K18">
-        <v>3.555381068044653</v>
+        <v>1.82043887763345</v>
       </c>
       <c r="L18">
-        <v>1.366395067613652</v>
+        <v>0.9980864948059036</v>
       </c>
       <c r="M18">
-        <v>1.61914899104876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7246688321514583</v>
+      </c>
+      <c r="N18">
+        <v>1.010856511823235</v>
+      </c>
+      <c r="O18">
+        <v>2.107755326993455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.136449305110602</v>
+        <v>2.141876183046691</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04042950422203972</v>
+        <v>0.1576624504368311</v>
       </c>
       <c r="E19">
-        <v>0.1782383872755595</v>
+        <v>0.2066855768308145</v>
       </c>
       <c r="F19">
-        <v>2.715857831264998</v>
+        <v>2.504730039744672</v>
       </c>
       <c r="G19">
-        <v>0.7391383700113749</v>
+        <v>0.0007843649145819625</v>
       </c>
       <c r="H19">
-        <v>1.467326785758729</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1208549572312911</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08999898331130751</v>
+        <v>0.2978918377411404</v>
       </c>
       <c r="K19">
-        <v>3.522334257862013</v>
+        <v>1.803619797889596</v>
       </c>
       <c r="L19">
-        <v>1.353303836926713</v>
+        <v>0.9891282880391543</v>
       </c>
       <c r="M19">
-        <v>1.604003331585361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7184919712841804</v>
+      </c>
+      <c r="N19">
+        <v>1.016509082490483</v>
+      </c>
+      <c r="O19">
+        <v>2.093599624625583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.18244700563622</v>
+        <v>2.220497016151398</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04277033469083591</v>
+        <v>0.1643183785178906</v>
       </c>
       <c r="E20">
-        <v>0.1842408192600331</v>
+        <v>0.2136674324110928</v>
       </c>
       <c r="F20">
-        <v>2.834699575914414</v>
+        <v>2.572995170356378</v>
       </c>
       <c r="G20">
-        <v>0.7732034380373705</v>
+        <v>0.0007810415031021133</v>
       </c>
       <c r="H20">
-        <v>1.530901091566747</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1129266495954839</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0923569563308142</v>
+        <v>0.3064829815984069</v>
       </c>
       <c r="K20">
-        <v>3.671519765183433</v>
+        <v>1.879523242908121</v>
       </c>
       <c r="L20">
-        <v>1.412454875614117</v>
+        <v>1.029564700646773</v>
       </c>
       <c r="M20">
-        <v>1.672382854854092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7463728156218679</v>
+      </c>
+      <c r="N20">
+        <v>0.9912114522602309</v>
+      </c>
+      <c r="O20">
+        <v>2.157752584632959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.338471025516014</v>
+        <v>2.489172656581388</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05120998035316404</v>
+        <v>0.1872777213767591</v>
       </c>
       <c r="E21">
-        <v>0.2048360091868169</v>
+        <v>0.2375339978377866</v>
       </c>
       <c r="F21">
-        <v>3.252646781051027</v>
+        <v>2.812053082199782</v>
       </c>
       <c r="G21">
-        <v>0.8929155460938034</v>
+        <v>0.0007699720678416993</v>
       </c>
       <c r="H21">
-        <v>1.754978720474512</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.08856963580300725</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1004018063497902</v>
+        <v>0.3357356081547209</v>
       </c>
       <c r="K21">
-        <v>4.18205529199858</v>
+        <v>2.138707329732483</v>
       </c>
       <c r="L21">
-        <v>1.615881227819756</v>
+        <v>1.167795902454145</v>
       </c>
       <c r="M21">
-        <v>1.906487685516154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8416551720267336</v>
+      </c>
+      <c r="N21">
+        <v>0.9087422532640907</v>
+      </c>
+      <c r="O21">
+        <v>2.381811228810918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.441758255803421</v>
+        <v>2.668585054842936</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05723957753364317</v>
+        <v>0.2028101036768248</v>
       </c>
       <c r="E22">
-        <v>0.2186897106944485</v>
+        <v>0.253497680879704</v>
       </c>
       <c r="F22">
-        <v>3.542105252977905</v>
+        <v>2.976407431469511</v>
       </c>
       <c r="G22">
-        <v>0.975767363077864</v>
+        <v>0.0007627945943683434</v>
       </c>
       <c r="H22">
-        <v>1.910583902289716</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07453367287302903</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1057712495398739</v>
+        <v>0.3552034262767876</v>
       </c>
       <c r="K22">
-        <v>4.524054645820854</v>
+        <v>2.311701199591809</v>
       </c>
       <c r="L22">
-        <v>1.753002794056997</v>
+        <v>1.26017873293344</v>
       </c>
       <c r="M22">
-        <v>2.063364365032612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9052967248693307</v>
+      </c>
+      <c r="N22">
+        <v>0.8568380282910901</v>
+      </c>
+      <c r="O22">
+        <v>2.535409946800939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.386496556376557</v>
+        <v>2.572449388447751</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05396838608442067</v>
+        <v>0.1944662288817938</v>
       </c>
       <c r="E23">
-        <v>0.2112543905993434</v>
+        <v>0.2449398986052458</v>
       </c>
       <c r="F23">
-        <v>3.385954974431939</v>
+        <v>2.887884849860569</v>
       </c>
       <c r="G23">
-        <v>0.9310768687095532</v>
+        <v>0.0007666211601071113</v>
       </c>
       <c r="H23">
-        <v>1.826601665835497</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.08183993756083296</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1028937979652049</v>
+        <v>0.3447769094270399</v>
       </c>
       <c r="K23">
-        <v>4.34066145532023</v>
+        <v>2.219007041724296</v>
       </c>
       <c r="L23">
-        <v>1.679389213687998</v>
+        <v>1.210666736995734</v>
       </c>
       <c r="M23">
-        <v>1.979237775493743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8711930147997791</v>
+      </c>
+      <c r="N23">
+        <v>0.8843502808383015</v>
+      </c>
+      <c r="O23">
+        <v>2.452719845430806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.179915977249266</v>
+        <v>2.216163601698554</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04263982107474362</v>
+        <v>0.1639508183594387</v>
       </c>
       <c r="E24">
-        <v>0.1839097553428068</v>
+        <v>0.2132826296494414</v>
       </c>
       <c r="F24">
-        <v>2.828108746938199</v>
+        <v>2.569212016514058</v>
       </c>
       <c r="G24">
-        <v>0.7713145754239576</v>
+        <v>0.0007812236089177768</v>
       </c>
       <c r="H24">
-        <v>1.527373609232924</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1133538814472894</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09222705395588449</v>
+        <v>0.3060098823265989</v>
       </c>
       <c r="K24">
-        <v>3.663295519666093</v>
+        <v>1.875340537545114</v>
       </c>
       <c r="L24">
-        <v>1.409190523356102</v>
+        <v>1.027335860463154</v>
       </c>
       <c r="M24">
-        <v>1.668612838670711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7448360985013949</v>
+      </c>
+      <c r="N24">
+        <v>0.9925914334713077</v>
+      </c>
+      <c r="O24">
+        <v>2.154199530589111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9614156793900293</v>
+        <v>1.845456931706025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03210926186356744</v>
+        <v>0.1327892883959549</v>
       </c>
       <c r="E25">
-        <v>0.1556531759388271</v>
+        <v>0.1803284006393007</v>
       </c>
       <c r="F25">
-        <v>2.281751592369773</v>
+        <v>2.254808149788317</v>
       </c>
       <c r="G25">
-        <v>0.6145626908233339</v>
+        <v>0.000797313169773742</v>
       </c>
       <c r="H25">
-        <v>1.235706529353948</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1543099018557088</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08107733309259402</v>
+        <v>0.2653202313901843</v>
       </c>
       <c r="K25">
-        <v>2.959845148863138</v>
+        <v>1.516996189474042</v>
       </c>
       <c r="L25">
-        <v>1.131514233190941</v>
+        <v>0.8366494058175249</v>
       </c>
       <c r="M25">
-        <v>1.34636527640545</v>
+        <v>0.613353068696739</v>
+      </c>
+      <c r="N25">
+        <v>1.117223170009737</v>
+      </c>
+      <c r="O25">
+        <v>1.857886364305102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.581480692953221</v>
+        <v>0.2698059074079708</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1108769888306682</v>
+        <v>0.08782025007925398</v>
       </c>
       <c r="E2">
-        <v>0.1567360731474992</v>
+        <v>0.04076139204012996</v>
       </c>
       <c r="F2">
-        <v>2.043260769056502</v>
+        <v>2.714267343466588</v>
       </c>
       <c r="G2">
-        <v>0.0008095423587606249</v>
+        <v>2.956557924945884</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.504198974817399</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2359756304793876</v>
+        <v>0.03267523629893843</v>
       </c>
       <c r="K2">
-        <v>1.26077598642037</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7006897248538166</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5196474778745994</v>
+        <v>2.967440052028991</v>
       </c>
       <c r="N2">
-        <v>1.215126189258143</v>
+        <v>1.853293211829026</v>
       </c>
       <c r="O2">
-        <v>1.656957409548468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.407010759416522</v>
+        <v>0.2361199687379383</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09647320003963955</v>
+        <v>0.08103616376946832</v>
       </c>
       <c r="E3">
-        <v>0.1410194944787087</v>
+        <v>0.04129276183972497</v>
       </c>
       <c r="F3">
-        <v>1.910092403004569</v>
+        <v>2.3810665848914</v>
       </c>
       <c r="G3">
-        <v>0.0008181079202048717</v>
+        <v>2.561608084285382</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.327266943051882</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2163253209146987</v>
+        <v>0.03580531749494198</v>
       </c>
       <c r="K3">
-        <v>1.090623457939088</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.610628984311063</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4576386421921086</v>
+        <v>2.569319513553225</v>
       </c>
       <c r="N3">
-        <v>1.285032178525061</v>
+        <v>1.734899116484627</v>
       </c>
       <c r="O3">
-        <v>1.529489556257758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.301730280386522</v>
+        <v>0.2155650231564294</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08779340585945761</v>
+        <v>0.07694661340608633</v>
       </c>
       <c r="E4">
-        <v>0.1314620034271066</v>
+        <v>0.04164972053508276</v>
       </c>
       <c r="F4">
-        <v>1.832706848155411</v>
+        <v>2.184345234462398</v>
       </c>
       <c r="G4">
-        <v>0.0008235156082986581</v>
+        <v>2.327458936099248</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.222915054710569</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2043350773298016</v>
+        <v>0.03784038989771732</v>
       </c>
       <c r="K4">
-        <v>0.9875054847102263</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5561586704296531</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4201754817781733</v>
+        <v>2.327421092993418</v>
       </c>
       <c r="N4">
-        <v>1.329628960236921</v>
+        <v>1.663526815785914</v>
       </c>
       <c r="O4">
-        <v>1.454922493839959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.259245828181434</v>
+        <v>0.2072178869386505</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08429014156632775</v>
+        <v>0.07529502275373545</v>
       </c>
       <c r="E5">
-        <v>0.1275849791774633</v>
+        <v>0.04180281639234007</v>
       </c>
       <c r="F5">
-        <v>1.8021851387672</v>
+        <v>2.105907819769769</v>
       </c>
       <c r="G5">
-        <v>0.0008257581424190426</v>
+        <v>2.233858491877697</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.18133475194449</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1994623226722112</v>
+        <v>0.0386970658203698</v>
       </c>
       <c r="K5">
-        <v>0.9457762713626892</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5341430245755845</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4050453548666084</v>
+        <v>2.229368775628288</v>
       </c>
       <c r="N5">
-        <v>1.348212373913777</v>
+        <v>1.634759712930958</v>
       </c>
       <c r="O5">
-        <v>1.425385628741864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.252215305803929</v>
+        <v>0.2058335260309718</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08371026459064268</v>
+        <v>0.07502156801621851</v>
       </c>
       <c r="E6">
-        <v>0.1269421206348866</v>
+        <v>0.04182869660278943</v>
       </c>
       <c r="F6">
-        <v>1.79717580699662</v>
+        <v>2.092980928641069</v>
       </c>
       <c r="G6">
-        <v>0.0008261329033538376</v>
+        <v>2.218418273716964</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.174483753443241</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1986538607798494</v>
+        <v>0.03884093871078065</v>
       </c>
       <c r="K6">
-        <v>0.9388634622832939</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5304975664791272</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4025407735247768</v>
+        <v>2.21311567922379</v>
       </c>
       <c r="N6">
-        <v>1.351322580915678</v>
+        <v>1.630001737358171</v>
       </c>
       <c r="O6">
-        <v>1.420530156688812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.30115568478621</v>
+        <v>0.2154523366123868</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08774603203931264</v>
+        <v>0.07692428410965846</v>
       </c>
       <c r="E7">
-        <v>0.1314096516907384</v>
+        <v>0.04165175443822022</v>
       </c>
       <c r="F7">
-        <v>1.832291229136786</v>
+        <v>2.183280713378565</v>
       </c>
       <c r="G7">
-        <v>0.0008235456925860965</v>
+        <v>2.326189601451745</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.222350632264266</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2042693144721639</v>
+        <v>0.03785183390420088</v>
       </c>
       <c r="K7">
-        <v>0.9869415885350037</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5558610586047337</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4199709008791572</v>
+        <v>2.326096752325952</v>
       </c>
       <c r="N7">
-        <v>1.329877937213485</v>
+        <v>1.663137584865282</v>
       </c>
       <c r="O7">
-        <v>1.454520809865457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.520911914290082</v>
+        <v>0.2581624162292968</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.105871767792074</v>
+        <v>0.08546266433032912</v>
       </c>
       <c r="E8">
-        <v>0.1512942852427628</v>
+        <v>0.04093817982463044</v>
       </c>
       <c r="F8">
-        <v>1.996379964987824</v>
+        <v>2.597588109632341</v>
       </c>
       <c r="G8">
-        <v>0.000812465929623188</v>
+        <v>2.818465401786995</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.442218223288563</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2291811191398452</v>
+        <v>0.03373030962289736</v>
       </c>
       <c r="K8">
-        <v>1.201795129096169</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6694483282589658</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4981293718433903</v>
+        <v>2.829563549995456</v>
       </c>
       <c r="N8">
-        <v>1.238875328867405</v>
+        <v>1.812187179661862</v>
       </c>
       <c r="O8">
-        <v>1.612188416283288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.968767617406058</v>
+        <v>0.3430895097788351</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1430968705621609</v>
+        <v>0.1030305583613611</v>
       </c>
       <c r="E9">
-        <v>0.1913032046764904</v>
+        <v>0.03978748542286947</v>
       </c>
       <c r="F9">
-        <v>2.357292043742731</v>
+        <v>3.485395929650167</v>
       </c>
       <c r="G9">
-        <v>0.0007918395965374798</v>
+        <v>3.864768387781339</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.914313927768006</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.278909548590633</v>
+        <v>0.02660023344515539</v>
       </c>
       <c r="K9">
-        <v>1.636336225474679</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.900092153324465</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.657097312218454</v>
+        <v>3.8432800821857</v>
       </c>
       <c r="N9">
-        <v>1.074248070848423</v>
+        <v>2.11571558828507</v>
       </c>
       <c r="O9">
-        <v>1.954723174283131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.311655821209058</v>
+        <v>0.4064378722897715</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1720700340013366</v>
+        <v>0.1168175366861064</v>
       </c>
       <c r="E10">
-        <v>0.2217624555821374</v>
+        <v>0.03910330459905875</v>
       </c>
       <c r="F10">
-        <v>2.653122585482407</v>
+        <v>4.204849690944542</v>
       </c>
       <c r="G10">
-        <v>0.0007772382768710376</v>
+        <v>4.706974247837309</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.297518922324116</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3164247318005877</v>
+        <v>0.0220263241706653</v>
       </c>
       <c r="K10">
-        <v>1.967490432418501</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.076454567370632</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7786996448110841</v>
+        <v>4.614459636052686</v>
       </c>
       <c r="N10">
-        <v>0.9625591425551079</v>
+        <v>2.346754323361552</v>
       </c>
       <c r="O10">
-        <v>2.232949589718473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.471550112442401</v>
+        <v>0.4355218927343145</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1857610816673372</v>
+        <v>0.1233904624791862</v>
       </c>
       <c r="E11">
-        <v>0.235967515781752</v>
+        <v>0.03883030888646122</v>
       </c>
       <c r="F11">
-        <v>2.796108820723248</v>
+        <v>4.552634124016549</v>
       </c>
       <c r="G11">
-        <v>0.00077068569818338</v>
+        <v>5.112787304647782</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.482915193970996</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3338210389552927</v>
+        <v>0.02011169953678937</v>
       </c>
       <c r="K11">
-        <v>2.121713592938406</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.158725757374214</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8354049577609786</v>
+        <v>4.973910111796499</v>
       </c>
       <c r="N11">
-        <v>0.9139723174918117</v>
+        <v>2.453904060362078</v>
       </c>
       <c r="O11">
-        <v>2.366892890129904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.532745488043986</v>
+        <v>0.4465788477753279</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1910344927975132</v>
+        <v>0.1259345884966265</v>
       </c>
       <c r="E12">
-        <v>0.2414082445762844</v>
+        <v>0.03873282312520487</v>
       </c>
       <c r="F12">
-        <v>2.851630967428179</v>
+        <v>4.687889727063947</v>
       </c>
       <c r="G12">
-        <v>0.0007682144371613723</v>
+        <v>5.270417139339258</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.555041376511156</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3404674921807498</v>
+        <v>0.01941271818796464</v>
       </c>
       <c r="K12">
-        <v>2.180723427113094</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.190225215820277</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8571098083537763</v>
+        <v>5.111566636569336</v>
       </c>
       <c r="N12">
-        <v>0.8959136858726815</v>
+        <v>2.494801224919797</v>
       </c>
       <c r="O12">
-        <v>2.418828472949912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.519535746607573</v>
+        <v>0.4441955137967852</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.189894544730322</v>
+        <v>0.1253839970485942</v>
       </c>
       <c r="E13">
-        <v>0.240233547844575</v>
+        <v>0.03875354873292469</v>
       </c>
       <c r="F13">
-        <v>2.839609176670564</v>
+        <v>4.658590793170106</v>
       </c>
       <c r="G13">
-        <v>0.0007687462690124509</v>
+        <v>5.236280165981839</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.539416353146635</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3390332438715689</v>
+        <v>0.01956205998836902</v>
       </c>
       <c r="K13">
-        <v>2.167985889822745</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.183425002039542</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8524244148051494</v>
+        <v>5.081845913942402</v>
       </c>
       <c r="N13">
-        <v>0.8997874493547684</v>
+        <v>2.485978505484667</v>
       </c>
       <c r="O13">
-        <v>2.407586556006308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.476571209149199</v>
+        <v>0.4364306525628194</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1861930499585611</v>
+        <v>0.1235985875180745</v>
       </c>
       <c r="E14">
-        <v>0.2364138223579388</v>
+        <v>0.03882216788341886</v>
       </c>
       <c r="F14">
-        <v>2.8006480441951</v>
+        <v>4.563686470054733</v>
       </c>
       <c r="G14">
-        <v>0.0007704822019614995</v>
+        <v>5.125671820715979</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.488808450964427</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3343665963994482</v>
+        <v>0.02005365837706652</v>
       </c>
       <c r="K14">
-        <v>2.126555580896721</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.161310001006825</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.837185784507426</v>
+        <v>4.985202395936966</v>
       </c>
       <c r="N14">
-        <v>0.9124796780111524</v>
+        <v>2.457262076474763</v>
       </c>
       <c r="O14">
-        <v>2.371140377580289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.450341107113275</v>
+        <v>0.4316802733059006</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1839378528633944</v>
+        <v>0.1225125452399496</v>
       </c>
       <c r="E15">
-        <v>0.2340825166486056</v>
+        <v>0.03886498021187279</v>
       </c>
       <c r="F15">
-        <v>2.776967786413849</v>
+        <v>4.506038215690069</v>
       </c>
       <c r="G15">
-        <v>0.0007715467307421492</v>
+        <v>5.058459338924536</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.458070628349503</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3315161684950425</v>
+        <v>0.02035823820031579</v>
       </c>
       <c r="K15">
-        <v>2.101260620114928</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.147810512624289</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8278828937801279</v>
+        <v>4.926215955861778</v>
       </c>
       <c r="N15">
-        <v>0.9202989907533698</v>
+        <v>2.43971521497852</v>
       </c>
       <c r="O15">
-        <v>2.348979055722808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.301292059081334</v>
+        <v>0.404542954049802</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1711868426016565</v>
+        <v>0.1163949890010585</v>
       </c>
       <c r="E16">
-        <v>0.2208420811044185</v>
+        <v>0.03912194582545681</v>
       </c>
       <c r="F16">
-        <v>2.643961139154101</v>
+        <v>4.182583121219949</v>
       </c>
       <c r="G16">
-        <v>0.0007776680729269834</v>
+        <v>4.680966307709298</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.285652299528579</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3152954236307437</v>
+        <v>0.02215496910115533</v>
       </c>
       <c r="K16">
-        <v>1.957491385105001</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.071123301733792</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7750244082805793</v>
+        <v>4.591166674858684</v>
       </c>
       <c r="N16">
-        <v>0.9657808172730995</v>
+        <v>2.339795326571192</v>
       </c>
       <c r="O16">
-        <v>2.224357185312513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.210914259528465</v>
+        <v>0.3879668495385999</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1635056800871837</v>
+        <v>0.1127267882505478</v>
       </c>
       <c r="E17">
-        <v>0.2128164919268869</v>
+        <v>0.03928962289711091</v>
       </c>
       <c r="F17">
-        <v>2.564632420604568</v>
+        <v>3.989802516309055</v>
       </c>
       <c r="G17">
-        <v>0.0007814443695014288</v>
+        <v>4.455651065488325</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.182929790603737</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3054367228020496</v>
+        <v>0.0233011840958639</v>
       </c>
       <c r="K17">
-        <v>1.870273622800838</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.024635938412786</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7429745734043962</v>
+        <v>4.388031271117413</v>
       </c>
       <c r="N17">
-        <v>0.9942653111728426</v>
+        <v>2.279040950985262</v>
       </c>
       <c r="O17">
-        <v>2.149898138643977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.159294022200129</v>
+        <v>0.3784574634951241</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1591347314111857</v>
+        <v>0.1106444402386089</v>
       </c>
       <c r="E18">
-        <v>0.2082324622469756</v>
+        <v>0.03938963620795377</v>
       </c>
       <c r="F18">
-        <v>2.519785213612877</v>
+        <v>3.880807304082509</v>
       </c>
       <c r="G18">
-        <v>0.0007836250213109199</v>
+        <v>4.328142723761516</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.124865929274961</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.299796596372957</v>
+        <v>0.02397594154260307</v>
       </c>
       <c r="K18">
-        <v>1.82043887763345</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9980864948059036</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7246688321514583</v>
+        <v>4.271985159241879</v>
       </c>
       <c r="N18">
-        <v>1.010856511823235</v>
+        <v>2.244287706000108</v>
       </c>
       <c r="O18">
-        <v>2.107755326993455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.141876183046691</v>
+        <v>0.3752418514967957</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1576624504368311</v>
+        <v>0.1099437993783496</v>
       </c>
       <c r="E19">
-        <v>0.2066855768308145</v>
+        <v>0.03942410209464864</v>
       </c>
       <c r="F19">
-        <v>2.504730039744672</v>
+        <v>3.844210805366998</v>
       </c>
       <c r="G19">
-        <v>0.0007843649145819625</v>
+        <v>4.285310010083947</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.105372597223806</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2978918377411404</v>
+        <v>0.02420700139629517</v>
       </c>
       <c r="K19">
-        <v>1.803619797889596</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9891282880391543</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7184919712841804</v>
+        <v>4.232821811381555</v>
       </c>
       <c r="N19">
-        <v>1.016509082490483</v>
+        <v>2.232552889516171</v>
       </c>
       <c r="O19">
-        <v>2.093599624625583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.220497016151398</v>
+        <v>0.3897288069638023</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1643183785178906</v>
+        <v>0.1131143508696155</v>
       </c>
       <c r="E20">
-        <v>0.2136674324110928</v>
+        <v>0.03927140146004859</v>
       </c>
       <c r="F20">
-        <v>2.572995170356378</v>
+        <v>4.010124992227304</v>
       </c>
       <c r="G20">
-        <v>0.0007810415031021133</v>
+        <v>4.479415653247514</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.193757096257855</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3064829815984069</v>
+        <v>0.02317755023657408</v>
       </c>
       <c r="K20">
-        <v>1.879523242908121</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.029564700646773</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7463728156218679</v>
+        <v>4.409571438157059</v>
       </c>
       <c r="N20">
-        <v>0.9912114522602309</v>
+        <v>2.285488395963398</v>
       </c>
       <c r="O20">
-        <v>2.157752584632959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.489172656581388</v>
+        <v>0.4387101571910534</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1872777213767591</v>
+        <v>0.12412140238321</v>
       </c>
       <c r="E21">
-        <v>0.2375339978377866</v>
+        <v>0.03880184910129891</v>
       </c>
       <c r="F21">
-        <v>2.812053082199782</v>
+        <v>4.59146017029579</v>
       </c>
       <c r="G21">
-        <v>0.0007699720678416993</v>
+        <v>5.158046544856631</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.503618149567671</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3357356081547209</v>
+        <v>0.01990853828604378</v>
       </c>
       <c r="K21">
-        <v>2.138707329732483</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.167795902454145</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8416551720267336</v>
+        <v>5.013544449127593</v>
       </c>
       <c r="N21">
-        <v>0.9087422532640907</v>
+        <v>2.465687819270642</v>
       </c>
       <c r="O21">
-        <v>2.381811228810918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.668585054842936</v>
+        <v>0.4709784550751834</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2028101036768248</v>
+        <v>0.1316439522845982</v>
       </c>
       <c r="E22">
-        <v>0.253497680879704</v>
+        <v>0.03852959639378017</v>
       </c>
       <c r="F22">
-        <v>2.976407431469511</v>
+        <v>4.992507091867452</v>
       </c>
       <c r="G22">
-        <v>0.0007627945943683434</v>
+        <v>5.625067353343468</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.717528603264554</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3552034262767876</v>
+        <v>0.01792511490588744</v>
       </c>
       <c r="K22">
-        <v>2.311701199591809</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.26017873293344</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9052967248693307</v>
+        <v>5.417440590743638</v>
       </c>
       <c r="N22">
-        <v>0.8568380282910901</v>
+        <v>2.585349737696021</v>
       </c>
       <c r="O22">
-        <v>2.535409946800939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.572449388447751</v>
+        <v>0.453730975638166</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1944662288817938</v>
+        <v>0.1275942800528753</v>
       </c>
       <c r="E23">
-        <v>0.2449398986052458</v>
+        <v>0.03867156853236953</v>
       </c>
       <c r="F23">
-        <v>2.887884849860569</v>
+        <v>4.776294540259983</v>
       </c>
       <c r="G23">
-        <v>0.0007666211601071113</v>
+        <v>5.373391817224785</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.602191074979544</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3447769094270399</v>
+        <v>0.01896889646757094</v>
       </c>
       <c r="K23">
-        <v>2.219007041724296</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.210666736995734</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8711930147997791</v>
+        <v>5.200919564692157</v>
       </c>
       <c r="N23">
-        <v>0.8843502808383015</v>
+        <v>2.521301035949563</v>
       </c>
       <c r="O23">
-        <v>2.452719845430806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.216163601698554</v>
+        <v>0.3889321627362818</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1639508183594387</v>
+        <v>0.1129390519667695</v>
       </c>
       <c r="E24">
-        <v>0.2132826296494414</v>
+        <v>0.03927962814422781</v>
       </c>
       <c r="F24">
-        <v>2.569212016514058</v>
+        <v>4.000931523624502</v>
       </c>
       <c r="G24">
-        <v>0.0007812236089177768</v>
+        <v>4.468665415709779</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.188859003300308</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3060098823265989</v>
+        <v>0.02323339610259989</v>
       </c>
       <c r="K24">
-        <v>1.875340537545114</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.027335860463154</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7448360985013949</v>
+        <v>4.399830848101544</v>
       </c>
       <c r="N24">
-        <v>0.9925914334713077</v>
+        <v>2.282572962227761</v>
       </c>
       <c r="O24">
-        <v>2.154199530589111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.845456931706025</v>
+        <v>0.3199655561237336</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1327892883959549</v>
+        <v>0.09815506505815108</v>
       </c>
       <c r="E25">
-        <v>0.1803284006393007</v>
+        <v>0.04007132900804855</v>
       </c>
       <c r="F25">
-        <v>2.254808149788317</v>
+        <v>3.235162828785178</v>
       </c>
       <c r="G25">
-        <v>0.000797313169773742</v>
+        <v>3.570789503623985</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.781149747627552</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2653202313901843</v>
+        <v>0.02841908595523401</v>
       </c>
       <c r="K25">
-        <v>1.516996189474042</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8366494058175249</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.613353068696739</v>
+        <v>3.565253837952213</v>
       </c>
       <c r="N25">
-        <v>1.117223170009737</v>
+        <v>2.032284638187321</v>
       </c>
       <c r="O25">
-        <v>1.857886364305102</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2698059074079708</v>
+        <v>0.1424644886134701</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08782025007925398</v>
+        <v>0.1139241056133855</v>
       </c>
       <c r="E2">
-        <v>0.04076139204012996</v>
+        <v>0.1040233722974415</v>
       </c>
       <c r="F2">
-        <v>2.714267343466588</v>
+        <v>2.241138824841414</v>
       </c>
       <c r="G2">
-        <v>2.956557924945884</v>
+        <v>1.776117867831744</v>
       </c>
       <c r="H2">
-        <v>1.504198974817399</v>
+        <v>1.40473911688116</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03267523629893843</v>
+        <v>0.1249938732257547</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.967440052028991</v>
+        <v>1.206681053132939</v>
       </c>
       <c r="N2">
-        <v>1.853293211829026</v>
+        <v>1.459012336282058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2361199687379383</v>
+        <v>0.1329234947758806</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08103616376946832</v>
+        <v>0.1119549622607394</v>
       </c>
       <c r="E3">
-        <v>0.04129276183972497</v>
+        <v>0.1045922858359685</v>
       </c>
       <c r="F3">
-        <v>2.3810665848914</v>
+        <v>2.184739009880289</v>
       </c>
       <c r="G3">
-        <v>2.561608084285382</v>
+        <v>1.698676187230404</v>
       </c>
       <c r="H3">
-        <v>1.327266943051882</v>
+        <v>1.376547655409496</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03580531749494198</v>
+        <v>0.1270065260697453</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.569319513553225</v>
+        <v>1.096913904105591</v>
       </c>
       <c r="N3">
-        <v>1.734899116484627</v>
+        <v>1.423636744251979</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155650231564294</v>
+        <v>0.1271321576970905</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07694661340608633</v>
+        <v>0.1107307092836649</v>
       </c>
       <c r="E4">
-        <v>0.04164972053508276</v>
+        <v>0.10496619120826</v>
       </c>
       <c r="F4">
-        <v>2.184345234462398</v>
+        <v>2.151842812373971</v>
       </c>
       <c r="G4">
-        <v>2.327458936099248</v>
+        <v>1.652587754564991</v>
       </c>
       <c r="H4">
-        <v>1.222915054710569</v>
+        <v>1.360257592255891</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03784038989771732</v>
+        <v>0.128309043113616</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.327421092993418</v>
+        <v>1.029692168599212</v>
       </c>
       <c r="N4">
-        <v>1.663526815785914</v>
+        <v>1.402506520986677</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2072178869386505</v>
+        <v>0.1247891573038231</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07529502275373545</v>
+        <v>0.1102279396534129</v>
       </c>
       <c r="E5">
-        <v>0.04180281639234007</v>
+        <v>0.105124761798626</v>
       </c>
       <c r="F5">
-        <v>2.105907819769769</v>
+        <v>2.138869424792119</v>
       </c>
       <c r="G5">
-        <v>2.233858491877697</v>
+        <v>1.634169209597445</v>
       </c>
       <c r="H5">
-        <v>1.18133475194449</v>
+        <v>1.353873714725268</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0386970658203698</v>
+        <v>0.1288565977352847</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.229368775628288</v>
+        <v>1.002343018362609</v>
       </c>
       <c r="N5">
-        <v>1.634759712930958</v>
+        <v>1.394045718781229</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2058335260309718</v>
+        <v>0.1244011375526952</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07502156801621851</v>
+        <v>0.110144219361068</v>
       </c>
       <c r="E6">
-        <v>0.04182869660278943</v>
+        <v>0.1051514673760154</v>
       </c>
       <c r="F6">
-        <v>2.092980928641069</v>
+        <v>2.136741189375172</v>
       </c>
       <c r="G6">
-        <v>2.218418273716964</v>
+        <v>1.631132609032875</v>
       </c>
       <c r="H6">
-        <v>1.174483753443241</v>
+        <v>1.352828989243363</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03884093871078065</v>
+        <v>0.1289485311254523</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.21311567922379</v>
+        <v>0.9978043882831003</v>
       </c>
       <c r="N6">
-        <v>1.630001737358171</v>
+        <v>1.39264990751407</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2154523366123868</v>
+        <v>0.1271004900081891</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07692428410965846</v>
+        <v>0.1107239445274573</v>
       </c>
       <c r="E7">
-        <v>0.04165175443822022</v>
+        <v>0.1049683046148342</v>
       </c>
       <c r="F7">
-        <v>2.183280713378565</v>
+        <v>2.151666104264322</v>
       </c>
       <c r="G7">
-        <v>2.326189601451745</v>
+        <v>1.652337892338466</v>
       </c>
       <c r="H7">
-        <v>1.222350632264266</v>
+        <v>1.360170469296719</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03785183390420088</v>
+        <v>0.1283163597496406</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.326096752325952</v>
+        <v>1.029323149106204</v>
       </c>
       <c r="N7">
-        <v>1.663137584865282</v>
+        <v>1.402391806635706</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2581624162292968</v>
+        <v>0.1391609919028838</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08546266433032912</v>
+        <v>0.113248263070254</v>
       </c>
       <c r="E8">
-        <v>0.04093817982463044</v>
+        <v>0.1042144406700745</v>
       </c>
       <c r="F8">
-        <v>2.597588109632341</v>
+        <v>2.221330035507549</v>
       </c>
       <c r="G8">
-        <v>2.818465401786995</v>
+        <v>1.749109958569193</v>
       </c>
       <c r="H8">
-        <v>1.442218223288563</v>
+        <v>1.394805896804314</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03373030962289736</v>
+        <v>0.1256739757904306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.829563549995456</v>
+        <v>1.168796857086448</v>
       </c>
       <c r="N8">
-        <v>1.812187179661862</v>
+        <v>1.446693110347894</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3430895097788351</v>
+        <v>0.1633346837021747</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1030305583613611</v>
+        <v>0.1180806803733816</v>
       </c>
       <c r="E9">
-        <v>0.03978748542286947</v>
+        <v>0.1029304327905258</v>
       </c>
       <c r="F9">
-        <v>3.485395929650167</v>
+        <v>2.371879878529853</v>
       </c>
       <c r="G9">
-        <v>3.864768387781339</v>
+        <v>1.95069064692953</v>
       </c>
       <c r="H9">
-        <v>1.914313927768006</v>
+        <v>1.470909624759202</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02660023344515539</v>
+        <v>0.1210223732031794</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.8432800821857</v>
+        <v>1.443712307399011</v>
       </c>
       <c r="N9">
-        <v>2.11571558828507</v>
+        <v>1.538196776770633</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4064378722897715</v>
+        <v>0.1814058279748423</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1168175366861064</v>
+        <v>0.1215634100430734</v>
       </c>
       <c r="E10">
-        <v>0.03910330459905875</v>
+        <v>0.1021044401319173</v>
       </c>
       <c r="F10">
-        <v>4.204849690944542</v>
+        <v>2.491258968324189</v>
       </c>
       <c r="G10">
-        <v>4.706974247837309</v>
+        <v>2.106313795450774</v>
       </c>
       <c r="H10">
-        <v>2.297518922324116</v>
+        <v>1.531951058271147</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0220263241706653</v>
+        <v>0.1179286587131241</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.614459636052686</v>
+        <v>1.646593425051563</v>
       </c>
       <c r="N10">
-        <v>2.346754323361552</v>
+        <v>1.608180019640741</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4355218927343145</v>
+        <v>0.1896927262001356</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1233904624791862</v>
+        <v>0.1231340313962477</v>
       </c>
       <c r="E11">
-        <v>0.03883030888646122</v>
+        <v>0.1017539269845367</v>
       </c>
       <c r="F11">
-        <v>4.552634124016549</v>
+        <v>2.547532837944487</v>
       </c>
       <c r="G11">
-        <v>5.112787304647782</v>
+        <v>2.178815780071091</v>
       </c>
       <c r="H11">
-        <v>2.482915193970996</v>
+        <v>1.560865031734465</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02011169953678937</v>
+        <v>0.1165917047033771</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.973910111796499</v>
+        <v>1.739096157013819</v>
       </c>
       <c r="N11">
-        <v>2.453904060362078</v>
+        <v>1.640602413352838</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4465788477753279</v>
+        <v>0.1928401076212367</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1259345884966265</v>
+        <v>0.1237268868753958</v>
       </c>
       <c r="E12">
-        <v>0.03873282312520487</v>
+        <v>0.1016248071457744</v>
       </c>
       <c r="F12">
-        <v>4.687889727063947</v>
+        <v>2.569130019111299</v>
       </c>
       <c r="G12">
-        <v>5.270417139339258</v>
+        <v>2.206521643586882</v>
       </c>
       <c r="H12">
-        <v>2.555041376511156</v>
+        <v>1.571981223268835</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01941271818796464</v>
+        <v>0.1160955738491523</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.111566636569336</v>
+        <v>1.774155401764489</v>
       </c>
       <c r="N12">
-        <v>2.494801224919797</v>
+        <v>1.652963051266852</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4441955137967852</v>
+        <v>0.192161851909006</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1253839970485942</v>
+        <v>0.1235992885245594</v>
       </c>
       <c r="E13">
-        <v>0.03875354873292469</v>
+        <v>0.1016524550426094</v>
       </c>
       <c r="F13">
-        <v>4.658590793170106</v>
+        <v>2.564465820511117</v>
       </c>
       <c r="G13">
-        <v>5.236280165981839</v>
+        <v>2.200543444410016</v>
       </c>
       <c r="H13">
-        <v>2.539416353146635</v>
+        <v>1.569579683439201</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01956205998836902</v>
+        <v>0.1162019729612407</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.081845913942402</v>
+        <v>1.766603408732152</v>
       </c>
       <c r="N13">
-        <v>2.485978505484667</v>
+        <v>1.650297297859794</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4364306525628194</v>
+        <v>0.1899514777369689</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1235985875180745</v>
+        <v>0.1231828437763767</v>
       </c>
       <c r="E14">
-        <v>0.03882216788341886</v>
+        <v>0.1017432319267391</v>
       </c>
       <c r="F14">
-        <v>4.563686470054733</v>
+        <v>2.549303863081803</v>
       </c>
       <c r="G14">
-        <v>5.125671820715979</v>
+        <v>2.181090098351547</v>
       </c>
       <c r="H14">
-        <v>2.488808450964427</v>
+        <v>1.561776205193269</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02005365837706652</v>
+        <v>0.1165506842771746</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.985202395936966</v>
+        <v>1.741979890738946</v>
       </c>
       <c r="N14">
-        <v>2.457262076474763</v>
+        <v>1.641617675234613</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4316802733059006</v>
+        <v>0.1885987662387834</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1225125452399496</v>
+        <v>0.1229275132079124</v>
       </c>
       <c r="E15">
-        <v>0.03886498021187279</v>
+        <v>0.1017993052622961</v>
       </c>
       <c r="F15">
-        <v>4.506038215690069</v>
+        <v>2.540054301775484</v>
       </c>
       <c r="G15">
-        <v>5.058459338924536</v>
+        <v>2.169207200144172</v>
       </c>
       <c r="H15">
-        <v>2.458070628349503</v>
+        <v>1.557018179973909</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02035823820031579</v>
+        <v>0.1167656018242571</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.926215955861778</v>
+        <v>1.726901246966349</v>
       </c>
       <c r="N15">
-        <v>2.43971521497852</v>
+        <v>1.636311921764928</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.404542954049802</v>
+        <v>0.1808655744775649</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1163949890010585</v>
+        <v>0.121460496197642</v>
       </c>
       <c r="E16">
-        <v>0.03912194582545681</v>
+        <v>0.1021278533403533</v>
       </c>
       <c r="F16">
-        <v>4.182583121219949</v>
+        <v>2.487621319639999</v>
       </c>
       <c r="G16">
-        <v>4.680966307709298</v>
+        <v>2.101610444591188</v>
       </c>
       <c r="H16">
-        <v>2.285652299528579</v>
+        <v>1.530084717787418</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02215496910115533</v>
+        <v>0.1180174501690647</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.591166674858684</v>
+        <v>1.640552410229361</v>
       </c>
       <c r="N16">
-        <v>2.339795326571192</v>
+        <v>1.606072826605953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3879668495385999</v>
+        <v>0.1761383268766821</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1127267882505478</v>
+        <v>0.1205570675008971</v>
       </c>
       <c r="E17">
-        <v>0.03928962289711091</v>
+        <v>0.1023358582270593</v>
       </c>
       <c r="F17">
-        <v>3.989802516309055</v>
+        <v>2.455962561668969</v>
       </c>
       <c r="G17">
-        <v>4.455651065488325</v>
+        <v>2.060583280324323</v>
       </c>
       <c r="H17">
-        <v>2.182929790603737</v>
+        <v>1.513857041121952</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0233011840958639</v>
+        <v>0.1188034634424162</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.388031271117413</v>
+        <v>1.5876343265939</v>
       </c>
       <c r="N17">
-        <v>2.279040950985262</v>
+        <v>1.587671390390909</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3784574634951241</v>
+        <v>0.1734255869915842</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1106444402386089</v>
+        <v>0.1200361467608175</v>
       </c>
       <c r="E18">
-        <v>0.03938963620795377</v>
+        <v>0.1024578733885004</v>
       </c>
       <c r="F18">
-        <v>3.880807304082509</v>
+        <v>2.437938216636326</v>
       </c>
       <c r="G18">
-        <v>4.328142723761516</v>
+        <v>2.03714600530455</v>
       </c>
       <c r="H18">
-        <v>2.124865929274961</v>
+        <v>1.504631028758013</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02397594154260307</v>
+        <v>0.1192621817798161</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.271985159241879</v>
+        <v>1.557217103894558</v>
       </c>
       <c r="N18">
-        <v>2.244287706000108</v>
+        <v>1.577142671766069</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3752418514967957</v>
+        <v>0.1725081794553063</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1099437993783496</v>
+        <v>0.1198595480454259</v>
       </c>
       <c r="E19">
-        <v>0.03942410209464864</v>
+        <v>0.1024995942638274</v>
       </c>
       <c r="F19">
-        <v>3.844210805366998</v>
+        <v>2.431867109206451</v>
       </c>
       <c r="G19">
-        <v>4.285310010083947</v>
+        <v>2.029237946925718</v>
       </c>
       <c r="H19">
-        <v>2.105372597223806</v>
+        <v>1.501525690367259</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02420700139629517</v>
+        <v>0.1194186329818705</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.232821811381555</v>
+        <v>1.546921763169635</v>
       </c>
       <c r="N19">
-        <v>2.232552889516171</v>
+        <v>1.573587368961626</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3897288069638023</v>
+        <v>0.176640905362845</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1131143508696155</v>
+        <v>0.1206533723332655</v>
       </c>
       <c r="E20">
-        <v>0.03927140146004859</v>
+        <v>0.1023134699411692</v>
       </c>
       <c r="F20">
-        <v>4.010124992227304</v>
+        <v>2.459313517861744</v>
       </c>
       <c r="G20">
-        <v>4.479415653247514</v>
+        <v>2.064934046472644</v>
       </c>
       <c r="H20">
-        <v>2.193757096257855</v>
+        <v>1.515573339977749</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02317755023657408</v>
+        <v>0.1187191052382173</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.409571438157059</v>
+        <v>1.593265490904329</v>
       </c>
       <c r="N20">
-        <v>2.285488395963398</v>
+        <v>1.589624541345501</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4387101571910534</v>
+        <v>0.1906004671568269</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.12412140238321</v>
+        <v>0.1233052148729499</v>
       </c>
       <c r="E21">
-        <v>0.03880184910129891</v>
+        <v>0.1017164706645088</v>
       </c>
       <c r="F21">
-        <v>4.59146017029579</v>
+        <v>2.553749458615073</v>
       </c>
       <c r="G21">
-        <v>5.158046544856631</v>
+        <v>2.1867971646613</v>
       </c>
       <c r="H21">
-        <v>2.503618149567671</v>
+        <v>1.56406372224842</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01990853828604378</v>
+        <v>0.116447983808587</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.013544449127593</v>
+        <v>1.749211586827045</v>
       </c>
       <c r="N21">
-        <v>2.465687819270642</v>
+        <v>1.644164849601196</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4709784550751834</v>
+        <v>0.1997780320469218</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1316439522845982</v>
+        <v>0.1250272755548139</v>
       </c>
       <c r="E22">
-        <v>0.03852959639378017</v>
+        <v>0.1013473421198157</v>
       </c>
       <c r="F22">
-        <v>4.992507091867452</v>
+        <v>2.617146671080548</v>
       </c>
       <c r="G22">
-        <v>5.625067353343468</v>
+        <v>2.267906926976821</v>
       </c>
       <c r="H22">
-        <v>2.717528603264554</v>
+        <v>1.596730069809041</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01792511490588744</v>
+        <v>0.1150228159002671</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.417440590743638</v>
+        <v>1.85130905254502</v>
       </c>
       <c r="N22">
-        <v>2.585349737696021</v>
+        <v>1.680293146946696</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.453730975638166</v>
+        <v>0.1948749053101579</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1275942800528753</v>
+        <v>0.1241091709877722</v>
       </c>
       <c r="E23">
-        <v>0.03867156853236953</v>
+        <v>0.1015424329279995</v>
       </c>
       <c r="F23">
-        <v>4.776294540259983</v>
+        <v>2.583155340605742</v>
       </c>
       <c r="G23">
-        <v>5.373391817224785</v>
+        <v>2.224481282848899</v>
       </c>
       <c r="H23">
-        <v>2.602191074979544</v>
+        <v>1.579205427962279</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01896889646757094</v>
+        <v>0.1157780359230869</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.200919564692157</v>
+        <v>1.796801405984155</v>
       </c>
       <c r="N23">
-        <v>2.521301035949563</v>
+        <v>1.66096704545285</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3889321627362818</v>
+        <v>0.1764136739845128</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1129390519667695</v>
+        <v>0.1206098376821387</v>
       </c>
       <c r="E24">
-        <v>0.03927962814422781</v>
+        <v>0.1023235841138499</v>
       </c>
       <c r="F24">
-        <v>4.000931523624502</v>
+        <v>2.457798000538105</v>
       </c>
       <c r="G24">
-        <v>4.468665415709779</v>
+        <v>2.062966598939255</v>
       </c>
       <c r="H24">
-        <v>2.188859003300308</v>
+        <v>1.51479707907589</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02323339610259989</v>
+        <v>0.1187572223139339</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.399830848101544</v>
+        <v>1.590719622562617</v>
       </c>
       <c r="N24">
-        <v>2.282572962227761</v>
+        <v>1.588741364359691</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3199655561237336</v>
+        <v>0.1567399045443665</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09815506505815108</v>
+        <v>0.1167855665534461</v>
       </c>
       <c r="E25">
-        <v>0.04007132900804855</v>
+        <v>0.103257100983325</v>
       </c>
       <c r="F25">
-        <v>3.235162828785178</v>
+        <v>2.329632003430135</v>
       </c>
       <c r="G25">
-        <v>3.570789503623985</v>
+        <v>1.894860365773866</v>
       </c>
       <c r="H25">
-        <v>1.781149747627552</v>
+        <v>1.449431212419285</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02841908595523401</v>
+        <v>0.122223937791988</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.565253837952213</v>
+        <v>1.369185445620488</v>
       </c>
       <c r="N25">
-        <v>2.032284638187321</v>
+        <v>1.512954008150672</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424644886134701</v>
+        <v>0.2698059074079424</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1139241056133855</v>
+        <v>0.08782025007914029</v>
       </c>
       <c r="E2">
-        <v>0.1040233722974415</v>
+        <v>0.04076139204013085</v>
       </c>
       <c r="F2">
-        <v>2.241138824841414</v>
+        <v>2.714267343466616</v>
       </c>
       <c r="G2">
-        <v>1.776117867831744</v>
+        <v>2.95655792494594</v>
       </c>
       <c r="H2">
-        <v>1.40473911688116</v>
+        <v>1.504198974817399</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1249938732257547</v>
+        <v>0.03267523629911029</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.206681053132939</v>
+        <v>2.967440052028991</v>
       </c>
       <c r="N2">
-        <v>1.459012336282058</v>
+        <v>1.853293211829026</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329234947758806</v>
+        <v>0.2361199687379809</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1119549622607394</v>
+        <v>0.08103616376947542</v>
       </c>
       <c r="E3">
-        <v>0.1045922858359685</v>
+        <v>0.04129276183973118</v>
       </c>
       <c r="F3">
-        <v>2.184739009880289</v>
+        <v>2.3810665848914</v>
       </c>
       <c r="G3">
-        <v>1.698676187230404</v>
+        <v>2.561608084285382</v>
       </c>
       <c r="H3">
-        <v>1.376547655409496</v>
+        <v>1.32726694305191</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1270065260697453</v>
+        <v>0.03580531749491489</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.096913904105591</v>
+        <v>2.569319513553239</v>
       </c>
       <c r="N3">
-        <v>1.423636744251979</v>
+        <v>1.734899116484655</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271321576970905</v>
+        <v>0.2155650231562731</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1107307092836649</v>
+        <v>0.07694661340608633</v>
       </c>
       <c r="E4">
-        <v>0.10496619120826</v>
+        <v>0.04164972053508365</v>
       </c>
       <c r="F4">
-        <v>2.151842812373971</v>
+        <v>2.184345234462398</v>
       </c>
       <c r="G4">
-        <v>1.652587754564991</v>
+        <v>2.327458936099106</v>
       </c>
       <c r="H4">
-        <v>1.360257592255891</v>
+        <v>1.222915054710569</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.128309043113616</v>
+        <v>0.03784038989777838</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.029692168599212</v>
+        <v>2.327421092993418</v>
       </c>
       <c r="N4">
-        <v>1.402506520986677</v>
+        <v>1.663526815785985</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247891573038231</v>
+        <v>0.2072178869386789</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1102279396534129</v>
+        <v>0.07529502275373545</v>
       </c>
       <c r="E5">
-        <v>0.105124761798626</v>
+        <v>0.04180281639232675</v>
       </c>
       <c r="F5">
-        <v>2.138869424792119</v>
+        <v>2.105907819769769</v>
       </c>
       <c r="G5">
-        <v>1.634169209597445</v>
+        <v>2.233858491877697</v>
       </c>
       <c r="H5">
-        <v>1.353873714725268</v>
+        <v>1.18133475194449</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1288565977352847</v>
+        <v>0.03869706582030719</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.002343018362609</v>
+        <v>2.229368775628274</v>
       </c>
       <c r="N5">
-        <v>1.394045718781229</v>
+        <v>1.634759712930958</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244011375526952</v>
+        <v>0.2058335260309576</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.110144219361068</v>
+        <v>0.07502156801621851</v>
       </c>
       <c r="E6">
-        <v>0.1051514673760154</v>
+        <v>0.04182869660282851</v>
       </c>
       <c r="F6">
-        <v>2.136741189375172</v>
+        <v>2.092980928641083</v>
       </c>
       <c r="G6">
-        <v>1.631132609032875</v>
+        <v>2.218418273716907</v>
       </c>
       <c r="H6">
-        <v>1.352828989243363</v>
+        <v>1.174483753443241</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1289485311254523</v>
+        <v>0.03884093871072136</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9978043882831003</v>
+        <v>2.213115679223776</v>
       </c>
       <c r="N6">
-        <v>1.39264990751407</v>
+        <v>1.630001737358228</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271004900081891</v>
+        <v>0.2154523366125574</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1107239445274573</v>
+        <v>0.07692428410965846</v>
       </c>
       <c r="E7">
-        <v>0.1049683046148342</v>
+        <v>0.04165175443819535</v>
       </c>
       <c r="F7">
-        <v>2.151666104264322</v>
+        <v>2.183280713378551</v>
       </c>
       <c r="G7">
-        <v>1.652337892338466</v>
+        <v>2.326189601451802</v>
       </c>
       <c r="H7">
-        <v>1.360170469296719</v>
+        <v>1.222350632264124</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1283163597496406</v>
+        <v>0.03785183390420555</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.029323149106204</v>
+        <v>2.326096752325938</v>
       </c>
       <c r="N7">
-        <v>1.402391806635706</v>
+        <v>1.663137584865225</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391609919028838</v>
+        <v>0.2581624162292542</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.113248263070254</v>
+        <v>0.08546266433067018</v>
       </c>
       <c r="E8">
-        <v>0.1042144406700745</v>
+        <v>0.04093817982463044</v>
       </c>
       <c r="F8">
-        <v>2.221330035507549</v>
+        <v>2.597588109632369</v>
       </c>
       <c r="G8">
-        <v>1.749109958569193</v>
+        <v>2.81846540178708</v>
       </c>
       <c r="H8">
-        <v>1.394805896804314</v>
+        <v>1.442218223288563</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1256739757904306</v>
+        <v>0.03373030962295465</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.168796857086448</v>
+        <v>2.829563549995456</v>
       </c>
       <c r="N8">
-        <v>1.446693110347894</v>
+        <v>1.812187179661862</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633346837021747</v>
+        <v>0.343089509778352</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1180806803733816</v>
+        <v>0.1030305583613682</v>
       </c>
       <c r="E9">
-        <v>0.1029304327905258</v>
+        <v>0.03978748542284549</v>
       </c>
       <c r="F9">
-        <v>2.371879878529853</v>
+        <v>3.485395929650167</v>
       </c>
       <c r="G9">
-        <v>1.95069064692953</v>
+        <v>3.864768387781311</v>
       </c>
       <c r="H9">
-        <v>1.470909624759202</v>
+        <v>1.91431392776812</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1210223732031794</v>
+        <v>0.02660023344524731</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.443712307399011</v>
+        <v>3.843280082185657</v>
       </c>
       <c r="N9">
-        <v>1.538196776770633</v>
+        <v>2.115715588284957</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1814058279748423</v>
+        <v>0.4064378722897146</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1215634100430734</v>
+        <v>0.1168175366863267</v>
       </c>
       <c r="E10">
-        <v>0.1021044401319173</v>
+        <v>0.0391033045990401</v>
       </c>
       <c r="F10">
-        <v>2.491258968324189</v>
+        <v>4.204849690944542</v>
       </c>
       <c r="G10">
-        <v>2.106313795450774</v>
+        <v>4.706974247837252</v>
       </c>
       <c r="H10">
-        <v>1.531951058271147</v>
+        <v>2.29751892232423</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1179286587131241</v>
+        <v>0.02202632417061556</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.646593425051563</v>
+        <v>4.614459636052686</v>
       </c>
       <c r="N10">
-        <v>1.608180019640741</v>
+        <v>2.34675432336158</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1896927262001356</v>
+        <v>0.4355218927343003</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1231340313962477</v>
+        <v>0.1233904624791791</v>
       </c>
       <c r="E11">
-        <v>0.1017539269845367</v>
+        <v>0.03883030888643368</v>
       </c>
       <c r="F11">
-        <v>2.547532837944487</v>
+        <v>4.552634124016521</v>
       </c>
       <c r="G11">
-        <v>2.178815780071091</v>
+        <v>5.112787304647895</v>
       </c>
       <c r="H11">
-        <v>1.560865031734465</v>
+        <v>2.482915193970825</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1165917047033771</v>
+        <v>0.02011169953681469</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.739096157013819</v>
+        <v>4.973910111796471</v>
       </c>
       <c r="N11">
-        <v>1.640602413352838</v>
+        <v>2.453904060362078</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1928401076212367</v>
+        <v>0.4465788477752852</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1237268868753958</v>
+        <v>0.1259345884971808</v>
       </c>
       <c r="E12">
-        <v>0.1016248071457744</v>
+        <v>0.0387328231252404</v>
       </c>
       <c r="F12">
-        <v>2.569130019111299</v>
+        <v>4.687889727064032</v>
       </c>
       <c r="G12">
-        <v>2.206521643586882</v>
+        <v>5.270417139339202</v>
       </c>
       <c r="H12">
-        <v>1.571981223268835</v>
+        <v>2.555041376511213</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1160955738491523</v>
+        <v>0.01941271818806545</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.774155401764489</v>
+        <v>5.111566636569421</v>
       </c>
       <c r="N12">
-        <v>1.652963051266852</v>
+        <v>2.494801224919797</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.192161851909006</v>
+        <v>0.4441955137967852</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1235992885245594</v>
+        <v>0.1253839970485942</v>
       </c>
       <c r="E13">
-        <v>0.1016524550426094</v>
+        <v>0.03875354873296022</v>
       </c>
       <c r="F13">
-        <v>2.564465820511117</v>
+        <v>4.658590793170106</v>
       </c>
       <c r="G13">
-        <v>2.200543444410016</v>
+        <v>5.236280165981782</v>
       </c>
       <c r="H13">
-        <v>1.569579683439201</v>
+        <v>2.539416353146635</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1162019729612407</v>
+        <v>0.01956205998835969</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.766603408732152</v>
+        <v>5.081845913942402</v>
       </c>
       <c r="N13">
-        <v>1.650297297859794</v>
+        <v>2.485978505484695</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1899514777369689</v>
+        <v>0.4364306525628194</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1231828437763767</v>
+        <v>0.1235985875180674</v>
       </c>
       <c r="E14">
-        <v>0.1017432319267391</v>
+        <v>0.03882216788338333</v>
       </c>
       <c r="F14">
-        <v>2.549303863081803</v>
+        <v>4.563686470054733</v>
       </c>
       <c r="G14">
-        <v>2.181090098351547</v>
+        <v>5.125671820716093</v>
       </c>
       <c r="H14">
-        <v>1.561776205193269</v>
+        <v>2.488808450964484</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1165506842771746</v>
+        <v>0.02005365837699502</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.741979890738946</v>
+        <v>4.985202395936952</v>
       </c>
       <c r="N14">
-        <v>1.641617675234613</v>
+        <v>2.457262076474763</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1885987662387834</v>
+        <v>0.4316802733057017</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1229275132079124</v>
+        <v>0.1225125452399496</v>
       </c>
       <c r="E15">
-        <v>0.1017993052622961</v>
+        <v>0.03886498021190832</v>
       </c>
       <c r="F15">
-        <v>2.540054301775484</v>
+        <v>4.50603821569004</v>
       </c>
       <c r="G15">
-        <v>2.169207200144172</v>
+        <v>5.058459338924536</v>
       </c>
       <c r="H15">
-        <v>1.557018179973909</v>
+        <v>2.458070628349674</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1167656018242571</v>
+        <v>0.02035823820030691</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.726901246966349</v>
+        <v>4.926215955861778</v>
       </c>
       <c r="N15">
-        <v>1.636311921764928</v>
+        <v>2.439715214978492</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1808655744775649</v>
+        <v>0.4045429540495178</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.121460496197642</v>
+        <v>0.1163949890006961</v>
       </c>
       <c r="E16">
-        <v>0.1021278533403533</v>
+        <v>0.03912194582549056</v>
       </c>
       <c r="F16">
-        <v>2.487621319639999</v>
+        <v>4.182583121219977</v>
       </c>
       <c r="G16">
-        <v>2.101610444591188</v>
+        <v>4.680966307709411</v>
       </c>
       <c r="H16">
-        <v>1.530084717787418</v>
+        <v>2.285652299528351</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1180174501690647</v>
+        <v>0.02215496910095549</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.640552410229361</v>
+        <v>4.59116667485867</v>
       </c>
       <c r="N16">
-        <v>1.606072826605953</v>
+        <v>2.339795326571334</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761383268766821</v>
+        <v>0.3879668495390689</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1205570675008971</v>
+        <v>0.1127267882504128</v>
       </c>
       <c r="E17">
-        <v>0.1023358582270593</v>
+        <v>0.03928962289714732</v>
       </c>
       <c r="F17">
-        <v>2.455962561668969</v>
+        <v>3.989802516309055</v>
       </c>
       <c r="G17">
-        <v>2.060583280324323</v>
+        <v>4.455651065488297</v>
       </c>
       <c r="H17">
-        <v>1.513857041121952</v>
+        <v>2.182929790603737</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1188034634424162</v>
+        <v>0.02330118409578752</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.5876343265939</v>
+        <v>4.388031271117413</v>
       </c>
       <c r="N17">
-        <v>1.587671390390909</v>
+        <v>2.27904095098512</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1734255869915842</v>
+        <v>0.3784574634948683</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1200361467608175</v>
+        <v>0.1106444402382607</v>
       </c>
       <c r="E18">
-        <v>0.1024578733885004</v>
+        <v>0.03938963620798663</v>
       </c>
       <c r="F18">
-        <v>2.437938216636326</v>
+        <v>3.880807304082481</v>
       </c>
       <c r="G18">
-        <v>2.03714600530455</v>
+        <v>4.328142723761488</v>
       </c>
       <c r="H18">
-        <v>1.504631028758013</v>
+        <v>2.124865929274819</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1192621817798161</v>
+        <v>0.02397594154265548</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.557217103894558</v>
+        <v>4.271985159241893</v>
       </c>
       <c r="N18">
-        <v>1.577142671766069</v>
+        <v>2.244287706000193</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1725081794553063</v>
+        <v>0.3752418514965541</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1198595480454259</v>
+        <v>0.1099437993788257</v>
       </c>
       <c r="E19">
-        <v>0.1024995942638274</v>
+        <v>0.03942410209467262</v>
       </c>
       <c r="F19">
-        <v>2.431867109206451</v>
+        <v>3.844210805367055</v>
       </c>
       <c r="G19">
-        <v>2.029237946925718</v>
+        <v>4.285310010083975</v>
       </c>
       <c r="H19">
-        <v>1.501525690367259</v>
+        <v>2.105372597223834</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1194186329818705</v>
+        <v>0.02420700139622545</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.546921763169635</v>
+        <v>4.232821811381555</v>
       </c>
       <c r="N19">
-        <v>1.573587368961626</v>
+        <v>2.232552889516285</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.176640905362845</v>
+        <v>0.3897288069640439</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1206533723332655</v>
+        <v>0.1131143508698429</v>
       </c>
       <c r="E20">
-        <v>0.1023134699411692</v>
+        <v>0.03927140146005037</v>
       </c>
       <c r="F20">
-        <v>2.459313517861744</v>
+        <v>4.010124992227304</v>
       </c>
       <c r="G20">
-        <v>2.064934046472644</v>
+        <v>4.479415653247543</v>
       </c>
       <c r="H20">
-        <v>1.515573339977749</v>
+        <v>2.193757096257912</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1187191052382173</v>
+        <v>0.02317755023665491</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.593265490904329</v>
+        <v>4.409571438157073</v>
       </c>
       <c r="N20">
-        <v>1.589624541345501</v>
+        <v>2.285488395963398</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1906004671568269</v>
+        <v>0.438710157191025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1233052148729499</v>
+        <v>0.124121402383139</v>
       </c>
       <c r="E21">
-        <v>0.1017164706645088</v>
+        <v>0.03880184910129891</v>
       </c>
       <c r="F21">
-        <v>2.553749458615073</v>
+        <v>4.591460170295818</v>
       </c>
       <c r="G21">
-        <v>2.1867971646613</v>
+        <v>5.158046544856575</v>
       </c>
       <c r="H21">
-        <v>1.56406372224842</v>
+        <v>2.503618149567785</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.116447983808587</v>
+        <v>0.01990853828604644</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.749211586827045</v>
+        <v>5.013544449127636</v>
       </c>
       <c r="N21">
-        <v>1.644164849601196</v>
+        <v>2.465687819270528</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1997780320469218</v>
+        <v>0.4709784550751976</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1250272755548139</v>
+        <v>0.1316439522844988</v>
       </c>
       <c r="E22">
-        <v>0.1013473421198157</v>
+        <v>0.03852959639378195</v>
       </c>
       <c r="F22">
-        <v>2.617146671080548</v>
+        <v>4.992507091867452</v>
       </c>
       <c r="G22">
-        <v>2.267906926976821</v>
+        <v>5.625067353343468</v>
       </c>
       <c r="H22">
-        <v>1.596730069809041</v>
+        <v>2.717528603264611</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1150228159002671</v>
+        <v>0.01792511490589632</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.85130905254502</v>
+        <v>5.417440590743638</v>
       </c>
       <c r="N22">
-        <v>1.680293146946696</v>
+        <v>2.585349737696049</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1948749053101579</v>
+        <v>0.4537309756381376</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1241091709877722</v>
+        <v>0.1275942800525129</v>
       </c>
       <c r="E23">
-        <v>0.1015424329279995</v>
+        <v>0.03867156853240772</v>
       </c>
       <c r="F23">
-        <v>2.583155340605742</v>
+        <v>4.776294540259983</v>
       </c>
       <c r="G23">
-        <v>2.224481282848899</v>
+        <v>5.373391817224842</v>
       </c>
       <c r="H23">
-        <v>1.579205427962279</v>
+        <v>2.602191074979658</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1157780359230869</v>
+        <v>0.01896889646747191</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.796801405984155</v>
+        <v>5.200919564692157</v>
       </c>
       <c r="N23">
-        <v>1.66096704545285</v>
+        <v>2.521301035949449</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1764136739845128</v>
+        <v>0.3889321627360118</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1206098376821387</v>
+        <v>0.1129390519668334</v>
       </c>
       <c r="E24">
-        <v>0.1023235841138499</v>
+        <v>0.03927962814422692</v>
       </c>
       <c r="F24">
-        <v>2.457798000538105</v>
+        <v>4.000931523624502</v>
       </c>
       <c r="G24">
-        <v>2.062966598939255</v>
+        <v>4.468665415709836</v>
       </c>
       <c r="H24">
-        <v>1.51479707907589</v>
+        <v>2.188859003300365</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1187572223139339</v>
+        <v>0.02323339610264208</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.590719622562617</v>
+        <v>4.39983084810153</v>
       </c>
       <c r="N24">
-        <v>1.588741364359691</v>
+        <v>2.282572962227647</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567399045443665</v>
+        <v>0.3199655561239467</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1167855665534461</v>
+        <v>0.09815506505801608</v>
       </c>
       <c r="E25">
-        <v>0.103257100983325</v>
+        <v>0.04007132900807608</v>
       </c>
       <c r="F25">
-        <v>2.329632003430135</v>
+        <v>3.235162828785207</v>
       </c>
       <c r="G25">
-        <v>1.894860365773866</v>
+        <v>3.570789503623871</v>
       </c>
       <c r="H25">
-        <v>1.449431212419285</v>
+        <v>1.781149747627524</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.122223937791988</v>
+        <v>0.02841908595527576</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.369185445620488</v>
+        <v>3.565253837952255</v>
       </c>
       <c r="N25">
-        <v>1.512954008150672</v>
+        <v>2.032284638187321</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2698059074079424</v>
+        <v>0.6717770664702698</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08782025007914029</v>
+        <v>0.1142209088488428</v>
       </c>
       <c r="E2">
-        <v>0.04076139204013085</v>
+        <v>0.09604947003246789</v>
       </c>
       <c r="F2">
-        <v>2.714267343466616</v>
+        <v>0.5785314735621157</v>
       </c>
       <c r="G2">
-        <v>2.95655792494594</v>
+        <v>0.3326940229286208</v>
       </c>
       <c r="H2">
-        <v>1.504198974817399</v>
+        <v>0.007914148014847661</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01863301821116625</v>
       </c>
       <c r="J2">
-        <v>0.03267523629911029</v>
+        <v>0.301388787139075</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4379904851060719</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1363339309409666</v>
       </c>
       <c r="M2">
-        <v>2.967440052028991</v>
+        <v>1.051217227062608</v>
       </c>
       <c r="N2">
-        <v>1.853293211829026</v>
+        <v>0.2058720833410632</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1902291983681224</v>
+      </c>
+      <c r="P2">
+        <v>1.020493719123213</v>
+      </c>
+      <c r="Q2">
+        <v>1.284141948750033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2361199687379809</v>
+        <v>0.5915912099925436</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08103616376947542</v>
+        <v>0.1087376153891668</v>
       </c>
       <c r="E3">
-        <v>0.04129276183973118</v>
+        <v>0.09445775172109094</v>
       </c>
       <c r="F3">
-        <v>2.3810665848914</v>
+        <v>0.5638786342347473</v>
       </c>
       <c r="G3">
-        <v>2.561608084285382</v>
+        <v>0.3216234646308465</v>
       </c>
       <c r="H3">
-        <v>1.32726694305191</v>
+        <v>0.009812921106386256</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02094265812042329</v>
       </c>
       <c r="J3">
-        <v>0.03580531749491489</v>
+        <v>0.3000313383597302</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4442345698744603</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1332076432349831</v>
       </c>
       <c r="M3">
-        <v>2.569319513553239</v>
+        <v>0.9243067253234472</v>
       </c>
       <c r="N3">
-        <v>1.734899116484655</v>
+        <v>0.1803764735191038</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.167150261717218</v>
+      </c>
+      <c r="P3">
+        <v>1.044782756702535</v>
+      </c>
+      <c r="Q3">
+        <v>1.257571936705503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155650231562731</v>
+        <v>0.5418870643491118</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07694661340608633</v>
+        <v>0.1053769206966635</v>
       </c>
       <c r="E4">
-        <v>0.04164972053508365</v>
+        <v>0.09345093988978537</v>
       </c>
       <c r="F4">
-        <v>2.184345234462398</v>
+        <v>0.5553146065884107</v>
       </c>
       <c r="G4">
-        <v>2.327458936099106</v>
+        <v>0.3151683462267414</v>
       </c>
       <c r="H4">
-        <v>1.222915054710569</v>
+        <v>0.01113081168898683</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02252114162519359</v>
       </c>
       <c r="J4">
-        <v>0.03784038989777838</v>
+        <v>0.2994405265246058</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4482342364765142</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1312395651045719</v>
       </c>
       <c r="M4">
-        <v>2.327421092993418</v>
+        <v>0.8463901964179286</v>
       </c>
       <c r="N4">
-        <v>1.663526815785985</v>
+        <v>0.1648865162404007</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.152957146889694</v>
+      </c>
+      <c r="P4">
+        <v>1.060310380612172</v>
+      </c>
+      <c r="Q4">
+        <v>1.242484260465446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2072178869386789</v>
+        <v>0.5205177768721114</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07529502275373545</v>
+        <v>0.1039549612857016</v>
       </c>
       <c r="E5">
-        <v>0.04180281639232675</v>
+        <v>0.09299147943440556</v>
       </c>
       <c r="F5">
-        <v>2.105907819769769</v>
+        <v>0.551629345944356</v>
       </c>
       <c r="G5">
-        <v>2.233858491877697</v>
+        <v>0.3124089008515725</v>
       </c>
       <c r="H5">
-        <v>1.18133475194449</v>
+        <v>0.01170855749949863</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02329900606991497</v>
       </c>
       <c r="J5">
-        <v>0.03869706582030719</v>
+        <v>0.2991483389354883</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4496065541153573</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1304218980030942</v>
       </c>
       <c r="M5">
-        <v>2.229368775628274</v>
+        <v>0.8151790034713997</v>
       </c>
       <c r="N5">
-        <v>1.634759712930958</v>
+        <v>0.1590046613029799</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1471367364687133</v>
+      </c>
+      <c r="P5">
+        <v>1.066832728817317</v>
+      </c>
+      <c r="Q5">
+        <v>1.235952971185796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2058335260309576</v>
+        <v>0.5157412276949742</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07502156801621851</v>
+        <v>0.1036529944551816</v>
       </c>
       <c r="E6">
-        <v>0.04182869660282851</v>
+        <v>0.09286402551636996</v>
       </c>
       <c r="F6">
-        <v>2.092980928641083</v>
+        <v>0.5506555686685886</v>
       </c>
       <c r="G6">
-        <v>2.218418273716907</v>
+        <v>0.3116968329979954</v>
       </c>
       <c r="H6">
-        <v>1.174483753443241</v>
+        <v>0.01181112228386666</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02355400697897458</v>
       </c>
       <c r="J6">
-        <v>0.03884093871072136</v>
+        <v>0.298967602497143</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4494724184582246</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1302823151200947</v>
       </c>
       <c r="M6">
-        <v>2.213115679223776</v>
+        <v>0.8106630005979127</v>
       </c>
       <c r="N6">
-        <v>1.630001737358228</v>
+        <v>0.1585104093996534</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1461325068733821</v>
+      </c>
+      <c r="P6">
+        <v>1.067979867532053</v>
+      </c>
+      <c r="Q6">
+        <v>1.234053201907471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2154523366125574</v>
+        <v>0.5382536650441239</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07692428410965846</v>
+        <v>0.1051777285456623</v>
       </c>
       <c r="E7">
-        <v>0.04165175443819535</v>
+        <v>0.09330695293294156</v>
       </c>
       <c r="F7">
-        <v>2.183280713378551</v>
+        <v>0.5542606300797104</v>
       </c>
       <c r="G7">
-        <v>2.326189601451802</v>
+        <v>0.3144249947078777</v>
       </c>
       <c r="H7">
-        <v>1.222350632264124</v>
+        <v>0.01114989404683038</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02285187833072655</v>
       </c>
       <c r="J7">
-        <v>0.03785183390420555</v>
+        <v>0.299066593650295</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4472604743966233</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1312218200693742</v>
       </c>
       <c r="M7">
-        <v>2.326096752325938</v>
+        <v>0.8477961111804007</v>
       </c>
       <c r="N7">
-        <v>1.663137584865225</v>
+        <v>0.1661197165424326</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1527762551853336</v>
+      </c>
+      <c r="P7">
+        <v>1.060563298792864</v>
+      </c>
+      <c r="Q7">
+        <v>1.240124210506707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2581624162292542</v>
+        <v>0.6397657755171338</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08546266433067018</v>
+        <v>0.1120912147082649</v>
       </c>
       <c r="E8">
-        <v>0.04093817982463044</v>
+        <v>0.09532769883329362</v>
       </c>
       <c r="F8">
-        <v>2.597588109632369</v>
+        <v>0.5720664480826088</v>
       </c>
       <c r="G8">
-        <v>2.81846540178708</v>
+        <v>0.3278743002638009</v>
       </c>
       <c r="H8">
-        <v>1.442218223288563</v>
+        <v>0.008548914092794069</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0197835682678722</v>
       </c>
       <c r="J8">
-        <v>0.03373030962295465</v>
+        <v>0.3003849709290805</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4388153142358995</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1352644841639483</v>
       </c>
       <c r="M8">
-        <v>2.829563549995456</v>
+        <v>1.009893520383855</v>
       </c>
       <c r="N8">
-        <v>1.812187179661862</v>
+        <v>0.1987922028451976</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1821390262895974</v>
+      </c>
+      <c r="P8">
+        <v>1.029027076630538</v>
+      </c>
+      <c r="Q8">
+        <v>1.271734571676305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.343089509778352</v>
+        <v>0.8410560161079843</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1030305583613682</v>
+        <v>0.1260223806461411</v>
       </c>
       <c r="E9">
-        <v>0.03978748542284549</v>
+        <v>0.09930533065093616</v>
       </c>
       <c r="F9">
-        <v>3.485395929650167</v>
+        <v>0.612354590323541</v>
       </c>
       <c r="G9">
-        <v>3.864768387781311</v>
+        <v>0.3583815101894814</v>
       </c>
       <c r="H9">
-        <v>1.91431392776812</v>
+        <v>0.004693535819005279</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01458242899768436</v>
       </c>
       <c r="J9">
-        <v>0.02660023344524731</v>
+        <v>0.3056168231978376</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.42532897237108</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1428347496996718</v>
       </c>
       <c r="M9">
-        <v>3.843280082185657</v>
+        <v>1.32480018808414</v>
       </c>
       <c r="N9">
-        <v>2.115715588284957</v>
+        <v>0.2619180095804694</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2397485811229636</v>
+      </c>
+      <c r="P9">
+        <v>0.9717825517665162</v>
+      </c>
+      <c r="Q9">
+        <v>1.347969258989849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4064378722897146</v>
+        <v>0.977325755923232</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1168175366863267</v>
+        <v>0.1342095912998786</v>
       </c>
       <c r="E10">
-        <v>0.0391033045990401</v>
+        <v>0.1009748736546623</v>
       </c>
       <c r="F10">
-        <v>4.204849690944542</v>
+        <v>0.6374186511600826</v>
       </c>
       <c r="G10">
-        <v>4.706974247837252</v>
+        <v>0.3784672946570993</v>
       </c>
       <c r="H10">
-        <v>2.29751892232423</v>
+        <v>0.003000706476075976</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01184053206089342</v>
       </c>
       <c r="J10">
-        <v>0.02202632417061556</v>
+        <v>0.3085924363255259</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4129004333999369</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1486962405122885</v>
       </c>
       <c r="M10">
-        <v>4.614459636052686</v>
+        <v>1.559662212077967</v>
       </c>
       <c r="N10">
-        <v>2.34675432336158</v>
+        <v>0.3024898534483924</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2779447481600812</v>
+      </c>
+      <c r="P10">
+        <v>0.9347691138285867</v>
+      </c>
+      <c r="Q10">
+        <v>1.397189486897247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4355218927343003</v>
+        <v>0.9682589092044509</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1233904624791791</v>
+        <v>0.1209901850717969</v>
       </c>
       <c r="E11">
-        <v>0.03883030888643368</v>
+        <v>0.09511036674669548</v>
       </c>
       <c r="F11">
-        <v>4.552634124016521</v>
+        <v>0.592612979321764</v>
       </c>
       <c r="G11">
-        <v>5.112787304647895</v>
+        <v>0.3528920740827388</v>
       </c>
       <c r="H11">
-        <v>2.482915193970825</v>
+        <v>0.02159616305362988</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01181697146523675</v>
       </c>
       <c r="J11">
-        <v>0.02011169953681469</v>
+        <v>0.2924258276891365</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3826390286705621</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1613664980221579</v>
       </c>
       <c r="M11">
-        <v>4.973910111796471</v>
+        <v>1.687109339735628</v>
       </c>
       <c r="N11">
-        <v>2.453904060362078</v>
+        <v>0.2604387294820611</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2607023151110823</v>
+      </c>
+      <c r="P11">
+        <v>0.9376823029636441</v>
+      </c>
+      <c r="Q11">
+        <v>1.309281618853731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4465788477752852</v>
+        <v>0.9369557910389688</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1259345884971808</v>
+        <v>0.1092133799249524</v>
       </c>
       <c r="E12">
-        <v>0.0387328231252404</v>
+        <v>0.09361745875946825</v>
       </c>
       <c r="F12">
-        <v>4.687889727064032</v>
+        <v>0.5517132888099425</v>
       </c>
       <c r="G12">
-        <v>5.270417139339202</v>
+        <v>0.328379322902606</v>
       </c>
       <c r="H12">
-        <v>2.555041376511213</v>
+        <v>0.06042060181155051</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01178288174776565</v>
       </c>
       <c r="J12">
-        <v>0.01941271818806545</v>
+        <v>0.2787047432559646</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3630043186509671</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.178400383423277</v>
       </c>
       <c r="M12">
-        <v>5.111566636569421</v>
+        <v>1.74271021849998</v>
       </c>
       <c r="N12">
-        <v>2.494801224919797</v>
+        <v>0.217532730563363</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2387871618624082</v>
+      </c>
+      <c r="P12">
+        <v>0.952098913799837</v>
+      </c>
+      <c r="Q12">
+        <v>1.228640875054012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4441955137967852</v>
+        <v>0.8816750636237884</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1253839970485942</v>
+        <v>0.09761721256187172</v>
       </c>
       <c r="E13">
-        <v>0.03875354873296022</v>
+        <v>0.0950802355493412</v>
       </c>
       <c r="F13">
-        <v>4.658590793170106</v>
+        <v>0.5098296902357546</v>
       </c>
       <c r="G13">
-        <v>5.236280165981782</v>
+        <v>0.3020802397152522</v>
       </c>
       <c r="H13">
-        <v>2.539416353146635</v>
+        <v>0.1164562390298585</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0121889695572488</v>
       </c>
       <c r="J13">
-        <v>0.01956205998835969</v>
+        <v>0.265431956167177</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3487624790573918</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1994176470346218</v>
       </c>
       <c r="M13">
-        <v>5.081845913942402</v>
+        <v>1.748605621313772</v>
       </c>
       <c r="N13">
-        <v>2.485978505484695</v>
+        <v>0.1737914238012763</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2119904111156927</v>
+      </c>
+      <c r="P13">
+        <v>0.9757431074965623</v>
+      </c>
+      <c r="Q13">
+        <v>1.14507309586044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4364306525628194</v>
+        <v>0.8314833262491845</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1235985875180674</v>
+        <v>0.08971977703298251</v>
       </c>
       <c r="E14">
-        <v>0.03882216788338333</v>
+        <v>0.09787735285198629</v>
       </c>
       <c r="F14">
-        <v>4.563686470054733</v>
+        <v>0.4801560736394279</v>
       </c>
       <c r="G14">
-        <v>5.125671820716093</v>
+        <v>0.2828769181028647</v>
       </c>
       <c r="H14">
-        <v>2.488808450964484</v>
+        <v>0.1660549491231507</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01277682142519332</v>
       </c>
       <c r="J14">
-        <v>0.02005365837699502</v>
+        <v>0.2563266873346848</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3413212771381477</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2168089978537679</v>
       </c>
       <c r="M14">
-        <v>4.985202395936952</v>
+        <v>1.730763634481065</v>
       </c>
       <c r="N14">
-        <v>2.457262076474763</v>
+        <v>0.1438154475315656</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1912532093325225</v>
+      </c>
+      <c r="P14">
+        <v>0.9969475873889451</v>
+      </c>
+      <c r="Q14">
+        <v>1.08524505587566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4316802733057017</v>
+        <v>0.813051059781003</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1225125452399496</v>
+        <v>0.08769748983182524</v>
       </c>
       <c r="E15">
-        <v>0.03886498021190832</v>
+        <v>0.09873508407114961</v>
       </c>
       <c r="F15">
-        <v>4.50603821569004</v>
+        <v>0.4723627772970431</v>
       </c>
       <c r="G15">
-        <v>5.058459338924536</v>
+        <v>0.277587211470042</v>
       </c>
       <c r="H15">
-        <v>2.458070628349674</v>
+        <v>0.1786888217168752</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01316325546864938</v>
       </c>
       <c r="J15">
-        <v>0.02035823820030691</v>
+        <v>0.2540955355440815</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3402244617720305</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2210104903887213</v>
       </c>
       <c r="M15">
-        <v>4.926215955861778</v>
+        <v>1.716484431697211</v>
       </c>
       <c r="N15">
-        <v>2.439715214978492</v>
+        <v>0.1363301929108189</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1851071353578497</v>
+      </c>
+      <c r="P15">
+        <v>1.003717273988187</v>
+      </c>
+      <c r="Q15">
+        <v>1.069328880446903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4045429540495178</v>
+        <v>0.7652233654046938</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1163949890006961</v>
+        <v>0.08666606578868397</v>
       </c>
       <c r="E16">
-        <v>0.03912194582549056</v>
+        <v>0.0975079632044924</v>
       </c>
       <c r="F16">
-        <v>4.182583121219977</v>
+        <v>0.4696645933519648</v>
       </c>
       <c r="G16">
-        <v>4.680966307709411</v>
+        <v>0.2738483473500466</v>
       </c>
       <c r="H16">
-        <v>2.285652299528351</v>
+        <v>0.166669814211474</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0144342304813776</v>
       </c>
       <c r="J16">
-        <v>0.02215496910095549</v>
+        <v>0.255174221204804</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3476422945896971</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2134648140005169</v>
       </c>
       <c r="M16">
-        <v>4.59116667485867</v>
+        <v>1.614467697022036</v>
       </c>
       <c r="N16">
-        <v>2.339795326571334</v>
+        <v>0.1295209762658445</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1747822818602529</v>
+      </c>
+      <c r="P16">
+        <v>1.012382583532201</v>
+      </c>
+      <c r="Q16">
+        <v>1.063490815786182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3879668495390689</v>
+        <v>0.7548385747222142</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1127267882504128</v>
+        <v>0.08994812314420386</v>
       </c>
       <c r="E17">
-        <v>0.03928962289714732</v>
+        <v>0.09478576981636966</v>
       </c>
       <c r="F17">
-        <v>3.989802516309055</v>
+        <v>0.4832655902090224</v>
       </c>
       <c r="G17">
-        <v>4.455651065488297</v>
+        <v>0.2811654920363651</v>
       </c>
       <c r="H17">
-        <v>2.182929790603737</v>
+        <v>0.12932021986569</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0151264631359469</v>
       </c>
       <c r="J17">
-        <v>0.02330118409578752</v>
+        <v>0.2608614538311187</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3571542168884729</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1979214807389837</v>
       </c>
       <c r="M17">
-        <v>4.388031271117413</v>
+        <v>1.546017774656093</v>
       </c>
       <c r="N17">
-        <v>2.27904095098512</v>
+        <v>0.1398289929388454</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1777014625333884</v>
+      </c>
+      <c r="P17">
+        <v>1.007932590073196</v>
+      </c>
+      <c r="Q17">
+        <v>1.090808247454888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3784574634948683</v>
+        <v>0.7782615873251189</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1106444402382607</v>
+        <v>0.09788982719499728</v>
       </c>
       <c r="E18">
-        <v>0.03938963620798663</v>
+        <v>0.09218038757927305</v>
       </c>
       <c r="F18">
-        <v>3.880807304082481</v>
+        <v>0.5136216830463312</v>
       </c>
       <c r="G18">
-        <v>4.328142723761488</v>
+        <v>0.2995200620381127</v>
       </c>
       <c r="H18">
-        <v>2.124865929274819</v>
+        <v>0.07659644562188817</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01500567363090433</v>
       </c>
       <c r="J18">
-        <v>0.02397594154265548</v>
+        <v>0.271459666864331</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3709978539393379</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1769946831704878</v>
       </c>
       <c r="M18">
-        <v>4.271985159241893</v>
+        <v>1.49705941287354</v>
       </c>
       <c r="N18">
-        <v>2.244287706000193</v>
+        <v>0.1670088893721058</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1928213538966972</v>
+      </c>
+      <c r="P18">
+        <v>0.9930771106573886</v>
+      </c>
+      <c r="Q18">
+        <v>1.151857215604636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3752418514965541</v>
+        <v>0.8216097174991432</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1099437993788257</v>
+        <v>0.1095019378288313</v>
       </c>
       <c r="E19">
-        <v>0.03942410209467262</v>
+        <v>0.09246452192559484</v>
       </c>
       <c r="F19">
-        <v>3.844210805367055</v>
+        <v>0.5547073195651819</v>
       </c>
       <c r="G19">
-        <v>4.285310010083975</v>
+        <v>0.3248041939690509</v>
       </c>
       <c r="H19">
-        <v>2.105372597223834</v>
+        <v>0.03101629136302364</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01484093087501126</v>
       </c>
       <c r="J19">
-        <v>0.02420700139622545</v>
+        <v>0.284819311181451</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3876307470385445</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1590100193348327</v>
       </c>
       <c r="M19">
-        <v>4.232821811381555</v>
+        <v>1.471196715729917</v>
       </c>
       <c r="N19">
-        <v>2.232552889516285</v>
+        <v>0.2106651790962815</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2172399612948652</v>
+      </c>
+      <c r="P19">
+        <v>0.9753381028268464</v>
+      </c>
+      <c r="Q19">
+        <v>1.23342455089832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3897288069640439</v>
+        <v>0.9307996547538835</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1131143508698429</v>
+        <v>0.1314209982857761</v>
       </c>
       <c r="E20">
-        <v>0.03927140146005037</v>
+        <v>0.1001084050343977</v>
       </c>
       <c r="F20">
-        <v>4.010124992227304</v>
+        <v>0.6273363407065631</v>
       </c>
       <c r="G20">
-        <v>4.479415653247543</v>
+        <v>0.3707259852558522</v>
       </c>
       <c r="H20">
-        <v>2.193757096257912</v>
+        <v>0.003391987856694811</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01345474920274725</v>
       </c>
       <c r="J20">
-        <v>0.02317755023665491</v>
+        <v>0.3065192588185681</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.413082559501305</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1472469957312637</v>
       </c>
       <c r="M20">
-        <v>4.409571438157073</v>
+        <v>1.503883809640172</v>
       </c>
       <c r="N20">
-        <v>2.285488395963398</v>
+        <v>0.2956071795091475</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2674278407024175</v>
+      </c>
+      <c r="P20">
+        <v>0.9453748658690451</v>
+      </c>
+      <c r="Q20">
+        <v>1.376332000406336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.438710157191025</v>
+        <v>1.048330477634494</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.124121402383139</v>
+        <v>0.1409258014242454</v>
       </c>
       <c r="E21">
-        <v>0.03880184910129891</v>
+        <v>0.103081773716883</v>
       </c>
       <c r="F21">
-        <v>4.591460170295818</v>
+        <v>0.6580549351192531</v>
       </c>
       <c r="G21">
-        <v>5.158046544856575</v>
+        <v>0.3934597294678355</v>
       </c>
       <c r="H21">
-        <v>2.503618149567785</v>
+        <v>0.001944456642832937</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01130738949129295</v>
       </c>
       <c r="J21">
-        <v>0.01990853828604644</v>
+        <v>0.3125977283597763</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4089398707084833</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1509650222665861</v>
       </c>
       <c r="M21">
-        <v>5.013544449127636</v>
+        <v>1.680200371678865</v>
       </c>
       <c r="N21">
-        <v>2.465687819270528</v>
+        <v>0.3378565712289543</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.303002201259126</v>
+      </c>
+      <c r="P21">
+        <v>0.9154457891017564</v>
+      </c>
+      <c r="Q21">
+        <v>1.437561162490027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4709784550751976</v>
+        <v>1.125309439744825</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1316439522844988</v>
+        <v>0.1463634648598813</v>
       </c>
       <c r="E22">
-        <v>0.03852959639378195</v>
+        <v>0.1046345591951079</v>
       </c>
       <c r="F22">
-        <v>4.992507091867452</v>
+        <v>0.67662803328178</v>
       </c>
       <c r="G22">
-        <v>5.625067353343468</v>
+        <v>0.4076296399894801</v>
       </c>
       <c r="H22">
-        <v>2.717528603264611</v>
+        <v>0.001308707674135712</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009739983196289437</v>
       </c>
       <c r="J22">
-        <v>0.01792511490589632</v>
+        <v>0.3162810354811398</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4061280381093511</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1536017093697986</v>
       </c>
       <c r="M22">
-        <v>5.417440590743638</v>
+        <v>1.794232504768217</v>
       </c>
       <c r="N22">
-        <v>2.585349737696049</v>
+        <v>0.3601290008728171</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3243505948239473</v>
+      </c>
+      <c r="P22">
+        <v>0.8968826816624791</v>
+      </c>
+      <c r="Q22">
+        <v>1.475506453782913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4537309756381376</v>
+        <v>1.088303157372309</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1275942800525129</v>
+        <v>0.1436707076196271</v>
       </c>
       <c r="E23">
-        <v>0.03867156853240772</v>
+        <v>0.1039570557937814</v>
       </c>
       <c r="F23">
-        <v>4.776294540259983</v>
+        <v>0.6678228543852924</v>
       </c>
       <c r="G23">
-        <v>5.373391817224842</v>
+        <v>0.4008395058711898</v>
       </c>
       <c r="H23">
-        <v>2.602191074979658</v>
+        <v>0.001627225184981484</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01020319578553419</v>
       </c>
       <c r="J23">
-        <v>0.01896889646747191</v>
+        <v>0.3147089716837712</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4087061367339508</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1521748896253037</v>
       </c>
       <c r="M23">
-        <v>5.200919564692157</v>
+        <v>1.731119001509143</v>
       </c>
       <c r="N23">
-        <v>2.521301035949449</v>
+        <v>0.3466302531864471</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3130819596867696</v>
+      </c>
+      <c r="P23">
+        <v>0.9062957764299036</v>
+      </c>
+      <c r="Q23">
+        <v>1.457717272943455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3889321627360118</v>
+        <v>0.9409403764198601</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1129390519668334</v>
+        <v>0.1331681620265428</v>
       </c>
       <c r="E24">
-        <v>0.03927962814422692</v>
+        <v>0.1011245466368518</v>
       </c>
       <c r="F24">
-        <v>4.000931523624502</v>
+        <v>0.633730544602578</v>
       </c>
       <c r="G24">
-        <v>4.468665415709836</v>
+        <v>0.3747598011065634</v>
       </c>
       <c r="H24">
-        <v>2.188859003300365</v>
+        <v>0.003198459990053415</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01284800253905516</v>
       </c>
       <c r="J24">
-        <v>0.02323339610264208</v>
+        <v>0.3086593119658403</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4171168515976511</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1467709439234328</v>
       </c>
       <c r="M24">
-        <v>4.39983084810153</v>
+        <v>1.496066858520948</v>
       </c>
       <c r="N24">
-        <v>2.282572962227647</v>
+        <v>0.2984516936366788</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.270213692707852</v>
+      </c>
+      <c r="P24">
+        <v>0.9439731456032661</v>
+      </c>
+      <c r="Q24">
+        <v>1.389361436767331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3199655561239467</v>
+        <v>0.7808848109374367</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09815506505801608</v>
+        <v>0.121923330173324</v>
       </c>
       <c r="E25">
-        <v>0.04007132900807608</v>
+        <v>0.09801440713184917</v>
       </c>
       <c r="F25">
-        <v>3.235162828785207</v>
+        <v>0.5992575690716961</v>
       </c>
       <c r="G25">
-        <v>3.570789503623871</v>
+        <v>0.3485352176878109</v>
       </c>
       <c r="H25">
-        <v>1.781149747627524</v>
+        <v>0.005606006155706167</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0163790493011291</v>
       </c>
       <c r="J25">
-        <v>0.02841908595527576</v>
+        <v>0.30332418770967</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4271052039788366</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1408342675613623</v>
       </c>
       <c r="M25">
-        <v>3.565253837952255</v>
+        <v>1.242900521866744</v>
       </c>
       <c r="N25">
-        <v>2.032284638187321</v>
+        <v>0.247080832964798</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2239871050144551</v>
+      </c>
+      <c r="P25">
+        <v>0.9872241935797312</v>
+      </c>
+      <c r="Q25">
+        <v>1.322137028623388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6717770664702698</v>
+        <v>0.619574050117933</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1142209088488428</v>
+        <v>0.1082520577186514</v>
       </c>
       <c r="E2">
-        <v>0.09604947003246789</v>
+        <v>0.08723719365160143</v>
       </c>
       <c r="F2">
-        <v>0.5785314735621157</v>
+        <v>0.5582261346506954</v>
       </c>
       <c r="G2">
-        <v>0.3326940229286208</v>
+        <v>0.3036046216005843</v>
       </c>
       <c r="H2">
-        <v>0.007914148014847661</v>
+        <v>0.00631470216025784</v>
       </c>
       <c r="I2">
-        <v>0.01863301821116625</v>
+        <v>0.01322331373632579</v>
       </c>
       <c r="J2">
-        <v>0.301388787139075</v>
+        <v>0.3262502341853519</v>
       </c>
       <c r="K2">
-        <v>0.4379904851060719</v>
+        <v>0.3883782120059944</v>
       </c>
       <c r="L2">
-        <v>0.1363339309409666</v>
+        <v>0.1623522378945452</v>
       </c>
       <c r="M2">
-        <v>1.051217227062608</v>
+        <v>0.1304094063839401</v>
       </c>
       <c r="N2">
-        <v>0.2058720833410632</v>
+        <v>0.1243383878075042</v>
       </c>
       <c r="O2">
-        <v>0.1902291983681224</v>
+        <v>1.063064393998587</v>
       </c>
       <c r="P2">
-        <v>1.020493719123213</v>
+        <v>0.2256498068066719</v>
       </c>
       <c r="Q2">
-        <v>1.284141948750033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1891361242368852</v>
+      </c>
+      <c r="R2">
+        <v>0.9818071938760973</v>
+      </c>
+      <c r="S2">
+        <v>1.243559271411925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5915912099925436</v>
+        <v>0.5477911034984402</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1087376153891668</v>
+        <v>0.1032371683721891</v>
       </c>
       <c r="E3">
-        <v>0.09445775172109094</v>
+        <v>0.08593249014932614</v>
       </c>
       <c r="F3">
-        <v>0.5638786342347473</v>
+        <v>0.5453021242856764</v>
       </c>
       <c r="G3">
-        <v>0.3216234646308465</v>
+        <v>0.2945363600744173</v>
       </c>
       <c r="H3">
-        <v>0.009812921106386256</v>
+        <v>0.007924811197477594</v>
       </c>
       <c r="I3">
-        <v>0.02094265812042329</v>
+        <v>0.01489767319337743</v>
       </c>
       <c r="J3">
-        <v>0.3000313383597302</v>
+        <v>0.32327780017512</v>
       </c>
       <c r="K3">
-        <v>0.4442345698744603</v>
+        <v>0.3951515365706406</v>
       </c>
       <c r="L3">
-        <v>0.1332076432349831</v>
+        <v>0.1673903206985834</v>
       </c>
       <c r="M3">
-        <v>0.9243067253234472</v>
+        <v>0.1322832344295977</v>
       </c>
       <c r="N3">
-        <v>0.1803764735191038</v>
+        <v>0.1210580244622639</v>
       </c>
       <c r="O3">
-        <v>0.167150261717218</v>
+        <v>0.9310308624795312</v>
       </c>
       <c r="P3">
-        <v>1.044782756702535</v>
+        <v>0.1967903480156963</v>
       </c>
       <c r="Q3">
-        <v>1.257571936705503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1662691253367115</v>
+      </c>
+      <c r="R3">
+        <v>1.002635719308511</v>
+      </c>
+      <c r="S3">
+        <v>1.22065442060871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5418870643491118</v>
+        <v>0.5030606396018129</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1053769206966635</v>
+        <v>0.1001570978381068</v>
       </c>
       <c r="E4">
-        <v>0.09345093988978537</v>
+        <v>0.08510267763789869</v>
       </c>
       <c r="F4">
-        <v>0.5553146065884107</v>
+        <v>0.5377318767049744</v>
       </c>
       <c r="G4">
-        <v>0.3151683462267414</v>
+        <v>0.2893424026063443</v>
       </c>
       <c r="H4">
-        <v>0.01113081168898683</v>
+        <v>0.009047529456175853</v>
       </c>
       <c r="I4">
-        <v>0.02252114162519359</v>
+        <v>0.01605871214893817</v>
       </c>
       <c r="J4">
-        <v>0.2994405265246058</v>
+        <v>0.3215609259160672</v>
       </c>
       <c r="K4">
-        <v>0.4482342364765142</v>
+        <v>0.3994221858400682</v>
       </c>
       <c r="L4">
-        <v>0.1312395651045719</v>
+        <v>0.1706543172028852</v>
       </c>
       <c r="M4">
-        <v>0.8463901964179286</v>
+        <v>0.1338490904961773</v>
       </c>
       <c r="N4">
-        <v>0.1648865162404007</v>
+        <v>0.1190115319574527</v>
       </c>
       <c r="O4">
-        <v>0.152957146889694</v>
+        <v>0.8500656203353287</v>
       </c>
       <c r="P4">
-        <v>1.060310380612172</v>
+        <v>0.179328093441228</v>
       </c>
       <c r="Q4">
-        <v>1.242484260465446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1521960348755371</v>
+      </c>
+      <c r="R4">
+        <v>1.016080329936592</v>
+      </c>
+      <c r="S4">
+        <v>1.207645518890118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5205177768721114</v>
+        <v>0.4837205224253722</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1039549612857016</v>
+        <v>0.09885009965388747</v>
       </c>
       <c r="E5">
-        <v>0.09299147943440556</v>
+        <v>0.0847193944224669</v>
       </c>
       <c r="F5">
-        <v>0.551629345944356</v>
+        <v>0.5344469260828575</v>
       </c>
       <c r="G5">
-        <v>0.3124089008515725</v>
+        <v>0.2871153743682484</v>
       </c>
       <c r="H5">
-        <v>0.01170855749949863</v>
+        <v>0.009540858002300714</v>
       </c>
       <c r="I5">
-        <v>0.02329900606991497</v>
+        <v>0.01666971418508822</v>
       </c>
       <c r="J5">
-        <v>0.2991483389354883</v>
+        <v>0.3207768535191278</v>
       </c>
       <c r="K5">
-        <v>0.4496065541153573</v>
+        <v>0.4009177367667025</v>
       </c>
       <c r="L5">
-        <v>0.1304218980030942</v>
+        <v>0.1718739240059275</v>
       </c>
       <c r="M5">
-        <v>0.8151790034713997</v>
+        <v>0.1345406274560119</v>
       </c>
       <c r="N5">
-        <v>0.1590046613029799</v>
+        <v>0.1181714531199454</v>
       </c>
       <c r="O5">
-        <v>0.1471367364687133</v>
+        <v>0.8176270943445445</v>
       </c>
       <c r="P5">
-        <v>1.066832728817317</v>
+        <v>0.1726650621454908</v>
       </c>
       <c r="Q5">
-        <v>1.235952971185796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1464230071579067</v>
+      </c>
+      <c r="R5">
+        <v>1.021781900020432</v>
+      </c>
+      <c r="S5">
+        <v>1.201945875117545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5157412276949742</v>
+        <v>0.479338460671471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1036529944551816</v>
+        <v>0.09856998868917088</v>
       </c>
       <c r="E6">
-        <v>0.09286402551636996</v>
+        <v>0.08460936504565986</v>
       </c>
       <c r="F6">
-        <v>0.5506555686685886</v>
+        <v>0.5335534982994758</v>
       </c>
       <c r="G6">
-        <v>0.3116968329979954</v>
+        <v>0.286505876791864</v>
       </c>
       <c r="H6">
-        <v>0.01181112228386666</v>
+        <v>0.009628542208678023</v>
       </c>
       <c r="I6">
-        <v>0.02355400697897458</v>
+        <v>0.01691035625072423</v>
       </c>
       <c r="J6">
-        <v>0.298967602497143</v>
+        <v>0.3205124395943884</v>
       </c>
       <c r="K6">
-        <v>0.4494724184582246</v>
+        <v>0.4008357121309327</v>
       </c>
       <c r="L6">
-        <v>0.1302823151200947</v>
+        <v>0.171892809312574</v>
       </c>
       <c r="M6">
-        <v>0.8106630005979127</v>
+        <v>0.1345986805162189</v>
       </c>
       <c r="N6">
-        <v>0.1585104093996534</v>
+        <v>0.11803521347559</v>
       </c>
       <c r="O6">
-        <v>0.1461325068733821</v>
+        <v>0.8128967624634242</v>
       </c>
       <c r="P6">
-        <v>1.067979867532053</v>
+        <v>0.1720417102579574</v>
       </c>
       <c r="Q6">
-        <v>1.234053201907471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1454276233509084</v>
+      </c>
+      <c r="R6">
+        <v>1.022815081599695</v>
+      </c>
+      <c r="S6">
+        <v>1.200214734405648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5382536650441239</v>
+        <v>0.4996885762307954</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1051777285456623</v>
+        <v>0.1001091292767953</v>
       </c>
       <c r="E7">
-        <v>0.09330695293294156</v>
+        <v>0.08499070029476563</v>
       </c>
       <c r="F7">
-        <v>0.5542606300797104</v>
+        <v>0.5361077577599218</v>
       </c>
       <c r="G7">
-        <v>0.3144249947078777</v>
+        <v>0.2910273023291339</v>
       </c>
       <c r="H7">
-        <v>0.01114989404683038</v>
+        <v>0.009069173941334586</v>
       </c>
       <c r="I7">
-        <v>0.02285187833072655</v>
+        <v>0.01642750333372334</v>
       </c>
       <c r="J7">
-        <v>0.299066593650295</v>
+        <v>0.3176666842616882</v>
       </c>
       <c r="K7">
-        <v>0.4472604743966233</v>
+        <v>0.3983761011447982</v>
       </c>
       <c r="L7">
-        <v>0.1312218200693742</v>
+        <v>0.1700920335435843</v>
       </c>
       <c r="M7">
-        <v>0.8477961111804007</v>
+        <v>0.1336359264512597</v>
       </c>
       <c r="N7">
-        <v>0.1661197165424326</v>
+        <v>0.1189862334966891</v>
       </c>
       <c r="O7">
-        <v>0.1527762551853336</v>
+        <v>0.85035541762619</v>
       </c>
       <c r="P7">
-        <v>1.060563298792864</v>
+        <v>0.180344640845405</v>
       </c>
       <c r="Q7">
-        <v>1.240124210506707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1519572192113863</v>
+      </c>
+      <c r="R7">
+        <v>1.01649090919426</v>
+      </c>
+      <c r="S7">
+        <v>1.203403349864359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6397657755171338</v>
+        <v>0.5909594093420196</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1120912147082649</v>
+        <v>0.1067708437253856</v>
       </c>
       <c r="E8">
-        <v>0.09532769883329362</v>
+        <v>0.08669319757103988</v>
       </c>
       <c r="F8">
-        <v>0.5720664480826088</v>
+        <v>0.5503867371079139</v>
       </c>
       <c r="G8">
-        <v>0.3278743002638009</v>
+        <v>0.3075142181000885</v>
       </c>
       <c r="H8">
-        <v>0.008548914092794069</v>
+        <v>0.006866035928463216</v>
       </c>
       <c r="I8">
-        <v>0.0197835682678722</v>
+        <v>0.01421965369555878</v>
       </c>
       <c r="J8">
-        <v>0.3003849709290805</v>
+        <v>0.3132846505895657</v>
       </c>
       <c r="K8">
-        <v>0.4388153142358995</v>
+        <v>0.389004099843417</v>
       </c>
       <c r="L8">
-        <v>0.1352644841639483</v>
+        <v>0.1632348153370824</v>
       </c>
       <c r="M8">
-        <v>1.009893520383855</v>
+        <v>0.1305220240217775</v>
       </c>
       <c r="N8">
-        <v>0.1987922028451976</v>
+        <v>0.1231548247613441</v>
       </c>
       <c r="O8">
-        <v>0.1821390262895974</v>
+        <v>1.016329901553462</v>
       </c>
       <c r="P8">
-        <v>1.029027076630538</v>
+        <v>0.2167052706761581</v>
       </c>
       <c r="Q8">
-        <v>1.271734571676305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1809184677680058</v>
+      </c>
+      <c r="R8">
+        <v>0.9896622938010431</v>
+      </c>
+      <c r="S8">
+        <v>1.226004830866131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8410560161079843</v>
+        <v>0.7701129434935012</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1260223806461411</v>
+        <v>0.1196196086387644</v>
       </c>
       <c r="E9">
-        <v>0.09930533065093616</v>
+        <v>0.08996072409677058</v>
       </c>
       <c r="F9">
-        <v>0.612354590323541</v>
+        <v>0.5853688359102875</v>
       </c>
       <c r="G9">
-        <v>0.3583815101894814</v>
+        <v>0.3354236016562027</v>
       </c>
       <c r="H9">
-        <v>0.004693535819005279</v>
+        <v>0.003625667553970147</v>
       </c>
       <c r="I9">
-        <v>0.01458242899768436</v>
+        <v>0.01040531857024174</v>
       </c>
       <c r="J9">
-        <v>0.3056168231978376</v>
+        <v>0.3186191458468528</v>
       </c>
       <c r="K9">
-        <v>0.42532897237108</v>
+        <v>0.3736801489427215</v>
       </c>
       <c r="L9">
-        <v>0.1428347496996718</v>
+        <v>0.152205941864322</v>
       </c>
       <c r="M9">
-        <v>1.32480018808414</v>
+        <v>0.1282528742124835</v>
       </c>
       <c r="N9">
-        <v>0.2619180095804694</v>
+        <v>0.1311561041619367</v>
       </c>
       <c r="O9">
-        <v>0.2397485811229636</v>
+        <v>1.343506543666621</v>
       </c>
       <c r="P9">
-        <v>0.9717825517665162</v>
+        <v>0.2885403623515117</v>
       </c>
       <c r="Q9">
-        <v>1.347969258989849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2378738401999918</v>
+      </c>
+      <c r="R9">
+        <v>0.9414540464120122</v>
+      </c>
+      <c r="S9">
+        <v>1.290197290529804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.977325755923232</v>
+        <v>0.8912503941014904</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1342095912998786</v>
+        <v>0.1279301473982599</v>
       </c>
       <c r="E10">
-        <v>0.1009748736546623</v>
+        <v>0.09141247632651961</v>
       </c>
       <c r="F10">
-        <v>0.6374186511600826</v>
+        <v>0.6031883369487403</v>
       </c>
       <c r="G10">
-        <v>0.3784672946570993</v>
+        <v>0.3686106754010865</v>
       </c>
       <c r="H10">
-        <v>0.003000706476075976</v>
+        <v>0.002280397467405049</v>
       </c>
       <c r="I10">
-        <v>0.01184053206089342</v>
+        <v>0.008552938140098831</v>
       </c>
       <c r="J10">
-        <v>0.3085924363255259</v>
+        <v>0.3024215708850306</v>
       </c>
       <c r="K10">
-        <v>0.4129004333999369</v>
+        <v>0.3595504097857862</v>
       </c>
       <c r="L10">
-        <v>0.1486962405122885</v>
+        <v>0.1437478900728149</v>
       </c>
       <c r="M10">
-        <v>1.559662212077967</v>
+        <v>0.1271660188341812</v>
       </c>
       <c r="N10">
-        <v>0.3024898534483924</v>
+        <v>0.1375630049516943</v>
       </c>
       <c r="O10">
-        <v>0.2779447481600812</v>
+        <v>1.580604682049966</v>
       </c>
       <c r="P10">
-        <v>0.9347691138285867</v>
+        <v>0.3338233396766839</v>
       </c>
       <c r="Q10">
-        <v>1.397189486897247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2752114242669421</v>
+      </c>
+      <c r="R10">
+        <v>0.9127392076525389</v>
+      </c>
+      <c r="S10">
+        <v>1.319429378438883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9682589092044509</v>
+        <v>0.8895514370903186</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1209901850717969</v>
+        <v>0.1168713221269257</v>
       </c>
       <c r="E11">
-        <v>0.09511036674669548</v>
+        <v>0.0868987949630472</v>
       </c>
       <c r="F11">
-        <v>0.592612979321764</v>
+        <v>0.5542393445858877</v>
       </c>
       <c r="G11">
-        <v>0.3528920740827388</v>
+        <v>0.3760308455508152</v>
       </c>
       <c r="H11">
-        <v>0.02159616305362988</v>
+        <v>0.02091466659152985</v>
       </c>
       <c r="I11">
-        <v>0.01181697146523675</v>
+        <v>0.008846464922192432</v>
       </c>
       <c r="J11">
-        <v>0.2924258276891365</v>
+        <v>0.2546601640606312</v>
       </c>
       <c r="K11">
-        <v>0.3826390286705621</v>
+        <v>0.3333425710975462</v>
       </c>
       <c r="L11">
-        <v>0.1613664980221579</v>
+        <v>0.1336928470745606</v>
       </c>
       <c r="M11">
-        <v>1.687109339735628</v>
+        <v>0.1184867174239983</v>
       </c>
       <c r="N11">
-        <v>0.2604387294820611</v>
+        <v>0.1522461501470112</v>
       </c>
       <c r="O11">
-        <v>0.2607023151110823</v>
+        <v>1.691358948602868</v>
       </c>
       <c r="P11">
-        <v>0.9376823029636441</v>
+        <v>0.2845702316611494</v>
       </c>
       <c r="Q11">
-        <v>1.309281618853731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2574277242313698</v>
+      </c>
+      <c r="R11">
+        <v>0.9250750780218766</v>
+      </c>
+      <c r="S11">
+        <v>1.214619926478306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9369557910389688</v>
+        <v>0.8671082180654253</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1092133799249524</v>
+        <v>0.1061517047927012</v>
       </c>
       <c r="E12">
-        <v>0.09361745875946825</v>
+        <v>0.08611995904272529</v>
       </c>
       <c r="F12">
-        <v>0.5517132888099425</v>
+        <v>0.5137536694830089</v>
       </c>
       <c r="G12">
-        <v>0.328379322902606</v>
+        <v>0.366466036798343</v>
       </c>
       <c r="H12">
-        <v>0.06042060181155051</v>
+        <v>0.05973144574240763</v>
       </c>
       <c r="I12">
-        <v>0.01178288174776565</v>
+        <v>0.008836182581644536</v>
       </c>
       <c r="J12">
-        <v>0.2787047432559646</v>
+        <v>0.2320968073784684</v>
       </c>
       <c r="K12">
-        <v>0.3630043186509671</v>
+        <v>0.3176316149888105</v>
       </c>
       <c r="L12">
-        <v>0.178400383423277</v>
+        <v>0.1284550825544892</v>
       </c>
       <c r="M12">
-        <v>1.74271021849998</v>
+        <v>0.1123398091676435</v>
       </c>
       <c r="N12">
-        <v>0.217532730563363</v>
+        <v>0.1702958437290398</v>
       </c>
       <c r="O12">
-        <v>0.2387871618624082</v>
+        <v>1.735984869227138</v>
       </c>
       <c r="P12">
-        <v>0.952098913799837</v>
+        <v>0.2359127982935121</v>
       </c>
       <c r="Q12">
-        <v>1.228640875054012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2354925525262033</v>
+      </c>
+      <c r="R12">
+        <v>0.9447013034903975</v>
+      </c>
+      <c r="S12">
+        <v>1.131674189788555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8816750636237884</v>
+        <v>0.8224633970383763</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09761721256187172</v>
+        <v>0.09467210378301161</v>
       </c>
       <c r="E13">
-        <v>0.0950802355493412</v>
+        <v>0.08805511125317711</v>
       </c>
       <c r="F13">
-        <v>0.5098296902357546</v>
+        <v>0.4768128159173699</v>
       </c>
       <c r="G13">
-        <v>0.3020802397152522</v>
+        <v>0.3359595221461973</v>
       </c>
       <c r="H13">
-        <v>0.1164562390298585</v>
+        <v>0.1157129277062552</v>
       </c>
       <c r="I13">
-        <v>0.0121889695572488</v>
+        <v>0.009104381254885219</v>
       </c>
       <c r="J13">
-        <v>0.265431956167177</v>
+        <v>0.2270080858733294</v>
       </c>
       <c r="K13">
-        <v>0.3487624790573918</v>
+        <v>0.3075564156542168</v>
       </c>
       <c r="L13">
-        <v>0.1994176470346218</v>
+        <v>0.1255139836507997</v>
       </c>
       <c r="M13">
-        <v>1.748605621313772</v>
+        <v>0.1075888359413302</v>
       </c>
       <c r="N13">
-        <v>0.1737914238012763</v>
+        <v>0.1918983279289819</v>
       </c>
       <c r="O13">
-        <v>0.2119904111156927</v>
+        <v>1.737903821711257</v>
       </c>
       <c r="P13">
-        <v>0.9757431074965623</v>
+        <v>0.1875872638556189</v>
       </c>
       <c r="Q13">
-        <v>1.14507309586044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2091821332552968</v>
+      </c>
+      <c r="R13">
+        <v>0.9690534547814948</v>
+      </c>
+      <c r="S13">
+        <v>1.06035649193737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8314833262491845</v>
+        <v>0.7804645001307335</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08971977703298251</v>
+        <v>0.08654309896292034</v>
       </c>
       <c r="E14">
-        <v>0.09787735285198629</v>
+        <v>0.09113392297126488</v>
       </c>
       <c r="F14">
-        <v>0.4801560736394279</v>
+        <v>0.4522577309850604</v>
       </c>
       <c r="G14">
-        <v>0.2828769181028647</v>
+        <v>0.3063815283298581</v>
       </c>
       <c r="H14">
-        <v>0.1660549491231507</v>
+        <v>0.1652519441453819</v>
       </c>
       <c r="I14">
-        <v>0.01277682142519332</v>
+        <v>0.0095341920328611</v>
       </c>
       <c r="J14">
-        <v>0.2563266873346848</v>
+        <v>0.2299037234009518</v>
       </c>
       <c r="K14">
-        <v>0.3413212771381477</v>
+        <v>0.3028970741046892</v>
       </c>
       <c r="L14">
-        <v>0.2168089978537679</v>
+        <v>0.1242745823413283</v>
       </c>
       <c r="M14">
-        <v>1.730763634481065</v>
+        <v>0.1050031435535441</v>
       </c>
       <c r="N14">
-        <v>0.1438154475315656</v>
+        <v>0.2094976323400601</v>
       </c>
       <c r="O14">
-        <v>0.1912532093325225</v>
+        <v>1.720360141327973</v>
       </c>
       <c r="P14">
-        <v>0.9969475873889451</v>
+        <v>0.1549038330817822</v>
       </c>
       <c r="Q14">
-        <v>1.08524505587566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1889720777256798</v>
+      </c>
+      <c r="R14">
+        <v>0.988266758593781</v>
+      </c>
+      <c r="S14">
+        <v>1.014627461761847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.813051059781003</v>
+        <v>0.7644524447871959</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08769748983182524</v>
+        <v>0.08435331348533026</v>
       </c>
       <c r="E15">
-        <v>0.09873508407114961</v>
+        <v>0.09208591446217262</v>
       </c>
       <c r="F15">
-        <v>0.4723627772970431</v>
+        <v>0.446444220605926</v>
       </c>
       <c r="G15">
-        <v>0.277587211470042</v>
+        <v>0.2955679236859652</v>
       </c>
       <c r="H15">
-        <v>0.1786888217168752</v>
+        <v>0.1778556169061005</v>
       </c>
       <c r="I15">
-        <v>0.01316325546864938</v>
+        <v>0.009864626380206687</v>
       </c>
       <c r="J15">
-        <v>0.2540955355440815</v>
+        <v>0.2334332308681368</v>
       </c>
       <c r="K15">
-        <v>0.3402244617720305</v>
+        <v>0.3025007669424804</v>
       </c>
       <c r="L15">
-        <v>0.2210104903887213</v>
+        <v>0.1242076028322905</v>
       </c>
       <c r="M15">
-        <v>1.716484431697211</v>
+        <v>0.1045880735747557</v>
       </c>
       <c r="N15">
-        <v>0.1363301929108189</v>
+        <v>0.213746110989824</v>
       </c>
       <c r="O15">
-        <v>0.1851071353578497</v>
+        <v>1.70746072157749</v>
       </c>
       <c r="P15">
-        <v>1.003717273988187</v>
+        <v>0.1468712406740025</v>
       </c>
       <c r="Q15">
-        <v>1.069328880446903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1830362293801535</v>
+      </c>
+      <c r="R15">
+        <v>0.9935820104504742</v>
+      </c>
+      <c r="S15">
+        <v>1.004541759711728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7652233654046938</v>
+        <v>0.7201638088607183</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08666606578868397</v>
+        <v>0.08239044706686371</v>
       </c>
       <c r="E16">
-        <v>0.0975079632044924</v>
+        <v>0.09110992597967815</v>
       </c>
       <c r="F16">
-        <v>0.4696645933519648</v>
+        <v>0.4499732711357751</v>
       </c>
       <c r="G16">
-        <v>0.2738483473500466</v>
+        <v>0.2674167164354202</v>
       </c>
       <c r="H16">
-        <v>0.166669814211474</v>
+        <v>0.1656701358410828</v>
       </c>
       <c r="I16">
-        <v>0.0144342304813776</v>
+        <v>0.01079019198385378</v>
       </c>
       <c r="J16">
-        <v>0.255174221204804</v>
+        <v>0.2603311967425199</v>
       </c>
       <c r="K16">
-        <v>0.3476422945896971</v>
+        <v>0.3101137706906396</v>
       </c>
       <c r="L16">
-        <v>0.2134648140005169</v>
+        <v>0.1267661045321038</v>
       </c>
       <c r="M16">
-        <v>1.614467697022036</v>
+        <v>0.1068596840583904</v>
       </c>
       <c r="N16">
-        <v>0.1295209762658445</v>
+        <v>0.2063169608559221</v>
       </c>
       <c r="O16">
-        <v>0.1747822818602529</v>
+        <v>1.616055895888309</v>
       </c>
       <c r="P16">
-        <v>1.012382583532201</v>
+        <v>0.1406568225590732</v>
       </c>
       <c r="Q16">
-        <v>1.063490815786182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1734154918239952</v>
+      </c>
+      <c r="R16">
+        <v>0.9944773910117917</v>
+      </c>
+      <c r="S16">
+        <v>1.018867415234482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7548385747222142</v>
+        <v>0.7083204343478258</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08994812314420386</v>
+        <v>0.08513672349375412</v>
       </c>
       <c r="E17">
-        <v>0.09478576981636966</v>
+        <v>0.08830234799999648</v>
       </c>
       <c r="F17">
-        <v>0.4832655902090224</v>
+        <v>0.4651838198177316</v>
       </c>
       <c r="G17">
-        <v>0.2811654920363651</v>
+        <v>0.2643482728657531</v>
       </c>
       <c r="H17">
-        <v>0.12932021986569</v>
+        <v>0.1282243008552229</v>
       </c>
       <c r="I17">
-        <v>0.0151264631359469</v>
+        <v>0.01130581329151248</v>
       </c>
       <c r="J17">
-        <v>0.2608614538311187</v>
+        <v>0.2778139075688628</v>
       </c>
       <c r="K17">
-        <v>0.3571542168884729</v>
+        <v>0.3184587575059368</v>
       </c>
       <c r="L17">
-        <v>0.1979214807389837</v>
+        <v>0.1297236242445692</v>
       </c>
       <c r="M17">
-        <v>1.546017774656093</v>
+        <v>0.1097613721017394</v>
       </c>
       <c r="N17">
-        <v>0.1398289929388454</v>
+        <v>0.1906234803180169</v>
       </c>
       <c r="O17">
-        <v>0.1777014625333884</v>
+        <v>1.553590855359346</v>
       </c>
       <c r="P17">
-        <v>1.007932590073196</v>
+        <v>0.1526554355856007</v>
       </c>
       <c r="Q17">
-        <v>1.090808247454888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1765448136017973</v>
+      </c>
+      <c r="R17">
+        <v>0.9863499250197165</v>
+      </c>
+      <c r="S17">
+        <v>1.052424842565543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7782615873251189</v>
+        <v>0.725527944976335</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09788982719499728</v>
+        <v>0.09252651656545652</v>
       </c>
       <c r="E18">
-        <v>0.09218038757927305</v>
+        <v>0.08525365715246558</v>
       </c>
       <c r="F18">
-        <v>0.5136216830463312</v>
+        <v>0.4944676960448149</v>
       </c>
       <c r="G18">
-        <v>0.2995200620381127</v>
+        <v>0.2771774464709864</v>
       </c>
       <c r="H18">
-        <v>0.07659644562188817</v>
+        <v>0.07547572098632571</v>
       </c>
       <c r="I18">
-        <v>0.01500567363090433</v>
+        <v>0.01109867229305106</v>
       </c>
       <c r="J18">
-        <v>0.271459666864331</v>
+        <v>0.2931116365161799</v>
       </c>
       <c r="K18">
-        <v>0.3709978539393379</v>
+        <v>0.3297674589605055</v>
       </c>
       <c r="L18">
-        <v>0.1769946831704878</v>
+        <v>0.1339347912452569</v>
       </c>
       <c r="M18">
-        <v>1.49705941287354</v>
+        <v>0.1138677761456188</v>
       </c>
       <c r="N18">
-        <v>0.1670088893721058</v>
+        <v>0.169222862787187</v>
       </c>
       <c r="O18">
-        <v>0.1928213538966972</v>
+        <v>1.509943196001359</v>
       </c>
       <c r="P18">
-        <v>0.9930771106573886</v>
+        <v>0.1832241795795539</v>
       </c>
       <c r="Q18">
-        <v>1.151857215604636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1915984435106246</v>
+      </c>
+      <c r="R18">
+        <v>0.969669580646098</v>
+      </c>
+      <c r="S18">
+        <v>1.112208686491428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8216097174991432</v>
+        <v>0.7593859607050888</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1095019378288313</v>
+        <v>0.1034956467871524</v>
       </c>
       <c r="E19">
-        <v>0.09246452192559484</v>
+        <v>0.08471754828335398</v>
       </c>
       <c r="F19">
-        <v>0.5547073195651819</v>
+        <v>0.5327641194710111</v>
       </c>
       <c r="G19">
-        <v>0.3248041939690509</v>
+        <v>0.2991912286849896</v>
       </c>
       <c r="H19">
-        <v>0.03101629136302364</v>
+        <v>0.0299503666631864</v>
       </c>
       <c r="I19">
-        <v>0.01484093087501126</v>
+        <v>0.01103661373562126</v>
       </c>
       <c r="J19">
-        <v>0.284819311181451</v>
+        <v>0.3071103928433629</v>
       </c>
       <c r="K19">
-        <v>0.3876307470385445</v>
+        <v>0.3428153803750575</v>
       </c>
       <c r="L19">
-        <v>0.1590100193348327</v>
+        <v>0.1388718461226164</v>
       </c>
       <c r="M19">
-        <v>1.471196715729917</v>
+        <v>0.1186951811427459</v>
       </c>
       <c r="N19">
-        <v>0.2106651790962815</v>
+        <v>0.1502615160383378</v>
       </c>
       <c r="O19">
-        <v>0.2172399612948652</v>
+        <v>1.489386673702654</v>
       </c>
       <c r="P19">
-        <v>0.9753381028268464</v>
+        <v>0.2319384923672771</v>
       </c>
       <c r="Q19">
-        <v>1.23342455089832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2157709860837755</v>
+      </c>
+      <c r="R19">
+        <v>0.9508603457644114</v>
+      </c>
+      <c r="S19">
+        <v>1.1879383741271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9307996547538835</v>
+        <v>0.8493154883100829</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1314209982857761</v>
+        <v>0.1246221149263889</v>
       </c>
       <c r="E20">
-        <v>0.1001084050343977</v>
+        <v>0.09060781269694029</v>
       </c>
       <c r="F20">
-        <v>0.6273363407065631</v>
+        <v>0.5974204022476499</v>
       </c>
       <c r="G20">
-        <v>0.3707259852558522</v>
+        <v>0.3485842498402576</v>
       </c>
       <c r="H20">
-        <v>0.003391987856694811</v>
+        <v>0.002576324313402267</v>
       </c>
       <c r="I20">
-        <v>0.01345474920274725</v>
+        <v>0.01007450784824471</v>
       </c>
       <c r="J20">
-        <v>0.3065192588185681</v>
+        <v>0.317000133978361</v>
       </c>
       <c r="K20">
-        <v>0.413082559501305</v>
+        <v>0.3611838596005441</v>
       </c>
       <c r="L20">
-        <v>0.1472469957312637</v>
+        <v>0.1451383698639077</v>
       </c>
       <c r="M20">
-        <v>1.503883809640172</v>
+        <v>0.1265611371291087</v>
       </c>
       <c r="N20">
-        <v>0.2956071795091475</v>
+        <v>0.1361725675766152</v>
       </c>
       <c r="O20">
-        <v>0.2674278407024175</v>
+        <v>1.528106514172748</v>
       </c>
       <c r="P20">
-        <v>0.9453748658690451</v>
+        <v>0.3264895975912481</v>
       </c>
       <c r="Q20">
-        <v>1.376332000406336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2651663201670793</v>
+      </c>
+      <c r="R20">
+        <v>0.9208662952172446</v>
+      </c>
+      <c r="S20">
+        <v>1.311397100241379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.048330477634494</v>
+        <v>0.9536353664614694</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1409258014242454</v>
+        <v>0.1369006842938916</v>
       </c>
       <c r="E21">
-        <v>0.103081773716883</v>
+        <v>0.09349093236120876</v>
       </c>
       <c r="F21">
-        <v>0.6580549351192531</v>
+        <v>0.6099272388334853</v>
       </c>
       <c r="G21">
-        <v>0.3934597294678355</v>
+        <v>0.4309477373653579</v>
       </c>
       <c r="H21">
-        <v>0.001944456642832937</v>
+        <v>0.00141560065902413</v>
       </c>
       <c r="I21">
-        <v>0.01130738949129295</v>
+        <v>0.008609656452200021</v>
       </c>
       <c r="J21">
-        <v>0.3125977283597763</v>
+        <v>0.2547588829097265</v>
       </c>
       <c r="K21">
-        <v>0.4089398707084833</v>
+        <v>0.3517996445700895</v>
       </c>
       <c r="L21">
-        <v>0.1509650222665861</v>
+        <v>0.1395987321064318</v>
       </c>
       <c r="M21">
-        <v>1.680200371678865</v>
+        <v>0.1266220456061795</v>
       </c>
       <c r="N21">
-        <v>0.3378565712289543</v>
+        <v>0.1393953913207078</v>
       </c>
       <c r="O21">
-        <v>0.303002201259126</v>
+        <v>1.686069805442173</v>
       </c>
       <c r="P21">
-        <v>0.9154457891017564</v>
+        <v>0.3696581781792219</v>
       </c>
       <c r="Q21">
-        <v>1.437561162490027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2987481124171794</v>
+      </c>
+      <c r="R21">
+        <v>0.9004568433025852</v>
+      </c>
+      <c r="S21">
+        <v>1.317664789317973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.125309439744825</v>
+        <v>1.022396445914012</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1463634648598813</v>
+        <v>0.1445539165820691</v>
       </c>
       <c r="E22">
-        <v>0.1046345591951079</v>
+        <v>0.09514515175411997</v>
       </c>
       <c r="F22">
-        <v>0.67662803328178</v>
+        <v>0.6156175131546533</v>
       </c>
       <c r="G22">
-        <v>0.4076296399894801</v>
+        <v>0.492619525231305</v>
       </c>
       <c r="H22">
-        <v>0.001308707674135712</v>
+        <v>0.0009265623102162612</v>
       </c>
       <c r="I22">
-        <v>0.009739983196289437</v>
+        <v>0.0073795510995458</v>
       </c>
       <c r="J22">
-        <v>0.3162810354811398</v>
+        <v>0.2198910276719275</v>
       </c>
       <c r="K22">
-        <v>0.4061280381093511</v>
+        <v>0.345435569318866</v>
       </c>
       <c r="L22">
-        <v>0.1536017093697986</v>
+        <v>0.1360843780362</v>
       </c>
       <c r="M22">
-        <v>1.794232504768217</v>
+        <v>0.1268081461917347</v>
       </c>
       <c r="N22">
-        <v>0.3601290008728171</v>
+        <v>0.1418253410897723</v>
       </c>
       <c r="O22">
-        <v>0.3243505948239473</v>
+        <v>1.78583249588462</v>
       </c>
       <c r="P22">
-        <v>0.8968826816624791</v>
+        <v>0.3917039290105464</v>
       </c>
       <c r="Q22">
-        <v>1.475506453782913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3186733591139586</v>
+      </c>
+      <c r="R22">
+        <v>0.8887502682840918</v>
+      </c>
+      <c r="S22">
+        <v>1.316544385238842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.088303157372309</v>
+        <v>0.9893330124813531</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1436707076196271</v>
+        <v>0.1402480575783542</v>
       </c>
       <c r="E23">
-        <v>0.1039570557937814</v>
+        <v>0.09433058021798679</v>
       </c>
       <c r="F23">
-        <v>0.6678228543852924</v>
+        <v>0.6152545750057072</v>
       </c>
       <c r="G23">
-        <v>0.4008395058711898</v>
+        <v>0.452607956529576</v>
       </c>
       <c r="H23">
-        <v>0.001627225184981484</v>
+        <v>0.001167511021620271</v>
       </c>
       <c r="I23">
-        <v>0.01020319578553419</v>
+        <v>0.007604252939549028</v>
       </c>
       <c r="J23">
-        <v>0.3147089716837712</v>
+        <v>0.2435913356125852</v>
       </c>
       <c r="K23">
-        <v>0.4087061367339508</v>
+        <v>0.3500933238199053</v>
       </c>
       <c r="L23">
-        <v>0.1521748896253037</v>
+        <v>0.1383381977057088</v>
       </c>
       <c r="M23">
-        <v>1.731119001509143</v>
+        <v>0.127240413433233</v>
       </c>
       <c r="N23">
-        <v>0.3466302531864471</v>
+        <v>0.1405306097903196</v>
       </c>
       <c r="O23">
-        <v>0.3130819596867696</v>
+        <v>1.733378746203982</v>
       </c>
       <c r="P23">
-        <v>0.9062957764299036</v>
+        <v>0.3788988593136651</v>
       </c>
       <c r="Q23">
-        <v>1.457717272943455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3083367041939908</v>
+      </c>
+      <c r="R23">
+        <v>0.8937482553804372</v>
+      </c>
+      <c r="S23">
+        <v>1.324644944053745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9409403764198601</v>
+        <v>0.8580440194399443</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1331681620265428</v>
+        <v>0.1262549597371461</v>
       </c>
       <c r="E24">
-        <v>0.1011245466368518</v>
+        <v>0.09144662124220648</v>
       </c>
       <c r="F24">
-        <v>0.633730544602578</v>
+        <v>0.6034697760965884</v>
       </c>
       <c r="G24">
-        <v>0.3747598011065634</v>
+        <v>0.3518635315400047</v>
       </c>
       <c r="H24">
-        <v>0.003198459990053415</v>
+        <v>0.002393507668202899</v>
       </c>
       <c r="I24">
-        <v>0.01284800253905516</v>
+        <v>0.009383304808309845</v>
       </c>
       <c r="J24">
-        <v>0.3086593119658403</v>
+        <v>0.3195843823041997</v>
       </c>
       <c r="K24">
-        <v>0.4171168515976511</v>
+        <v>0.3644862243575755</v>
       </c>
       <c r="L24">
-        <v>0.1467709439234328</v>
+        <v>0.1463807587135193</v>
       </c>
       <c r="M24">
-        <v>1.496066858520948</v>
+        <v>0.1277858766076143</v>
       </c>
       <c r="N24">
-        <v>0.2984516936366788</v>
+        <v>0.1354182310233991</v>
       </c>
       <c r="O24">
-        <v>0.270213692707852</v>
+        <v>1.520968982300388</v>
       </c>
       <c r="P24">
-        <v>0.9439731456032661</v>
+        <v>0.3299452481010405</v>
       </c>
       <c r="Q24">
-        <v>1.389361436767331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2679258357364702</v>
+      </c>
+      <c r="R24">
+        <v>0.9188860611856384</v>
+      </c>
+      <c r="S24">
+        <v>1.323792367851595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7808848109374367</v>
+        <v>0.7163905175102059</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.121923330173324</v>
+        <v>0.1156300400262396</v>
       </c>
       <c r="E25">
-        <v>0.09801440713184917</v>
+        <v>0.08886797521011669</v>
       </c>
       <c r="F25">
-        <v>0.5992575690716961</v>
+        <v>0.5747368918719857</v>
       </c>
       <c r="G25">
-        <v>0.3485352176878109</v>
+        <v>0.3228385476163425</v>
       </c>
       <c r="H25">
-        <v>0.005606006155706167</v>
+        <v>0.00438199077355278</v>
       </c>
       <c r="I25">
-        <v>0.0163790493011291</v>
+        <v>0.01191901284730701</v>
       </c>
       <c r="J25">
-        <v>0.30332418770967</v>
+        <v>0.3212705073232129</v>
       </c>
       <c r="K25">
-        <v>0.4271052039788366</v>
+        <v>0.3764514352702513</v>
       </c>
       <c r="L25">
-        <v>0.1408342675613623</v>
+        <v>0.1545089977704759</v>
       </c>
       <c r="M25">
-        <v>1.242900521866744</v>
+        <v>0.1280931470897784</v>
       </c>
       <c r="N25">
-        <v>0.247080832964798</v>
+        <v>0.1291155714881462</v>
       </c>
       <c r="O25">
-        <v>0.2239871050144551</v>
+        <v>1.259722660112573</v>
       </c>
       <c r="P25">
-        <v>0.9872241935797312</v>
+        <v>0.2716022337028079</v>
       </c>
       <c r="Q25">
-        <v>1.322137028623388</v>
+        <v>0.222395385135119</v>
+      </c>
+      <c r="R25">
+        <v>0.9543839999602177</v>
+      </c>
+      <c r="S25">
+        <v>1.270810363814547</v>
       </c>
     </row>
   </sheetData>
